--- a/test/data/mps155_timezone_bug_validated.xlsx
+++ b/test/data/mps155_timezone_bug_validated.xlsx
@@ -204,6 +204,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t>Matrix</t>
     </r>
     <r>
@@ -226,6 +227,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Ort der Probe-nahme
 </t>
     </r>
@@ -240,6 +242,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Ort der Probe-nahme
 </t>
     </r>
@@ -326,6 +329,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">b) Verwenden Sie bitte für jeden Erreger (getrennt auch für VTEC und kommensale </t>
     </r>
     <r>
@@ -354,6 +358,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t>Probenummer nach der "Allgemeinen Verwaltungsvorschrift über den Austausch von Daten im Bereich der Lebensmittelsicherheit und des Verbraucherschutzes" (AVVData), die an das BVL übermittelt wird.</t>
     </r>
     <r>
@@ -440,6 +445,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Erreger
 </t>
     </r>
@@ -460,6 +466,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">ADV-Code angeben
 </t>
     </r>
@@ -484,6 +491,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Kodiersystem mit
 Matrix-Code angeben
 (ADV2 + ADV3)
@@ -510,6 +518,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">ADV-Code angeben
 </t>
     </r>
@@ -571,6 +580,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Ort der Probe-nahme
 </t>
     </r>
@@ -585,6 +595,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Matrix
 Code
 </t>
@@ -600,6 +611,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Oberbegriff (Kodier-system) der Matrizes
 </t>
     </r>
@@ -614,6 +626,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Grund der Probe-nahme
 </t>
     </r>
@@ -628,6 +641,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Betriebsart
 </t>
     </r>
@@ -645,6 +659,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Ver-arbeitungs-zustand
 </t>
     </r>
@@ -659,6 +674,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Bemerkung
 </t>
     </r>
@@ -682,6 +698,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Betriebsart
 </t>
     </r>
@@ -696,6 +713,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Untersuchungsauftrag für Isolate/Proben </t>
     </r>
     <r>
@@ -711,6 +729,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Grund der Probe-nahme
 </t>
     </r>
@@ -725,6 +744,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Ort der Probenahme (ADV-Kat.Nr. 9) </t>
     </r>
     <r>
@@ -740,6 +760,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Oberbegriff (Kodiersystem) der Matrizes (ADV-Kat-Nr. 2) </t>
     </r>
     <r>
@@ -755,6 +776,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Matrix-Code (ADV-Kat.Nr. 3) </t>
     </r>
     <r>
@@ -770,6 +792,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Verarbeitungszustand (ADV-Kat-Nr.12) </t>
     </r>
     <r>
@@ -785,6 +808,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Grund der Probenahme (ADV-Kat.Nr. 4) </t>
     </r>
     <r>
@@ -800,6 +824,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Betriebsart (ADV-Kat-Nr.8) </t>
     </r>
     <r>
@@ -833,6 +858,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Erreger
 </t>
     </r>
@@ -847,6 +873,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t>Z.B. Zoonosen-Stichprobenplan-</t>
     </r>
     <r>
@@ -903,6 +930,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Erreger
 </t>
     </r>
@@ -917,6 +945,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Erreger
 </t>
     </r>
@@ -931,6 +960,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Ort der Probe-nahme
 </t>
     </r>
@@ -945,6 +975,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Ort der Probe-nahme
 </t>
     </r>
@@ -959,6 +990,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Ort der Probe-nahme
 </t>
     </r>
@@ -973,6 +1005,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Oberbe-griff (Kodier-system) der Matrizes
 </t>
     </r>
@@ -987,6 +1020,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Matrix
 Code
 </t>
@@ -1002,6 +1036,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Matrix
 </t>
     </r>
@@ -1016,6 +1051,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Ver-arbeitungs-zustand
 </t>
     </r>
@@ -1030,6 +1066,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Grund der Probe-nahme
 </t>
     </r>
@@ -1044,6 +1081,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Grund der Probe-nahme
 </t>
     </r>
@@ -1058,6 +1096,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Betriebsart
 </t>
     </r>
@@ -1072,6 +1111,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Betriebsart
 </t>
     </r>
@@ -1086,6 +1126,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Bemerkung
 </t>
     </r>
@@ -1100,6 +1141,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Bitte senden Sie die Excel-Datei mit eindeutiger Zuordnung (z.B. "E.coli.xlsx") an die allgemeine E-Mail-Adresse der mikrobiologischen NRLs des BfR: </t>
     </r>
     <r>
@@ -1122,6 +1164,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Weitergehende molekularbiologische Feintypisierung </t>
     </r>
     <r>
@@ -1136,6 +1179,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Vergleiche mit humanen Isolaten </t>
     </r>
     <r>
@@ -1156,6 +1200,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">Bitte führen Sie folgende Untersuchungen der Isolate durch </t>
     </r>
     <r>
@@ -1185,6 +1230,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">NRL </t>
     </r>
     <r>
@@ -1219,6 +1265,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">- Escherichia coli
 - Escherichia coli ESBL-bildend
 - Escherichia coli AmpC-bildend
@@ -1249,6 +1296,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -1353,6 +1401,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -1419,6 +1468,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t>(x)</t>
     </r>
     <r>
@@ -1437,6 +1487,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">f) Die ADV-Codes (Codes zur </t>
     </r>
     <r>
@@ -1514,6 +1565,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t>a) Für die Sicherung der ordnungsgemäßen Abläufe und Dokumentation der Probenahme und den Versand von Probenmaterial ist der Einsender verantwortlich. Besondere Hinweise z.B. zum Zustand von Proben oder besonderer Sicherheitshinweise hinterlegen Sie bitte im Bemerkungsfeld. Bitte beachten Sie auch das Dokument "Allgemeine Bedingungen für den Austausch von Materialien - Vergabe an das BfR ", welches Sie auf der Internetseite des BfR (</t>
     </r>
     <r>
@@ -1546,6 +1598,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">ADV-Code aus Katalog-Nr. 12; z. B. 051 = mit Haut oder 040 = unverarbeitet/roh; ggf. </t>
     </r>
     <r>
@@ -1593,10 +1646,317 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Untersuchungsauftrag für Isolate/Proben </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a,b</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Bitte führen Sie folgende Untersuchungen der Isolate durch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Weitergehende molekularbiologische Feintypisierung </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Vergleiche mit humanen Isolaten </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Bitte senden Sie die Excel-Datei mit eindeutiger Zuordnung (z.B. "E.coli.xlsx") an die allgemeine E-Mail-Adresse der mikrobiologischen NRLs des BfR: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NRLs-Mibi@bfr.bund.de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Erreger
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Text aus ADV-Kat-Nr.16)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Erreger
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Textfeld/ Ergänzung)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ort der Probe-nahme
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Code aus ADV-Kat-Nr.9)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ort der Probe-nahme
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(PLZ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ort der Probe-nahme
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Oberbe-griff (Kodier-system) der Matrizes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Code aus ADV-Kat-Nr.2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Matrix
+Code
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Code aus ADV-Kat-Nr.3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Matrix
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Textfeld/ Ergänzung)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ver-arbeitungs-zustand
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Code aus ADV-Kat-Nr.12)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Grund der Probe-nahme
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Code aus ADV-Kat-Nr.4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Grund der Probe-nahme
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Textfeld/ Ergänzung)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Betriebsart
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Code aus ADV-Kat-Nr.8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Betriebsart
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Textfeld/ Ergänzung)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Bemerkung
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(u.a. Untersuchungs-programm)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -1756,6 +2116,837 @@
   </si>
   <si>
     <t xml:space="preserve">8000000</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>Probenummer nach der "Allgemeinen Verwaltungsvorschrift über den Austausch von Daten im Bereich der Lebensmittelsicherheit und des Verbraucherschutzes" (AVVData), die an das BVL übermittelt wird.</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ort der Probenahme (ADV-Kat.Nr. 9) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">ADV-Code angeben
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>oder / und</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+PLZ mit Ort angeben</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Oberbegriff (Kodiersystem) der Matrizes (ADV-Kat-Nr. 2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Kodiersystem mit
+Matrix-Code angeben
+(ADV2 + ADV3)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>oder / und</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Matrix als Text angeben</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Matrix-Code (ADV-Kat.Nr. 3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Verarbeitungszustand (ADV-Kat-Nr.12) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">ADV-Code aus Katalog-Nr. 12; z. B. 051 = mit Haut oder 040 = unverarbeitet/roh; ggf. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pflicht</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, wenn Betriebsart mit 4 beginnt / es den Einzelhandel betrifft</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(x)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Grund der Probenahme (ADV-Kat.Nr. 4) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">ADV-Code angeben
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">oder / und </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Betriebsart (ADV-Kat-Nr.8) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>Z.B. Zoonosen-Stichprobenplan-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Programm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> oder </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>geografische Herkunft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> der Probe; bitte ggf. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>epidemiologisch relevante Daten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> angeben (z.B. Ausbruch in einem Bestand; Isolate im Zusammenhang mit Erkrankungen von Personen - auch vermutet: ja/nein)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Erreger
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Text aus ADV-Kat-Nr.16)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Erreger
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Textfeld/ Ergänzung)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ort der Probe-nahme
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Code aus ADV-Kat-Nr.9)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ort der Probe-nahme
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(PLZ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ort der Probe-nahme
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Oberbegriff (Kodier-system) der Matrizes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Code aus ADV-Kat-Nr.2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Matrix
+Code
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Code aus ADV-Kat-Nr.3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>Matrix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Textfeld/ Ergänzung)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ver-arbeitungs-zustand
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Code aus ADV-Kat-Nr.12)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Grund der Probe-nahme
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Code aus ADV-Kat-Nr.4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Grund der Probe-nahme
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Textfeld/ Ergänzung)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Betriebsart
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Code aus ADV-Kat-Nr.8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Betriebsart
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Textfeld/ Ergänzung)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Bemerkung
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(u.a. Untersuchungs-programm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>a) Für die Sicherung der ordnungsgemäßen Abläufe und Dokumentation der Probenahme und den Versand von Probenmaterial ist der Einsender verantwortlich. Besondere Hinweise z.B. zum Zustand von Proben oder besonderer Sicherheitshinweise hinterlegen Sie bitte im Bemerkungsfeld. Bitte beachten Sie auch das Dokument "Allgemeine Bedingungen für den Austausch von Materialien - Vergabe an das BfR ", welches Sie auf der Internetseite des BfR (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://www.bfr.bund.de/cm/343/mt-bedingungen-teil-b.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) finden können.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">b) Verwenden Sie bitte für jeden Erreger (getrennt auch für VTEC und kommensale </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. coli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sowie MRSA und andere Staphylokokken) einen separaten Einsendebogen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">f) Die ADV-Codes (Codes zur </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">utomatisierten </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>aten</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>erarbeitung) finden Sie auf der Homepage des Bundesamtes für Verbraucherschutz und Lebensmittelsicherheit (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://www.bvl.bund.de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>). Bitte verwenden Sie stets den vollständigen Code.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">NRL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. coli</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">- Escherichia coli
+- Escherichia coli ESBL-bildend
+- Escherichia coli AmpC-bildend
+- Escherichia coli ESBL/AmpC-bildend
+- Escherichia coli Carbapenemase-bildend
+- Genus Enterococcus
+- Enterococcus faecalis
+- Enterococcus faecium
+- [Andere </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Carbapenemase-bildende</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Enterobacteriaceae (z.B. Klebsiella, Enterobacter, Citrobacter…)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ADV-Code angeben</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+        oder / und </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Beispiele:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ZoMo-Bek
+- VO 2073</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- 81 bzw. Zoonosen-Monitoring - Planprobe bzw. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ZoMo-Nat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> bzw. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ZSP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ADV-Code angeben</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+        oder / und </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Beispiele:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Diagnostik
+- 81 bzw. Zoonosen-Monitoring - Planprobe</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -8666,7 +9857,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21">
       <c r="A1" t="s" s="221">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="B1" s="222"/>
       <c r="C1" s="222"/>
@@ -8821,7 +10012,7 @@
         <v>87</v>
       </c>
       <c r="B7" t="s" s="226">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C7" s="226"/>
       <c r="D7" s="226"/>
@@ -8933,7 +10124,7 @@
       <c r="H11" s="140"/>
       <c r="I11" s="140"/>
       <c r="J11" t="s" s="149">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="K11" s="150"/>
       <c r="L11" s="151"/>
@@ -8954,7 +10145,7 @@
       </c>
       <c r="B12" s="225"/>
       <c r="C12" t="s" s="227">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D12" s="227"/>
       <c r="E12" s="227"/>
@@ -8971,7 +10162,7 @@
       <c r="N12" s="238"/>
       <c r="O12" s="239"/>
       <c r="P12" t="s" s="137">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q12" s="153"/>
       <c r="R12" s="153"/>
@@ -8999,7 +10190,7 @@
       <c r="N13" s="232"/>
       <c r="O13" s="233"/>
       <c r="P13" t="s" s="137">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="153"/>
       <c r="R13" s="153"/>
@@ -9040,7 +10231,7 @@
       </c>
       <c r="B15" s="220"/>
       <c r="C15" t="s" s="227">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D15" s="227"/>
       <c r="E15" s="227"/>
@@ -9057,7 +10248,7 @@
       <c r="N15" s="235"/>
       <c r="O15" s="236"/>
       <c r="P15" t="s" s="137">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q15" s="153"/>
       <c r="R15" s="153"/>
@@ -9085,7 +10276,7 @@
       <c r="N16" s="235"/>
       <c r="O16" s="236"/>
       <c r="P16" t="s" s="137">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="153"/>
       <c r="R16" s="153"/>
@@ -9100,7 +10291,7 @@
       </c>
       <c r="B17" s="220"/>
       <c r="C17" t="s" s="227">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D17" s="227"/>
       <c r="E17" s="227"/>
@@ -9109,7 +10300,7 @@
       <c r="H17" s="227"/>
       <c r="I17" s="168"/>
       <c r="J17" t="s" s="234">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="K17" s="235"/>
       <c r="L17" s="235"/>
@@ -9117,7 +10308,7 @@
       <c r="N17" s="235"/>
       <c r="O17" s="236"/>
       <c r="P17" t="s" s="137">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="153"/>
       <c r="R17" s="153"/>
@@ -9145,7 +10336,7 @@
       <c r="N18" s="232"/>
       <c r="O18" s="233"/>
       <c r="P18" t="s" s="137">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q18" s="153"/>
       <c r="R18" s="153"/>
@@ -9158,7 +10349,7 @@
       </c>
       <c r="B19" s="220"/>
       <c r="C19" t="s" s="227">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D19" s="227"/>
       <c r="E19" s="227"/>
@@ -9186,7 +10377,7 @@
       </c>
       <c r="B20" s="220"/>
       <c r="C20" t="s" s="227">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D20" s="227"/>
       <c r="E20" s="227"/>
@@ -9203,7 +10394,7 @@
       <c r="N20" s="232"/>
       <c r="O20" s="233"/>
       <c r="P20" t="s" s="137">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="153"/>
       <c r="R20" s="153"/>
@@ -9218,7 +10409,7 @@
       </c>
       <c r="B21" s="220"/>
       <c r="C21" t="s" s="227">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D21" s="227"/>
       <c r="E21" s="227"/>
@@ -9235,7 +10426,7 @@
       <c r="N21" s="232"/>
       <c r="O21" s="233"/>
       <c r="P21" t="s" s="137">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q21" s="153"/>
       <c r="R21" s="153"/>
@@ -9250,7 +10441,7 @@
       </c>
       <c r="B22" s="220"/>
       <c r="C22" t="s" s="227">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D22" s="227"/>
       <c r="E22" s="227"/>
@@ -9259,7 +10450,7 @@
       <c r="H22" s="227"/>
       <c r="I22" s="168"/>
       <c r="J22" t="s" s="228">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K22" s="229"/>
       <c r="L22" s="229"/>
@@ -9285,7 +10476,7 @@
       <c r="H23" s="140"/>
       <c r="I23" s="140"/>
       <c r="J23" t="s" s="228">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="K23" s="229"/>
       <c r="L23" s="229"/>
@@ -9293,7 +10484,7 @@
       <c r="N23" s="229"/>
       <c r="O23" s="230"/>
       <c r="P23" t="s" s="138">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="153"/>
       <c r="R23" s="153"/>
@@ -9310,7 +10501,7 @@
       <c r="H24" s="140"/>
       <c r="I24" s="140"/>
       <c r="J24" t="s" s="228">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K24" s="229"/>
       <c r="L24" s="229"/>
@@ -9564,7 +10755,7 @@
     </row>
     <row r="36" spans="1:25" s="127" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A36" t="s" s="146">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="B36" s="140"/>
       <c r="C36" s="140"/>
@@ -9689,10 +10880,10 @@
         <v>53</v>
       </c>
       <c r="C41" t="s" s="111">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="D41" t="s" s="112">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s" s="113">
         <v>73</v>
@@ -9701,69 +10892,69 @@
         <v>1</v>
       </c>
       <c r="G41" t="s" s="111">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="H41" t="s" s="115">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="I41" t="s" s="112">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="J41" t="s" s="113">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="K41" t="s" s="115">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s" s="114">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="M41" t="s" s="116">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="N41" t="s" s="113">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="O41" t="s" s="114">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="P41" t="s" s="111">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="Q41" t="s" s="112">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="R41" t="s" s="116">
         <v>144</v>
       </c>
       <c r="S41" t="s" s="116">
-        <v>177</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:25" s="77" customFormat="1" ht="21.75" customHeight="1">
       <c r="A42" t="s" s="315">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="B42" t="s" s="316">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C42" t="s" s="317">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="D42" t="s" s="318">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E42" t="s" s="319">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F42" t="s" s="320">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="G42" t="s" s="321">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H42" t="s" s="322">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="I42" t="s" s="323">
         <v>54</v>
@@ -9772,58 +10963,58 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="325">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="L42" t="s" s="326">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="M42" t="s" s="327">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="N42" t="s" s="328">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="O42" t="s" s="329">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="P42" t="s" s="330">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="Q42" t="s" s="331">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="R42" t="s" s="332">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S42" t="s" s="333">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T42" s="334"/>
     </row>
     <row r="43" spans="1:25" s="10" customFormat="1" ht="21.75" customHeight="1">
       <c r="A43" t="s" s="335">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s" s="336">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s" s="337">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="D43" t="s" s="338">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="E43" t="s" s="339">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="F43" t="s" s="340">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="G43" t="s" s="341">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H43" t="s" s="342">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="I43" t="s" s="343">
         <v>54</v>
@@ -9832,118 +11023,118 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="345">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="L43" t="s" s="346">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="M43" t="s" s="347">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="N43" t="s" s="348">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="O43" t="s" s="349">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="P43" t="s" s="350">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="Q43" t="s" s="351">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="R43" t="s" s="352">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S43" t="s" s="353">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T43" s="354"/>
     </row>
     <row r="44" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
       <c r="A44" t="s" s="355">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="B44" t="s" s="356">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C44" t="s" s="357">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="D44" t="s" s="358">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E44" t="s" s="359">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F44" t="s" s="360">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="G44" t="s" s="361">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H44" t="s" s="362">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="I44" t="s" s="363">
         <v>54</v>
       </c>
       <c r="J44" t="s" s="364">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="K44" t="s" s="365">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="L44" t="s" s="366">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="M44" t="s" s="367">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N44" t="s" s="368">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O44" t="s" s="369">
         <v>124</v>
       </c>
       <c r="P44" t="s" s="370">
+        <v>253</v>
+      </c>
+      <c r="Q44" t="s" s="371">
+        <v>254</v>
+      </c>
+      <c r="R44" t="s" s="372">
+        <v>209</v>
+      </c>
+      <c r="S44" t="s" s="373">
+        <v>255</v>
+      </c>
+      <c r="T44" s="374"/>
+    </row>
+    <row r="45" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A45" t="s" s="375">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s" s="376">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s" s="377">
+        <v>258</v>
+      </c>
+      <c r="D45" t="s" s="378">
+        <v>209</v>
+      </c>
+      <c r="E45" t="s" s="379">
+        <v>259</v>
+      </c>
+      <c r="F45" t="s" s="380">
+        <v>260</v>
+      </c>
+      <c r="G45" t="s" s="381">
         <v>234</v>
       </c>
-      <c r="Q44" t="s" s="371">
+      <c r="H45" t="s" s="382">
         <v>235</v>
-      </c>
-      <c r="R44" t="s" s="372">
-        <v>208</v>
-      </c>
-      <c r="S44" t="s" s="373">
-        <v>236</v>
-      </c>
-      <c r="T44" s="374"/>
-    </row>
-    <row r="45" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A45" t="s" s="375">
-        <v>237</v>
-      </c>
-      <c r="B45" t="s" s="376">
-        <v>238</v>
-      </c>
-      <c r="C45" t="s" s="377">
-        <v>239</v>
-      </c>
-      <c r="D45" t="s" s="378">
-        <v>208</v>
-      </c>
-      <c r="E45" t="s" s="379">
-        <v>240</v>
-      </c>
-      <c r="F45" t="s" s="380">
-        <v>241</v>
-      </c>
-      <c r="G45" t="s" s="381">
-        <v>215</v>
-      </c>
-      <c r="H45" t="s" s="382">
-        <v>216</v>
       </c>
       <c r="I45" t="s" s="383">
         <v>54</v>
@@ -9952,211 +11143,211 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="385">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="L45" t="s" s="386">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="M45" t="s" s="387">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="N45" t="s" s="388">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="O45" t="s" s="389">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P45" t="s" s="390">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="Q45" t="s" s="391">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="R45" t="s" s="392">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S45" t="s" s="393">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="T45" s="394"/>
     </row>
     <row r="46" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
       <c r="A46" t="s" s="395">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="B46" t="s" s="396">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="C46" t="s" s="397">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D46" t="s" s="398">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E46" t="s" s="399">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F46" t="s" s="400">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="G46" t="s" s="401">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H46" t="s" s="402">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="I46" t="s" s="403">
         <v>54</v>
       </c>
       <c r="J46" t="s" s="404">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="K46" t="s" s="405">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="L46" t="s" s="406">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="M46" t="s" s="407">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N46" t="s" s="408">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="O46" t="s" s="409">
         <v>124</v>
       </c>
       <c r="P46" t="s" s="410">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="Q46" t="s" s="411">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R46" t="s" s="412">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="S46" t="s" s="413">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="T46" s="414"/>
     </row>
     <row r="47" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
       <c r="A47" t="s" s="415">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s" s="416">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C47" t="s" s="417">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D47" t="s" s="418">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E47" t="s" s="419">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F47" t="s" s="420">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="G47" t="s" s="421">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H47" t="s" s="422">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="I47" t="s" s="423">
         <v>54</v>
       </c>
       <c r="J47" t="s" s="424">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="K47" t="s" s="425">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="L47" t="s" s="426">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="M47" t="s" s="427">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N47" t="s" s="428">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="O47" t="s" s="429">
         <v>124</v>
       </c>
       <c r="P47" t="s" s="430">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="Q47" t="s" s="431">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R47" t="s" s="432">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="S47" t="s" s="433">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="T47" s="434"/>
     </row>
     <row r="48" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
       <c r="A48" t="s" s="435">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B48" t="s" s="436">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="C48" t="s" s="437">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="D48" t="s" s="438">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E48" t="s" s="439">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="F48" t="s" s="440">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="G48" t="s" s="441">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H48" t="s" s="442">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="I48" t="s" s="443">
         <v>54</v>
       </c>
       <c r="J48" t="s" s="444">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="K48" t="s" s="445">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="L48" t="s" s="446">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="M48" t="s" s="447">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N48" t="s" s="448">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="O48" t="s" s="449">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P48" t="s" s="450">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="Q48" t="s" s="451">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R48" t="s" s="452">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S48" t="s" s="453">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T48" s="454"/>
     </row>
@@ -50113,7 +51304,7 @@
       <c r="C6" s="256"/>
       <c r="D6" s="256"/>
       <c r="E6" t="s" s="257">
-        <v>93</v>
+        <v>282</v>
       </c>
       <c r="F6" s="258"/>
       <c r="G6" s="258"/>
@@ -50260,7 +51451,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="255">
-        <v>150</v>
+        <v>283</v>
       </c>
       <c r="C11" s="256"/>
       <c r="D11" s="256"/>
@@ -50281,7 +51472,7 @@
       <c r="Q11" s="243"/>
       <c r="R11" s="243"/>
       <c r="S11" t="s" s="243">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="T11" s="244"/>
     </row>
@@ -50346,7 +51537,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s" s="268">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="C14" s="256"/>
       <c r="D14" s="256"/>
@@ -50365,11 +51556,11 @@
       <c r="O14" s="258"/>
       <c r="P14" s="259"/>
       <c r="Q14" t="s" s="243">
-        <v>122</v>
+        <v>286</v>
       </c>
       <c r="R14" s="243"/>
       <c r="S14" t="s" s="243">
-        <v>122</v>
+        <v>286</v>
       </c>
       <c r="T14" s="244"/>
     </row>
@@ -50378,7 +51569,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s" s="255">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="C15" s="256"/>
       <c r="D15" s="256"/>
@@ -50434,12 +51625,12 @@
         <v>25</v>
       </c>
       <c r="B17" t="s" s="255">
-        <v>153</v>
+        <v>288</v>
       </c>
       <c r="C17" s="255"/>
       <c r="D17" s="255"/>
       <c r="E17" t="s" s="257">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="F17" s="258"/>
       <c r="G17" s="258"/>
@@ -50455,7 +51646,7 @@
       <c r="Q17" s="243"/>
       <c r="R17" s="243"/>
       <c r="S17" t="s" s="243">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="T17" s="244"/>
     </row>
@@ -50464,7 +51655,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s" s="255">
-        <v>154</v>
+        <v>291</v>
       </c>
       <c r="C18" s="256"/>
       <c r="D18" s="256"/>
@@ -50485,7 +51676,7 @@
       <c r="Q18" s="243"/>
       <c r="R18" s="243"/>
       <c r="S18" t="s" s="243">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="T18" s="244"/>
     </row>
@@ -50522,7 +51713,7 @@
         <v>63</v>
       </c>
       <c r="B20" t="s" s="255">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="C20" s="256"/>
       <c r="D20" s="256"/>
@@ -50543,7 +51734,7 @@
       <c r="Q20" s="243"/>
       <c r="R20" s="243"/>
       <c r="S20" t="s" s="243">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="T20" s="244"/>
     </row>
@@ -50601,7 +51792,7 @@
       <c r="Q22" s="243"/>
       <c r="R22" s="243"/>
       <c r="S22" t="s" s="243">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="T22" s="244"/>
     </row>
@@ -50615,7 +51806,7 @@
       <c r="C23" s="263"/>
       <c r="D23" s="263"/>
       <c r="E23" t="s" s="251">
-        <v>163</v>
+        <v>294</v>
       </c>
       <c r="F23" s="252"/>
       <c r="G23" s="252"/>
@@ -50760,10 +51951,10 @@
         <v>53</v>
       </c>
       <c r="D29" t="s" s="27">
-        <v>118</v>
+        <v>295</v>
       </c>
       <c r="E29" t="s" s="28">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="F29" t="s" s="7">
         <v>73</v>
@@ -50772,43 +51963,43 @@
         <v>1</v>
       </c>
       <c r="H29" t="s" s="27">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="I29" t="s" s="8">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="J29" t="s" s="28">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="K29" t="s" s="7">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s" s="8">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="M29" t="s" s="9">
-        <v>60</v>
+        <v>302</v>
       </c>
       <c r="N29" t="s" s="29">
-        <v>142</v>
+        <v>303</v>
       </c>
       <c r="O29" t="s" s="7">
-        <v>139</v>
+        <v>304</v>
       </c>
       <c r="P29" t="s" s="9">
-        <v>149</v>
+        <v>305</v>
       </c>
       <c r="Q29" t="s" s="27">
-        <v>140</v>
+        <v>306</v>
       </c>
       <c r="R29" t="s" s="28">
-        <v>147</v>
+        <v>307</v>
       </c>
       <c r="S29" t="s" s="31">
         <v>96</v>
       </c>
       <c r="T29" t="s" s="30">
-        <v>143</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="33.75">
@@ -51039,7 +52230,7 @@
     </row>
     <row r="36" spans="1:20" s="72" customFormat="1" ht="24.75" customHeight="1">
       <c r="A36" t="s" s="254">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="B36" s="254"/>
       <c r="C36" s="254"/>
@@ -51063,7 +52254,7 @@
     </row>
     <row r="37" spans="1:20" s="72" customFormat="1" ht="12.95" customHeight="1">
       <c r="A37" t="s" s="248">
-        <v>90</v>
+        <v>310</v>
       </c>
       <c r="B37" s="248"/>
       <c r="C37" s="248"/>
@@ -51159,7 +52350,7 @@
     </row>
     <row r="41" spans="1:20" s="72" customFormat="1" ht="12.95" customHeight="1">
       <c r="A41" t="s" s="248">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="B41" s="248"/>
       <c r="C41" s="248"/>
@@ -51413,7 +52604,7 @@
       </c>
       <c r="R3" s="284"/>
       <c r="S3" t="s" s="280">
-        <v>185</v>
+        <v>312</v>
       </c>
       <c r="T3" s="284"/>
       <c r="U3" t="s" s="301">
@@ -51477,7 +52668,7 @@
       <c r="C5" s="256"/>
       <c r="D5" s="256"/>
       <c r="E5" t="s" s="257">
-        <v>93</v>
+        <v>282</v>
       </c>
       <c r="F5" s="258"/>
       <c r="G5" s="258"/>
@@ -51538,7 +52729,7 @@
       </c>
       <c r="V6" s="243"/>
       <c r="W6" t="s" s="297">
-        <v>192</v>
+        <v>313</v>
       </c>
       <c r="X6" s="304"/>
       <c r="Y6" s="183"/>
@@ -51655,7 +52846,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s" s="255">
-        <v>150</v>
+        <v>283</v>
       </c>
       <c r="C10" s="256"/>
       <c r="D10" s="256"/>
@@ -51676,11 +52867,11 @@
       <c r="Q10" s="243"/>
       <c r="R10" s="243"/>
       <c r="S10" t="s" s="243">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="T10" s="243"/>
       <c r="U10" t="s" s="243">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="V10" s="243"/>
       <c r="W10" s="243"/>
@@ -51758,7 +52949,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s" s="268">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="C13" s="256"/>
       <c r="D13" s="256"/>
@@ -51777,19 +52968,19 @@
       <c r="O13" s="258"/>
       <c r="P13" s="259"/>
       <c r="Q13" t="s" s="243">
-        <v>122</v>
+        <v>286</v>
       </c>
       <c r="R13" s="243"/>
       <c r="S13" t="s" s="243">
-        <v>122</v>
+        <v>286</v>
       </c>
       <c r="T13" s="243"/>
       <c r="U13" t="s" s="243">
-        <v>122</v>
+        <v>286</v>
       </c>
       <c r="V13" s="243"/>
       <c r="W13" t="s" s="243">
-        <v>122</v>
+        <v>286</v>
       </c>
       <c r="X13" s="244"/>
       <c r="Y13" s="183"/>
@@ -51799,7 +52990,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s" s="255">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="C14" s="256"/>
       <c r="D14" s="256"/>
@@ -51865,7 +53056,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s" s="255">
-        <v>153</v>
+        <v>288</v>
       </c>
       <c r="C16" s="255"/>
       <c r="D16" s="255"/>
@@ -51898,7 +53089,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s" s="255">
-        <v>154</v>
+        <v>291</v>
       </c>
       <c r="C17" s="256"/>
       <c r="D17" s="256"/>
@@ -51917,19 +53108,19 @@
       <c r="O17" s="258"/>
       <c r="P17" s="259"/>
       <c r="Q17" t="s" s="297">
-        <v>193</v>
+        <v>314</v>
       </c>
       <c r="R17" s="298"/>
       <c r="S17" t="s" s="243">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="T17" s="243"/>
       <c r="U17" t="s" s="243">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="V17" s="243"/>
       <c r="W17" t="s" s="297">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="X17" s="312"/>
       <c r="Y17" s="183"/>
@@ -51972,7 +53163,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s" s="255">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="C19" s="256"/>
       <c r="D19" s="256"/>
@@ -51995,7 +53186,7 @@
       <c r="S19" s="243"/>
       <c r="T19" s="243"/>
       <c r="U19" t="s" s="243">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="V19" s="243"/>
       <c r="W19" s="243"/>
@@ -52078,7 +53269,7 @@
       <c r="C22" s="263"/>
       <c r="D22" s="263"/>
       <c r="E22" t="s" s="251">
-        <v>163</v>
+        <v>294</v>
       </c>
       <c r="F22" s="252"/>
       <c r="G22" s="252"/>
@@ -52106,7 +53297,7 @@
     </row>
     <row r="23" spans="1:28" s="179" customFormat="1" ht="18" customHeight="1">
       <c r="A23" t="s" s="307">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="B23" s="307"/>
       <c r="C23" s="307"/>

--- a/test/data/mps155_timezone_bug_validated.xlsx
+++ b/test/data/mps155_timezone_bug_validated.xlsx
@@ -1705,9 +1705,6 @@
       </rPr>
       <t>d</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">, </t>
   </si>
   <si>
     <r>
@@ -10001,7 +9998,9 @@
       <c r="Q6" t="s" s="143">
         <v>34</v>
       </c>
-      <c r="R6" s="219"/>
+      <c r="R6" t="s" s="219">
+        <v>209</v>
+      </c>
       <c r="S6" s="220"/>
       <c r="T6" t="s" s="130">
         <v>77</v>
@@ -10349,7 +10348,7 @@
       </c>
       <c r="B19" s="220"/>
       <c r="C19" t="s" s="227">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D19" s="227"/>
       <c r="E19" s="227"/>
@@ -10476,7 +10475,7 @@
       <c r="H23" s="140"/>
       <c r="I23" s="140"/>
       <c r="J23" t="s" s="228">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K23" s="229"/>
       <c r="L23" s="229"/>
@@ -10556,7 +10555,9 @@
       <c r="S26" s="153"/>
     </row>
     <row r="27" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="219"/>
+      <c r="A27" t="s" s="219">
+        <v>209</v>
+      </c>
       <c r="B27" s="220"/>
       <c r="C27" s="220"/>
       <c r="D27" s="220"/>
@@ -10755,7 +10756,7 @@
     </row>
     <row r="36" spans="1:25" s="127" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A36" t="s" s="146">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B36" s="140"/>
       <c r="C36" s="140"/>
@@ -10880,10 +10881,10 @@
         <v>53</v>
       </c>
       <c r="C41" t="s" s="111">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D41" t="s" s="112">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E41" t="s" s="113">
         <v>73</v>
@@ -10892,69 +10893,69 @@
         <v>1</v>
       </c>
       <c r="G41" t="s" s="111">
+        <v>216</v>
+      </c>
+      <c r="H41" t="s" s="115">
         <v>217</v>
       </c>
-      <c r="H41" t="s" s="115">
+      <c r="I41" t="s" s="112">
         <v>218</v>
       </c>
-      <c r="I41" t="s" s="112">
+      <c r="J41" t="s" s="113">
         <v>219</v>
       </c>
-      <c r="J41" t="s" s="113">
+      <c r="K41" t="s" s="115">
         <v>220</v>
       </c>
-      <c r="K41" t="s" s="115">
+      <c r="L41" t="s" s="114">
         <v>221</v>
       </c>
-      <c r="L41" t="s" s="114">
+      <c r="M41" t="s" s="116">
         <v>222</v>
       </c>
-      <c r="M41" t="s" s="116">
+      <c r="N41" t="s" s="113">
         <v>223</v>
       </c>
-      <c r="N41" t="s" s="113">
+      <c r="O41" t="s" s="114">
         <v>224</v>
       </c>
-      <c r="O41" t="s" s="114">
+      <c r="P41" t="s" s="111">
         <v>225</v>
       </c>
-      <c r="P41" t="s" s="111">
+      <c r="Q41" t="s" s="112">
         <v>226</v>
-      </c>
-      <c r="Q41" t="s" s="112">
-        <v>227</v>
       </c>
       <c r="R41" t="s" s="116">
         <v>144</v>
       </c>
       <c r="S41" t="s" s="116">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" s="77" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A42" t="s" s="315">
         <v>228</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" s="77" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A42" t="s" s="315">
+      <c r="B42" t="s" s="316">
         <v>229</v>
       </c>
-      <c r="B42" t="s" s="316">
+      <c r="C42" t="s" s="317">
         <v>230</v>
-      </c>
-      <c r="C42" t="s" s="317">
-        <v>231</v>
       </c>
       <c r="D42" t="s" s="318">
         <v>209</v>
       </c>
       <c r="E42" t="s" s="319">
+        <v>231</v>
+      </c>
+      <c r="F42" t="s" s="320">
         <v>232</v>
       </c>
-      <c r="F42" t="s" s="320">
+      <c r="G42" t="s" s="321">
         <v>233</v>
       </c>
-      <c r="G42" t="s" s="321">
+      <c r="H42" t="s" s="322">
         <v>234</v>
-      </c>
-      <c r="H42" t="s" s="322">
-        <v>235</v>
       </c>
       <c r="I42" t="s" s="323">
         <v>54</v>
@@ -10963,25 +10964,25 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="325">
+        <v>235</v>
+      </c>
+      <c r="L42" t="s" s="326">
         <v>236</v>
       </c>
-      <c r="L42" t="s" s="326">
+      <c r="M42" t="s" s="327">
         <v>237</v>
       </c>
-      <c r="M42" t="s" s="327">
+      <c r="N42" t="s" s="328">
         <v>238</v>
       </c>
-      <c r="N42" t="s" s="328">
+      <c r="O42" t="s" s="329">
         <v>239</v>
       </c>
-      <c r="O42" t="s" s="329">
+      <c r="P42" t="s" s="330">
         <v>240</v>
       </c>
-      <c r="P42" t="s" s="330">
+      <c r="Q42" t="s" s="331">
         <v>241</v>
-      </c>
-      <c r="Q42" t="s" s="331">
-        <v>242</v>
       </c>
       <c r="R42" t="s" s="332">
         <v>209</v>
@@ -10999,22 +11000,22 @@
         <v>209</v>
       </c>
       <c r="C43" t="s" s="337">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D43" t="s" s="338">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E43" t="s" s="339">
+        <v>232</v>
+      </c>
+      <c r="F43" t="s" s="340">
+        <v>242</v>
+      </c>
+      <c r="G43" t="s" s="341">
         <v>233</v>
       </c>
-      <c r="F43" t="s" s="340">
-        <v>243</v>
-      </c>
-      <c r="G43" t="s" s="341">
+      <c r="H43" t="s" s="342">
         <v>234</v>
-      </c>
-      <c r="H43" t="s" s="342">
-        <v>235</v>
       </c>
       <c r="I43" t="s" s="343">
         <v>54</v>
@@ -11023,25 +11024,25 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="345">
+        <v>235</v>
+      </c>
+      <c r="L43" t="s" s="346">
         <v>236</v>
       </c>
-      <c r="L43" t="s" s="346">
-        <v>237</v>
-      </c>
       <c r="M43" t="s" s="347">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N43" t="s" s="348">
+        <v>238</v>
+      </c>
+      <c r="O43" t="s" s="349">
         <v>239</v>
       </c>
-      <c r="O43" t="s" s="349">
+      <c r="P43" t="s" s="350">
         <v>240</v>
       </c>
-      <c r="P43" t="s" s="350">
+      <c r="Q43" t="s" s="351">
         <v>241</v>
-      </c>
-      <c r="Q43" t="s" s="351">
-        <v>242</v>
       </c>
       <c r="R43" t="s" s="352">
         <v>209</v>
@@ -11053,40 +11054,40 @@
     </row>
     <row r="44" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
       <c r="A44" t="s" s="355">
+        <v>244</v>
+      </c>
+      <c r="B44" t="s" s="356">
         <v>245</v>
       </c>
-      <c r="B44" t="s" s="356">
+      <c r="C44" t="s" s="357">
         <v>246</v>
-      </c>
-      <c r="C44" t="s" s="357">
-        <v>247</v>
       </c>
       <c r="D44" t="s" s="358">
         <v>209</v>
       </c>
       <c r="E44" t="s" s="359">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F44" t="s" s="360">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G44" t="s" s="361">
         <v>209</v>
       </c>
       <c r="H44" t="s" s="362">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I44" t="s" s="363">
         <v>54</v>
       </c>
       <c r="J44" t="s" s="364">
+        <v>249</v>
+      </c>
+      <c r="K44" t="s" s="365">
         <v>250</v>
       </c>
-      <c r="K44" t="s" s="365">
+      <c r="L44" t="s" s="366">
         <v>251</v>
-      </c>
-      <c r="L44" t="s" s="366">
-        <v>252</v>
       </c>
       <c r="M44" t="s" s="367">
         <v>209</v>
@@ -11098,43 +11099,43 @@
         <v>124</v>
       </c>
       <c r="P44" t="s" s="370">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q44" t="s" s="371">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R44" t="s" s="372">
         <v>209</v>
       </c>
       <c r="S44" t="s" s="373">
+        <v>254</v>
+      </c>
+      <c r="T44" s="374"/>
+    </row>
+    <row r="45" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A45" t="s" s="375">
         <v>255</v>
       </c>
-      <c r="T44" s="374"/>
-    </row>
-    <row r="45" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A45" t="s" s="375">
+      <c r="B45" t="s" s="376">
         <v>256</v>
       </c>
-      <c r="B45" t="s" s="376">
+      <c r="C45" t="s" s="377">
         <v>257</v>
-      </c>
-      <c r="C45" t="s" s="377">
-        <v>258</v>
       </c>
       <c r="D45" t="s" s="378">
         <v>209</v>
       </c>
       <c r="E45" t="s" s="379">
+        <v>258</v>
+      </c>
+      <c r="F45" t="s" s="380">
         <v>259</v>
       </c>
-      <c r="F45" t="s" s="380">
-        <v>260</v>
-      </c>
       <c r="G45" t="s" s="381">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H45" t="s" s="382">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I45" t="s" s="383">
         <v>54</v>
@@ -11143,202 +11144,202 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="385">
+        <v>260</v>
+      </c>
+      <c r="L45" t="s" s="386">
         <v>261</v>
       </c>
-      <c r="L45" t="s" s="386">
-        <v>262</v>
-      </c>
       <c r="M45" t="s" s="387">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N45" t="s" s="388">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O45" t="s" s="389">
         <v>209</v>
       </c>
       <c r="P45" t="s" s="390">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q45" t="s" s="391">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R45" t="s" s="392">
         <v>209</v>
       </c>
       <c r="S45" t="s" s="393">
+        <v>263</v>
+      </c>
+      <c r="T45" s="394"/>
+    </row>
+    <row r="46" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A46" t="s" s="395">
         <v>264</v>
       </c>
-      <c r="T45" s="394"/>
-    </row>
-    <row r="46" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A46" t="s" s="395">
+      <c r="B46" t="s" s="396">
         <v>265</v>
       </c>
-      <c r="B46" t="s" s="396">
-        <v>266</v>
-      </c>
       <c r="C46" t="s" s="397">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D46" t="s" s="398">
         <v>209</v>
       </c>
       <c r="E46" t="s" s="399">
+        <v>266</v>
+      </c>
+      <c r="F46" t="s" s="400">
         <v>267</v>
       </c>
-      <c r="F46" t="s" s="400">
-        <v>268</v>
-      </c>
       <c r="G46" t="s" s="401">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H46" t="s" s="402">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I46" t="s" s="403">
         <v>54</v>
       </c>
       <c r="J46" t="s" s="404">
+        <v>249</v>
+      </c>
+      <c r="K46" t="s" s="405">
         <v>250</v>
       </c>
-      <c r="K46" t="s" s="405">
+      <c r="L46" t="s" s="406">
         <v>251</v>
-      </c>
-      <c r="L46" t="s" s="406">
-        <v>252</v>
       </c>
       <c r="M46" t="s" s="407">
         <v>209</v>
       </c>
       <c r="N46" t="s" s="408">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O46" t="s" s="409">
         <v>124</v>
       </c>
       <c r="P46" t="s" s="410">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q46" t="s" s="411">
         <v>209</v>
       </c>
       <c r="R46" t="s" s="412">
+        <v>270</v>
+      </c>
+      <c r="S46" t="s" s="413">
+        <v>254</v>
+      </c>
+      <c r="T46" s="414"/>
+    </row>
+    <row r="47" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A47" t="s" s="415">
         <v>271</v>
       </c>
-      <c r="S46" t="s" s="413">
-        <v>255</v>
-      </c>
-      <c r="T46" s="414"/>
-    </row>
-    <row r="47" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A47" t="s" s="415">
+      <c r="B47" t="s" s="416">
         <v>272</v>
       </c>
-      <c r="B47" t="s" s="416">
-        <v>273</v>
-      </c>
       <c r="C47" t="s" s="417">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D47" t="s" s="418">
         <v>209</v>
       </c>
       <c r="E47" t="s" s="419">
+        <v>273</v>
+      </c>
+      <c r="F47" t="s" s="420">
         <v>274</v>
       </c>
-      <c r="F47" t="s" s="420">
-        <v>275</v>
-      </c>
       <c r="G47" t="s" s="421">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H47" t="s" s="422">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I47" t="s" s="423">
         <v>54</v>
       </c>
       <c r="J47" t="s" s="424">
+        <v>249</v>
+      </c>
+      <c r="K47" t="s" s="425">
         <v>250</v>
       </c>
-      <c r="K47" t="s" s="425">
+      <c r="L47" t="s" s="426">
         <v>251</v>
-      </c>
-      <c r="L47" t="s" s="426">
-        <v>252</v>
       </c>
       <c r="M47" t="s" s="427">
         <v>209</v>
       </c>
       <c r="N47" t="s" s="428">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O47" t="s" s="429">
         <v>124</v>
       </c>
       <c r="P47" t="s" s="430">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q47" t="s" s="431">
         <v>209</v>
       </c>
       <c r="R47" t="s" s="432">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S47" t="s" s="433">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T47" s="434"/>
     </row>
     <row r="48" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
       <c r="A48" t="s" s="435">
+        <v>275</v>
+      </c>
+      <c r="B48" t="s" s="436">
         <v>276</v>
       </c>
-      <c r="B48" t="s" s="436">
+      <c r="C48" t="s" s="437">
         <v>277</v>
-      </c>
-      <c r="C48" t="s" s="437">
-        <v>278</v>
       </c>
       <c r="D48" t="s" s="438">
         <v>209</v>
       </c>
       <c r="E48" t="s" s="439">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F48" t="s" s="440">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G48" t="s" s="441">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H48" t="s" s="442">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I48" t="s" s="443">
         <v>54</v>
       </c>
       <c r="J48" t="s" s="444">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K48" t="s" s="445">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L48" t="s" s="446">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M48" t="s" s="447">
         <v>209</v>
       </c>
       <c r="N48" t="s" s="448">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O48" t="s" s="449">
         <v>209</v>
       </c>
       <c r="P48" t="s" s="450">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q48" t="s" s="451">
         <v>209</v>
@@ -51304,7 +51305,7 @@
       <c r="C6" s="256"/>
       <c r="D6" s="256"/>
       <c r="E6" t="s" s="257">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F6" s="258"/>
       <c r="G6" s="258"/>
@@ -51451,7 +51452,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="255">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C11" s="256"/>
       <c r="D11" s="256"/>
@@ -51472,7 +51473,7 @@
       <c r="Q11" s="243"/>
       <c r="R11" s="243"/>
       <c r="S11" t="s" s="243">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T11" s="244"/>
     </row>
@@ -51537,7 +51538,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s" s="268">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C14" s="256"/>
       <c r="D14" s="256"/>
@@ -51556,11 +51557,11 @@
       <c r="O14" s="258"/>
       <c r="P14" s="259"/>
       <c r="Q14" t="s" s="243">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R14" s="243"/>
       <c r="S14" t="s" s="243">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T14" s="244"/>
     </row>
@@ -51569,7 +51570,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s" s="255">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C15" s="256"/>
       <c r="D15" s="256"/>
@@ -51625,12 +51626,12 @@
         <v>25</v>
       </c>
       <c r="B17" t="s" s="255">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C17" s="255"/>
       <c r="D17" s="255"/>
       <c r="E17" t="s" s="257">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F17" s="258"/>
       <c r="G17" s="258"/>
@@ -51646,7 +51647,7 @@
       <c r="Q17" s="243"/>
       <c r="R17" s="243"/>
       <c r="S17" t="s" s="243">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T17" s="244"/>
     </row>
@@ -51655,7 +51656,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s" s="255">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C18" s="256"/>
       <c r="D18" s="256"/>
@@ -51676,7 +51677,7 @@
       <c r="Q18" s="243"/>
       <c r="R18" s="243"/>
       <c r="S18" t="s" s="243">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T18" s="244"/>
     </row>
@@ -51713,7 +51714,7 @@
         <v>63</v>
       </c>
       <c r="B20" t="s" s="255">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C20" s="256"/>
       <c r="D20" s="256"/>
@@ -51734,7 +51735,7 @@
       <c r="Q20" s="243"/>
       <c r="R20" s="243"/>
       <c r="S20" t="s" s="243">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T20" s="244"/>
     </row>
@@ -51792,7 +51793,7 @@
       <c r="Q22" s="243"/>
       <c r="R22" s="243"/>
       <c r="S22" t="s" s="243">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T22" s="244"/>
     </row>
@@ -51806,7 +51807,7 @@
       <c r="C23" s="263"/>
       <c r="D23" s="263"/>
       <c r="E23" t="s" s="251">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F23" s="252"/>
       <c r="G23" s="252"/>
@@ -51951,10 +51952,10 @@
         <v>53</v>
       </c>
       <c r="D29" t="s" s="27">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E29" t="s" s="28">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F29" t="s" s="7">
         <v>73</v>
@@ -51963,43 +51964,43 @@
         <v>1</v>
       </c>
       <c r="H29" t="s" s="27">
+        <v>296</v>
+      </c>
+      <c r="I29" t="s" s="8">
         <v>297</v>
       </c>
-      <c r="I29" t="s" s="8">
+      <c r="J29" t="s" s="28">
         <v>298</v>
       </c>
-      <c r="J29" t="s" s="28">
+      <c r="K29" t="s" s="7">
         <v>299</v>
       </c>
-      <c r="K29" t="s" s="7">
+      <c r="L29" t="s" s="8">
         <v>300</v>
       </c>
-      <c r="L29" t="s" s="8">
+      <c r="M29" t="s" s="9">
         <v>301</v>
       </c>
-      <c r="M29" t="s" s="9">
+      <c r="N29" t="s" s="29">
         <v>302</v>
       </c>
-      <c r="N29" t="s" s="29">
+      <c r="O29" t="s" s="7">
         <v>303</v>
       </c>
-      <c r="O29" t="s" s="7">
+      <c r="P29" t="s" s="9">
         <v>304</v>
       </c>
-      <c r="P29" t="s" s="9">
+      <c r="Q29" t="s" s="27">
         <v>305</v>
       </c>
-      <c r="Q29" t="s" s="27">
+      <c r="R29" t="s" s="28">
         <v>306</v>
-      </c>
-      <c r="R29" t="s" s="28">
-        <v>307</v>
       </c>
       <c r="S29" t="s" s="31">
         <v>96</v>
       </c>
       <c r="T29" t="s" s="30">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="33.75">
@@ -52230,7 +52231,7 @@
     </row>
     <row r="36" spans="1:20" s="72" customFormat="1" ht="24.75" customHeight="1">
       <c r="A36" t="s" s="254">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B36" s="254"/>
       <c r="C36" s="254"/>
@@ -52254,7 +52255,7 @@
     </row>
     <row r="37" spans="1:20" s="72" customFormat="1" ht="12.95" customHeight="1">
       <c r="A37" t="s" s="248">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B37" s="248"/>
       <c r="C37" s="248"/>
@@ -52350,7 +52351,7 @@
     </row>
     <row r="41" spans="1:20" s="72" customFormat="1" ht="12.95" customHeight="1">
       <c r="A41" t="s" s="248">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="248"/>
       <c r="C41" s="248"/>
@@ -52604,7 +52605,7 @@
       </c>
       <c r="R3" s="284"/>
       <c r="S3" t="s" s="280">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T3" s="284"/>
       <c r="U3" t="s" s="301">
@@ -52668,7 +52669,7 @@
       <c r="C5" s="256"/>
       <c r="D5" s="256"/>
       <c r="E5" t="s" s="257">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F5" s="258"/>
       <c r="G5" s="258"/>
@@ -52729,7 +52730,7 @@
       </c>
       <c r="V6" s="243"/>
       <c r="W6" t="s" s="297">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X6" s="304"/>
       <c r="Y6" s="183"/>
@@ -52846,7 +52847,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s" s="255">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="256"/>
       <c r="D10" s="256"/>
@@ -52867,11 +52868,11 @@
       <c r="Q10" s="243"/>
       <c r="R10" s="243"/>
       <c r="S10" t="s" s="243">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T10" s="243"/>
       <c r="U10" t="s" s="243">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V10" s="243"/>
       <c r="W10" s="243"/>
@@ -52949,7 +52950,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s" s="268">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="256"/>
       <c r="D13" s="256"/>
@@ -52968,19 +52969,19 @@
       <c r="O13" s="258"/>
       <c r="P13" s="259"/>
       <c r="Q13" t="s" s="243">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R13" s="243"/>
       <c r="S13" t="s" s="243">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T13" s="243"/>
       <c r="U13" t="s" s="243">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V13" s="243"/>
       <c r="W13" t="s" s="243">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X13" s="244"/>
       <c r="Y13" s="183"/>
@@ -52990,7 +52991,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s" s="255">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C14" s="256"/>
       <c r="D14" s="256"/>
@@ -53056,7 +53057,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s" s="255">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C16" s="255"/>
       <c r="D16" s="255"/>
@@ -53089,7 +53090,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s" s="255">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C17" s="256"/>
       <c r="D17" s="256"/>
@@ -53108,19 +53109,19 @@
       <c r="O17" s="258"/>
       <c r="P17" s="259"/>
       <c r="Q17" t="s" s="297">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R17" s="298"/>
       <c r="S17" t="s" s="243">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T17" s="243"/>
       <c r="U17" t="s" s="243">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="V17" s="243"/>
       <c r="W17" t="s" s="297">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X17" s="312"/>
       <c r="Y17" s="183"/>
@@ -53163,7 +53164,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s" s="255">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C19" s="256"/>
       <c r="D19" s="256"/>
@@ -53186,7 +53187,7 @@
       <c r="S19" s="243"/>
       <c r="T19" s="243"/>
       <c r="U19" t="s" s="243">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="V19" s="243"/>
       <c r="W19" s="243"/>
@@ -53269,7 +53270,7 @@
       <c r="C22" s="263"/>
       <c r="D22" s="263"/>
       <c r="E22" t="s" s="251">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F22" s="252"/>
       <c r="G22" s="252"/>
@@ -53297,7 +53298,7 @@
     </row>
     <row r="23" spans="1:28" s="179" customFormat="1" ht="18" customHeight="1">
       <c r="A23" t="s" s="307">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B23" s="307"/>
       <c r="C23" s="307"/>

--- a/test/data/mps155_timezone_bug_validated.xlsx
+++ b/test/data/mps155_timezone_bug_validated.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6630" windowWidth="25170" windowHeight="6690" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17895" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Einsendeformular" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Erläuterungen!$A$1:$T$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'NRL-spezifische Ausfüllhinweise'!$A$1:$X$23</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -372,9 +372,6 @@
     </r>
   </si>
   <si>
-    <t>V14</t>
-  </si>
-  <si>
     <t>Hinweise zum Einsendeformular des BfR:</t>
   </si>
   <si>
@@ -653,9 +650,6 @@
       </rPr>
       <t>(Code aus ADV-Kat-Nr.8)</t>
     </r>
-  </si>
-  <si>
-    <t>Danach drucken Sie bitte das Formular, unterschreiben es und legen es als Begleitschein den Proben bei.</t>
   </si>
   <si>
     <r>
@@ -1142,29 +1136,6 @@
   <si>
     <r>
       <rPr/>
-      <t xml:space="preserve">Bitte senden Sie die Excel-Datei mit eindeutiger Zuordnung (z.B. "E.coli.xlsx") an die allgemeine E-Mail-Adresse der mikrobiologischen NRLs des BfR: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NRLs-Mibi@bfr.bund.de</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
       <t xml:space="preserve">Weitergehende molekularbiologische Feintypisierung </t>
     </r>
     <r>
@@ -1646,6 +1617,38 @@
     </r>
   </si>
   <si>
+    <t>Sie erhalten die geprüften Untersuchungsaufträge vom Portal per E-Mail. Drucken Sie diese bitte aus und legen Sie diese unterschrieben den Proben als Begleitschein bei.</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>Bitte lassen Sie diesen Untersuchungsauftrag durch das MiBi-Portal (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://mibi-portal.bfr.bund.de/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) prüfen und senden Sie die Probendaten über die dort vorhandene Senden-Funktion an das BfR.</t>
+    </r>
+  </si>
+  <si>
+    <t>Eingesandte Isolate können vom BfR auch für weitergehende Untersuchungen verwendet werden, z.B. für Ausbruchsuntersuchungen und zur Klärung wissenschaftlicher Fragestellungen.</t>
+  </si>
+  <si>
+    <t>V15</t>
+  </si>
+  <si>
     <r>
       <rPr/>
       <t xml:space="preserve">Untersuchungsauftrag für Isolate/Proben </t>
@@ -1724,16 +1727,16 @@
   <si>
     <r>
       <rPr/>
-      <t xml:space="preserve">Bitte senden Sie die Excel-Datei mit eindeutiger Zuordnung (z.B. "E.coli.xlsx") an die allgemeine E-Mail-Adresse der mikrobiologischen NRLs des BfR: </t>
+      <t>Bitte lassen Sie diesen Untersuchungsauftrag durch das MiBi-Portal (</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NRLs-Mibi@bfr.bund.de</t>
+      <t>https://mibi-portal.bfr.bund.de/</t>
     </r>
     <r>
       <rPr>
@@ -1741,7 +1744,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>.</t>
+      <t>) prüfen und senden Sie die Probendaten über die dort vorhandene Senden-Funktion an das BfR.</t>
     </r>
   </si>
   <si>
@@ -2949,7 +2952,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts>
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
@@ -3141,6 +3144,12 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -8486,6 +8495,74 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -8518,110 +8595,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8632,22 +8607,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8656,8 +8634,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8692,70 +8700,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8773,679 +8799,667 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="9" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="33" fillId="9" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="34" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="35" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="35" fillId="12" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="36" fillId="12" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="36" fillId="13" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="37" fillId="13" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="14" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="38" fillId="14" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="15" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="39" fillId="15" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="16" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="16" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="17" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="41" fillId="17" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="18" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="42" fillId="18" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="19" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="43" fillId="19" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="20" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="44" fillId="20" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="21" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="45" fillId="21" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="22" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="46" fillId="22" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="23" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="47" fillId="23" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="24" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="48" fillId="24" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="25" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="49" fillId="25" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="26" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="50" fillId="26" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="27" borderId="80" xfId="0" applyFont="1" applyProtection="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="51" fillId="27" borderId="80" xfId="0" applyFont="1" applyProtection="1" applyFill="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="28" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="52" fillId="28" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="29" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="53" fillId="29" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="53" fillId="30" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="54" fillId="30" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="54" fillId="31" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="55" fillId="31" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="55" fillId="32" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="56" fillId="32" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="56" fillId="33" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="57" fillId="33" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="57" fillId="34" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="58" fillId="34" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="58" fillId="35" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="59" fillId="35" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="59" fillId="36" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="60" fillId="36" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="60" fillId="37" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="61" fillId="37" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="61" fillId="38" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="62" fillId="38" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="62" fillId="39" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="63" fillId="39" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="63" fillId="40" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="64" fillId="40" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="64" fillId="41" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="65" fillId="41" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="65" fillId="42" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="66" fillId="42" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="66" fillId="43" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="67" fillId="43" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="44" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="68" fillId="44" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="68" fillId="45" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="69" fillId="45" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="69" fillId="46" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="70" fillId="46" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="47" borderId="100" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="71" fillId="47" borderId="100" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="71" fillId="48" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="72" fillId="48" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="72" fillId="49" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="73" fillId="49" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="73" fillId="50" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="74" fillId="50" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="74" fillId="51" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="75" fillId="51" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="75" fillId="52" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="76" fillId="52" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="76" fillId="53" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="77" fillId="53" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="77" fillId="54" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="78" fillId="54" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="78" fillId="55" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="79" fillId="55" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="79" fillId="56" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="80" fillId="56" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="80" fillId="57" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="81" fillId="57" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="81" fillId="58" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="82" fillId="58" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="82" fillId="59" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="83" fillId="59" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="83" fillId="60" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="84" fillId="60" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="84" fillId="61" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="85" fillId="61" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="85" fillId="62" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="86" fillId="62" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="86" fillId="63" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="87" fillId="63" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="87" fillId="64" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="88" fillId="64" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="88" fillId="65" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="89" fillId="65" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="89" fillId="66" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="90" fillId="66" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="67" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+    <xf numFmtId="0" fontId="91" fillId="67" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="91" fillId="68" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="92" fillId="68" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="92" fillId="69" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="93" fillId="69" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="93" fillId="70" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="94" fillId="70" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="94" fillId="71" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="95" fillId="71" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="95" fillId="72" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="96" fillId="72" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="96" fillId="73" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="97" fillId="73" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="97" fillId="74" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="98" fillId="74" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="98" fillId="75" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="99" fillId="75" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="99" fillId="76" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="100" fillId="76" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="100" fillId="77" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="101" fillId="77" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="101" fillId="78" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="102" fillId="78" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="102" fillId="79" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="103" fillId="79" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="103" fillId="80" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="104" fillId="80" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="104" fillId="81" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="105" fillId="81" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="105" fillId="82" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="106" fillId="82" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="106" fillId="83" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="107" fillId="83" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="107" fillId="84" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="108" fillId="84" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="108" fillId="85" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="109" fillId="85" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="109" fillId="86" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="110" fillId="86" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="87" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+    <xf numFmtId="0" fontId="111" fillId="87" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="111" fillId="88" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="112" fillId="88" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="112" fillId="89" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="113" fillId="89" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="113" fillId="90" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="114" fillId="90" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="114" fillId="91" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="115" fillId="91" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="115" fillId="92" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="116" fillId="92" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="116" fillId="93" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="117" fillId="93" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="117" fillId="94" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="118" fillId="94" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="118" fillId="95" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="119" fillId="95" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="119" fillId="96" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="120" fillId="96" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="120" fillId="97" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="121" fillId="97" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="121" fillId="98" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="122" fillId="98" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="122" fillId="99" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="123" fillId="99" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="123" fillId="100" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="124" fillId="100" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="124" fillId="101" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="125" fillId="101" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="125" fillId="102" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="126" fillId="102" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="126" fillId="103" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="127" fillId="103" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="127" fillId="104" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="128" fillId="104" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="128" fillId="105" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="129" fillId="105" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="129" fillId="106" borderId="159" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="130" fillId="106" borderId="159" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="107" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+    <xf numFmtId="0" fontId="131" fillId="107" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="131" fillId="108" borderId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="132" fillId="108" borderId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="132" fillId="109" borderId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="133" fillId="109" borderId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="133" fillId="110" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="134" fillId="110" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="134" fillId="111" borderId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="135" fillId="111" borderId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="135" fillId="112" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="136" fillId="112" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="136" fillId="113" borderId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="137" fillId="113" borderId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="137" fillId="114" borderId="167" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="138" fillId="114" borderId="167" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="138" fillId="115" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="139" fillId="115" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="139" fillId="116" borderId="169" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="140" fillId="116" borderId="169" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="140" fillId="117" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="141" fillId="117" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="141" fillId="118" borderId="171" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="142" fillId="118" borderId="171" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="142" fillId="119" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="143" fillId="119" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="143" fillId="120" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="144" fillId="120" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="144" fillId="121" borderId="174" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="145" fillId="121" borderId="174" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="145" fillId="122" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="146" fillId="122" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="146" fillId="123" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="147" fillId="123" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="147" fillId="124" borderId="177" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="148" fillId="124" borderId="177" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="148" fillId="125" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="149" fillId="125" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="149" fillId="126" borderId="179" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="150" fillId="126" borderId="179" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="127" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+    <xf numFmtId="0" fontId="151" fillId="127" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="151" fillId="128" borderId="181" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="152" fillId="128" borderId="181" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="152" fillId="129" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="153" fillId="129" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="153" fillId="130" borderId="183" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="154" fillId="130" borderId="183" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="154" fillId="131" borderId="184" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="155" fillId="131" borderId="184" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="155" fillId="132" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="156" fillId="132" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="156" fillId="133" borderId="186" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="157" fillId="133" borderId="186" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="157" fillId="134" borderId="187" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="158" fillId="134" borderId="187" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="158" fillId="135" borderId="188" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="159" fillId="135" borderId="188" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="159" fillId="136" borderId="189" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="160" fillId="136" borderId="189" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="160" fillId="137" borderId="190" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="161" fillId="137" borderId="190" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="161" fillId="138" borderId="191" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="162" fillId="138" borderId="191" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="162" fillId="139" borderId="192" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="163" fillId="139" borderId="192" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="140" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+    <xf numFmtId="0" fontId="164" fillId="140" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="164" fillId="141" borderId="194" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="165" fillId="141" borderId="194" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="165" fillId="142" borderId="195" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="166" fillId="142" borderId="195" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="166" fillId="143" borderId="196" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="167" fillId="143" borderId="196" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="167" fillId="144" borderId="197" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="168" fillId="144" borderId="197" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="168" fillId="145" borderId="198" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="169" fillId="145" borderId="198" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="169" fillId="146" borderId="199" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="170" fillId="146" borderId="199" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="147" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+    <xf numFmtId="0" fontId="171" fillId="147" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="171" fillId="148" borderId="201" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="172" fillId="148" borderId="201" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="172" fillId="149" borderId="202" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="173" fillId="149" borderId="202" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="173" fillId="150" borderId="203" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="174" fillId="150" borderId="203" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="174" fillId="151" borderId="204" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="175" fillId="151" borderId="204" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="175" fillId="152" borderId="205" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="176" fillId="152" borderId="205" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="176" fillId="153" borderId="206" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="177" fillId="153" borderId="206" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="177" fillId="154" borderId="207" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="178" fillId="154" borderId="207" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="178" fillId="155" borderId="208" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="179" fillId="155" borderId="208" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="179" fillId="156" borderId="209" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="180" fillId="156" borderId="209" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="180" fillId="157" borderId="210" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="181" fillId="157" borderId="210" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="181" fillId="158" borderId="211" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="182" fillId="158" borderId="211" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="182" fillId="159" borderId="212" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="183" fillId="159" borderId="212" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="160" borderId="213" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+    <xf numFmtId="0" fontId="184" fillId="160" borderId="213" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="184" fillId="161" borderId="214" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="185" fillId="161" borderId="214" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="185" fillId="162" borderId="215" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="186" fillId="162" borderId="215" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="186" fillId="163" borderId="216" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="187" fillId="163" borderId="216" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="187" fillId="164" borderId="217" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="188" fillId="164" borderId="217" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="188" fillId="165" borderId="218" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="189" fillId="165" borderId="218" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="189" fillId="166" borderId="219" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="190" fillId="166" borderId="219" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="167" borderId="220" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
+    <xf numFmtId="0" fontId="191" fillId="167" borderId="220" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" applyFill="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFFF7C80"/>
@@ -9454,6 +9468,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9533,9 +9550,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9573,9 +9590,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9610,7 +9627,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9645,7 +9662,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9824,7 +9841,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
@@ -9853,14 +9870,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21">
-      <c r="A1" t="s" s="221">
-        <v>208</v>
+      <c r="A1" t="s" s="238">
+        <v>209</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
       <c r="G1" s="139"/>
       <c r="H1" s="139"/>
       <c r="I1" s="139"/>
@@ -9905,7 +9922,7 @@
         <v>88</v>
       </c>
       <c r="B3" t="s" s="141">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -9950,7 +9967,7 @@
     </row>
     <row r="5" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" t="s" s="142">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B5" s="140"/>
       <c r="C5" s="140"/>
@@ -9970,8 +9987,8 @@
       <c r="Q5" t="s" s="143">
         <v>48</v>
       </c>
-      <c r="R5" s="240"/>
-      <c r="S5" s="241"/>
+      <c r="R5" s="234"/>
+      <c r="S5" s="235"/>
       <c r="T5" t="s" s="130">
         <v>76</v>
       </c>
@@ -9998,10 +10015,10 @@
       <c r="Q6" t="s" s="143">
         <v>34</v>
       </c>
-      <c r="R6" t="s" s="219">
-        <v>209</v>
+      <c r="R6" t="s" s="236">
+        <v>210</v>
       </c>
-      <c r="S6" s="220"/>
+      <c r="S6" s="237"/>
       <c r="T6" t="s" s="130">
         <v>77</v>
       </c>
@@ -10010,15 +10027,15 @@
       <c r="A7" t="s" s="144">
         <v>87</v>
       </c>
-      <c r="B7" t="s" s="226">
-        <v>209</v>
+      <c r="B7" t="s" s="243">
+        <v>210</v>
       </c>
-      <c r="C7" s="226"/>
-      <c r="D7" s="226"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="226"/>
-      <c r="H7" s="226"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
       <c r="I7" s="140"/>
       <c r="J7" s="140"/>
       <c r="K7" s="140"/>
@@ -10112,7 +10129,7 @@
     </row>
     <row r="11" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" t="s" s="145">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B11" s="140"/>
       <c r="C11" s="140"/>
@@ -10123,7 +10140,7 @@
       <c r="H11" s="140"/>
       <c r="I11" s="140"/>
       <c r="J11" t="s" s="149">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K11" s="150"/>
       <c r="L11" s="151"/>
@@ -10139,29 +10156,29 @@
       </c>
     </row>
     <row r="12" spans="1:20" s="129" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" t="s" s="224">
+      <c r="A12" t="s" s="241">
         <v>3</v>
       </c>
-      <c r="B12" s="225"/>
-      <c r="C12" t="s" s="227">
-        <v>209</v>
+      <c r="B12" s="242"/>
+      <c r="C12" t="s" s="230">
+        <v>210</v>
       </c>
-      <c r="D12" s="227"/>
-      <c r="E12" s="227"/>
-      <c r="F12" s="227"/>
-      <c r="G12" s="227"/>
-      <c r="H12" s="227"/>
+      <c r="D12" s="230"/>
+      <c r="E12" s="230"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="230"/>
+      <c r="H12" s="230"/>
       <c r="I12" s="168"/>
-      <c r="J12" t="s" s="237">
+      <c r="J12" t="s" s="227">
         <v>37</v>
       </c>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="238"/>
-      <c r="O12" s="239"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="228"/>
+      <c r="N12" s="228"/>
+      <c r="O12" s="229"/>
       <c r="P12" t="s" s="137">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="153"/>
       <c r="R12" s="153"/>
@@ -10171,25 +10188,25 @@
       </c>
     </row>
     <row r="13" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="225"/>
-      <c r="B13" s="225"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="227"/>
-      <c r="G13" s="227"/>
-      <c r="H13" s="227"/>
+      <c r="A13" s="242"/>
+      <c r="B13" s="242"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="230"/>
+      <c r="E13" s="230"/>
+      <c r="F13" s="230"/>
+      <c r="G13" s="230"/>
+      <c r="H13" s="230"/>
       <c r="I13" s="168"/>
-      <c r="J13" t="s" s="231">
+      <c r="J13" t="s" s="224">
         <v>38</v>
       </c>
-      <c r="K13" s="232"/>
-      <c r="L13" s="232"/>
-      <c r="M13" s="232"/>
-      <c r="N13" s="232"/>
-      <c r="O13" s="233"/>
+      <c r="K13" s="225"/>
+      <c r="L13" s="225"/>
+      <c r="M13" s="225"/>
+      <c r="N13" s="225"/>
+      <c r="O13" s="226"/>
       <c r="P13" t="s" s="137">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="153"/>
       <c r="R13" s="153"/>
@@ -10199,23 +10216,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="225"/>
-      <c r="B14" s="225"/>
-      <c r="C14" s="227"/>
-      <c r="D14" s="227"/>
-      <c r="E14" s="227"/>
-      <c r="F14" s="227"/>
-      <c r="G14" s="227"/>
-      <c r="H14" s="227"/>
+      <c r="A14" s="242"/>
+      <c r="B14" s="242"/>
+      <c r="C14" s="230"/>
+      <c r="D14" s="230"/>
+      <c r="E14" s="230"/>
+      <c r="F14" s="230"/>
+      <c r="G14" s="230"/>
+      <c r="H14" s="230"/>
       <c r="I14" s="168"/>
-      <c r="J14" t="s" s="234">
+      <c r="J14" t="s" s="221">
         <v>39</v>
       </c>
-      <c r="K14" s="235"/>
-      <c r="L14" s="235"/>
-      <c r="M14" s="235"/>
-      <c r="N14" s="235"/>
-      <c r="O14" s="236"/>
+      <c r="K14" s="222"/>
+      <c r="L14" s="222"/>
+      <c r="M14" s="222"/>
+      <c r="N14" s="222"/>
+      <c r="O14" s="223"/>
       <c r="P14" s="137"/>
       <c r="Q14" s="153"/>
       <c r="R14" s="153"/>
@@ -10225,29 +10242,29 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A15" t="s" s="223">
+      <c r="A15" t="s" s="240">
         <v>4</v>
       </c>
-      <c r="B15" s="220"/>
-      <c r="C15" t="s" s="227">
-        <v>209</v>
+      <c r="B15" s="237"/>
+      <c r="C15" t="s" s="230">
+        <v>210</v>
       </c>
-      <c r="D15" s="227"/>
-      <c r="E15" s="227"/>
-      <c r="F15" s="227"/>
-      <c r="G15" s="227"/>
-      <c r="H15" s="227"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="230"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="230"/>
+      <c r="H15" s="230"/>
       <c r="I15" s="168"/>
-      <c r="J15" t="s" s="234">
+      <c r="J15" t="s" s="221">
         <v>40</v>
       </c>
-      <c r="K15" s="235"/>
-      <c r="L15" s="235"/>
-      <c r="M15" s="235"/>
-      <c r="N15" s="235"/>
-      <c r="O15" s="236"/>
+      <c r="K15" s="222"/>
+      <c r="L15" s="222"/>
+      <c r="M15" s="222"/>
+      <c r="N15" s="222"/>
+      <c r="O15" s="223"/>
       <c r="P15" t="s" s="137">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q15" s="153"/>
       <c r="R15" s="153"/>
@@ -10257,25 +10274,25 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="220"/>
-      <c r="B16" s="220"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="227"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
+      <c r="A16" s="237"/>
+      <c r="B16" s="237"/>
+      <c r="C16" s="230"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="230"/>
+      <c r="F16" s="230"/>
+      <c r="G16" s="230"/>
+      <c r="H16" s="230"/>
       <c r="I16" s="168"/>
-      <c r="J16" t="s" s="234">
+      <c r="J16" t="s" s="221">
         <v>41</v>
       </c>
-      <c r="K16" s="235"/>
-      <c r="L16" s="235"/>
-      <c r="M16" s="235"/>
-      <c r="N16" s="235"/>
-      <c r="O16" s="236"/>
+      <c r="K16" s="222"/>
+      <c r="L16" s="222"/>
+      <c r="M16" s="222"/>
+      <c r="N16" s="222"/>
+      <c r="O16" s="223"/>
       <c r="P16" t="s" s="137">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="153"/>
       <c r="R16" s="153"/>
@@ -10285,29 +10302,29 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A17" t="s" s="223">
+      <c r="A17" t="s" s="240">
         <v>5</v>
       </c>
-      <c r="B17" s="220"/>
-      <c r="C17" t="s" s="227">
-        <v>209</v>
+      <c r="B17" s="237"/>
+      <c r="C17" t="s" s="230">
+        <v>210</v>
       </c>
-      <c r="D17" s="227"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="227"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="230"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="230"/>
+      <c r="H17" s="230"/>
       <c r="I17" s="168"/>
-      <c r="J17" t="s" s="234">
-        <v>211</v>
+      <c r="J17" t="s" s="221">
+        <v>212</v>
       </c>
-      <c r="K17" s="235"/>
-      <c r="L17" s="235"/>
-      <c r="M17" s="235"/>
-      <c r="N17" s="235"/>
-      <c r="O17" s="236"/>
+      <c r="K17" s="222"/>
+      <c r="L17" s="222"/>
+      <c r="M17" s="222"/>
+      <c r="N17" s="222"/>
+      <c r="O17" s="223"/>
       <c r="P17" t="s" s="137">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="153"/>
       <c r="R17" s="153"/>
@@ -10317,25 +10334,25 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="220"/>
-      <c r="B18" s="220"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="227"/>
-      <c r="E18" s="227"/>
-      <c r="F18" s="227"/>
-      <c r="G18" s="227"/>
-      <c r="H18" s="227"/>
+      <c r="A18" s="237"/>
+      <c r="B18" s="237"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="230"/>
+      <c r="E18" s="230"/>
+      <c r="F18" s="230"/>
+      <c r="G18" s="230"/>
+      <c r="H18" s="230"/>
       <c r="I18" s="168"/>
-      <c r="J18" t="s" s="231">
+      <c r="J18" t="s" s="224">
         <v>42</v>
       </c>
-      <c r="K18" s="232"/>
-      <c r="L18" s="232"/>
-      <c r="M18" s="232"/>
-      <c r="N18" s="232"/>
-      <c r="O18" s="233"/>
+      <c r="K18" s="225"/>
+      <c r="L18" s="225"/>
+      <c r="M18" s="225"/>
+      <c r="N18" s="225"/>
+      <c r="O18" s="226"/>
       <c r="P18" t="s" s="137">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q18" s="153"/>
       <c r="R18" s="153"/>
@@ -10343,27 +10360,27 @@
       <c r="T18" s="132"/>
     </row>
     <row r="19" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A19" t="s" s="223">
+      <c r="A19" t="s" s="240">
         <v>6</v>
       </c>
-      <c r="B19" s="220"/>
-      <c r="C19" t="s" s="227">
-        <v>209</v>
+      <c r="B19" s="237"/>
+      <c r="C19" t="s" s="230">
+        <v>210</v>
       </c>
-      <c r="D19" s="227"/>
-      <c r="E19" s="227"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="227"/>
+      <c r="D19" s="230"/>
+      <c r="E19" s="230"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="230"/>
       <c r="I19" s="168"/>
-      <c r="J19" t="s" s="231">
+      <c r="J19" t="s" s="224">
         <v>43</v>
       </c>
-      <c r="K19" s="232"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="232"/>
-      <c r="N19" s="232"/>
-      <c r="O19" s="233"/>
+      <c r="K19" s="225"/>
+      <c r="L19" s="225"/>
+      <c r="M19" s="225"/>
+      <c r="N19" s="225"/>
+      <c r="O19" s="226"/>
       <c r="P19" s="137"/>
       <c r="Q19" s="153"/>
       <c r="R19" s="153"/>
@@ -10371,29 +10388,29 @@
       <c r="T19" s="132"/>
     </row>
     <row r="20" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A20" t="s" s="223">
+      <c r="A20" t="s" s="240">
         <v>7</v>
       </c>
-      <c r="B20" s="220"/>
-      <c r="C20" t="s" s="227">
-        <v>209</v>
+      <c r="B20" s="237"/>
+      <c r="C20" t="s" s="230">
+        <v>210</v>
       </c>
-      <c r="D20" s="227"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="227"/>
+      <c r="D20" s="230"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="230"/>
+      <c r="H20" s="230"/>
       <c r="I20" s="168"/>
-      <c r="J20" t="s" s="231">
+      <c r="J20" t="s" s="224">
         <v>70</v>
       </c>
-      <c r="K20" s="232"/>
-      <c r="L20" s="232"/>
-      <c r="M20" s="232"/>
-      <c r="N20" s="232"/>
-      <c r="O20" s="233"/>
+      <c r="K20" s="225"/>
+      <c r="L20" s="225"/>
+      <c r="M20" s="225"/>
+      <c r="N20" s="225"/>
+      <c r="O20" s="226"/>
       <c r="P20" t="s" s="137">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="153"/>
       <c r="R20" s="153"/>
@@ -10403,29 +10420,29 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A21" t="s" s="223">
+      <c r="A21" t="s" s="240">
         <v>29</v>
       </c>
-      <c r="B21" s="220"/>
-      <c r="C21" t="s" s="227">
-        <v>209</v>
+      <c r="B21" s="237"/>
+      <c r="C21" t="s" s="230">
+        <v>210</v>
       </c>
-      <c r="D21" s="227"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="227"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="227"/>
+      <c r="D21" s="230"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="230"/>
+      <c r="H21" s="230"/>
       <c r="I21" s="168"/>
-      <c r="J21" t="s" s="231">
+      <c r="J21" t="s" s="224">
         <v>71</v>
       </c>
-      <c r="K21" s="232"/>
-      <c r="L21" s="232"/>
-      <c r="M21" s="232"/>
-      <c r="N21" s="232"/>
-      <c r="O21" s="233"/>
+      <c r="K21" s="225"/>
+      <c r="L21" s="225"/>
+      <c r="M21" s="225"/>
+      <c r="N21" s="225"/>
+      <c r="O21" s="226"/>
       <c r="P21" t="s" s="137">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q21" s="153"/>
       <c r="R21" s="153"/>
@@ -10435,27 +10452,27 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A22" t="s" s="223">
+      <c r="A22" t="s" s="240">
         <v>8</v>
       </c>
-      <c r="B22" s="220"/>
-      <c r="C22" t="s" s="227">
-        <v>209</v>
+      <c r="B22" s="237"/>
+      <c r="C22" t="s" s="230">
+        <v>210</v>
       </c>
-      <c r="D22" s="227"/>
-      <c r="E22" s="227"/>
-      <c r="F22" s="227"/>
-      <c r="G22" s="227"/>
-      <c r="H22" s="227"/>
+      <c r="D22" s="230"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="230"/>
+      <c r="G22" s="230"/>
+      <c r="H22" s="230"/>
       <c r="I22" s="168"/>
-      <c r="J22" t="s" s="228">
-        <v>209</v>
+      <c r="J22" t="s" s="231">
+        <v>210</v>
       </c>
-      <c r="K22" s="229"/>
-      <c r="L22" s="229"/>
-      <c r="M22" s="229"/>
-      <c r="N22" s="229"/>
-      <c r="O22" s="230"/>
+      <c r="K22" s="232"/>
+      <c r="L22" s="232"/>
+      <c r="M22" s="232"/>
+      <c r="N22" s="232"/>
+      <c r="O22" s="233"/>
       <c r="P22" s="135"/>
       <c r="Q22" s="153"/>
       <c r="R22" s="153"/>
@@ -10474,16 +10491,16 @@
       <c r="G23" s="140"/>
       <c r="H23" s="140"/>
       <c r="I23" s="140"/>
-      <c r="J23" t="s" s="228">
-        <v>212</v>
+      <c r="J23" t="s" s="231">
+        <v>213</v>
       </c>
-      <c r="K23" s="229"/>
-      <c r="L23" s="229"/>
-      <c r="M23" s="229"/>
-      <c r="N23" s="229"/>
-      <c r="O23" s="230"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="232"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="232"/>
+      <c r="O23" s="233"/>
       <c r="P23" t="s" s="138">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="153"/>
       <c r="R23" s="153"/>
@@ -10499,15 +10516,15 @@
       <c r="G24" s="140"/>
       <c r="H24" s="140"/>
       <c r="I24" s="140"/>
-      <c r="J24" t="s" s="228">
-        <v>209</v>
+      <c r="J24" t="s" s="231">
+        <v>210</v>
       </c>
-      <c r="K24" s="229"/>
-      <c r="L24" s="229"/>
-      <c r="M24" s="229"/>
-      <c r="N24" s="229"/>
-      <c r="O24" s="229"/>
-      <c r="P24" s="230"/>
+      <c r="K24" s="232"/>
+      <c r="L24" s="232"/>
+      <c r="M24" s="232"/>
+      <c r="N24" s="232"/>
+      <c r="O24" s="232"/>
+      <c r="P24" s="233"/>
       <c r="Q24" s="153"/>
       <c r="R24" s="153"/>
       <c r="S24" s="153"/>
@@ -10555,12 +10572,12 @@
       <c r="S26" s="153"/>
     </row>
     <row r="27" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A27" t="s" s="219">
-        <v>209</v>
+      <c r="A27" t="s" s="236">
+        <v>210</v>
       </c>
-      <c r="B27" s="220"/>
-      <c r="C27" s="220"/>
-      <c r="D27" s="220"/>
+      <c r="B27" s="237"/>
+      <c r="C27" s="237"/>
+      <c r="D27" s="237"/>
       <c r="E27" s="146"/>
       <c r="F27" s="146"/>
       <c r="G27" s="146"/>
@@ -10626,17 +10643,17 @@
       <c r="S29" s="140"/>
     </row>
     <row r="30" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A30" t="s" s="314">
-        <v>207</v>
+      <c r="A30" t="s" s="220">
+        <v>204</v>
       </c>
-      <c r="B30" s="314"/>
-      <c r="C30" s="314"/>
-      <c r="D30" s="314"/>
-      <c r="E30" s="314"/>
-      <c r="F30" s="314"/>
-      <c r="G30" s="314"/>
-      <c r="H30" s="314"/>
-      <c r="I30" s="314"/>
+      <c r="B30" s="220"/>
+      <c r="C30" s="220"/>
+      <c r="D30" s="220"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="220"/>
       <c r="J30" s="160"/>
       <c r="K30" s="140"/>
       <c r="L30" s="140"/>
@@ -10649,6 +10666,9 @@
       <c r="S30" s="140"/>
     </row>
     <row r="31" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A31" t="s" s="219">
+        <v>207</v>
+      </c>
       <c r="B31" s="146"/>
       <c r="C31" s="146"/>
       <c r="D31" s="146"/>
@@ -10669,10 +10689,10 @@
       <c r="S31" s="140"/>
     </row>
     <row r="32" spans="1:20" s="134" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="219"/>
-      <c r="B32" s="220"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="220"/>
+      <c r="A32" s="236"/>
+      <c r="B32" s="237"/>
+      <c r="C32" s="237"/>
+      <c r="D32" s="237"/>
       <c r="E32" s="146"/>
       <c r="F32" s="146"/>
       <c r="G32" s="146"/>
@@ -10756,7 +10776,7 @@
     </row>
     <row r="36" spans="1:25" s="127" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A36" t="s" s="146">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B36" s="140"/>
       <c r="C36" s="140"/>
@@ -10779,7 +10799,7 @@
     </row>
     <row r="37" spans="1:25" s="128" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A37" t="s" s="140">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="B37" s="140"/>
       <c r="C37" s="140"/>
@@ -10881,10 +10901,10 @@
         <v>53</v>
       </c>
       <c r="C41" t="s" s="111">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D41" t="s" s="112">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s" s="113">
         <v>73</v>
@@ -10893,486 +10913,486 @@
         <v>1</v>
       </c>
       <c r="G41" t="s" s="111">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H41" t="s" s="115">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I41" t="s" s="112">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J41" t="s" s="113">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K41" t="s" s="115">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s" s="114">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M41" t="s" s="116">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N41" t="s" s="113">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O41" t="s" s="114">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P41" t="s" s="111">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q41" t="s" s="112">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R41" t="s" s="116">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S41" t="s" s="116">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" s="77" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A42" t="s" s="315">
         <v>228</v>
       </c>
-      <c r="B42" t="s" s="316">
+    </row>
+    <row r="42" spans="1:25" s="77" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A42" t="s" s="316">
         <v>229</v>
       </c>
-      <c r="C42" t="s" s="317">
+      <c r="B42" t="s" s="317">
         <v>230</v>
       </c>
-      <c r="D42" t="s" s="318">
-        <v>209</v>
-      </c>
-      <c r="E42" t="s" s="319">
+      <c r="C42" t="s" s="318">
         <v>231</v>
       </c>
-      <c r="F42" t="s" s="320">
+      <c r="D42" t="s" s="319">
+        <v>210</v>
+      </c>
+      <c r="E42" t="s" s="320">
         <v>232</v>
       </c>
-      <c r="G42" t="s" s="321">
+      <c r="F42" t="s" s="321">
         <v>233</v>
       </c>
-      <c r="H42" t="s" s="322">
+      <c r="G42" t="s" s="322">
         <v>234</v>
       </c>
-      <c r="I42" t="s" s="323">
+      <c r="H42" t="s" s="323">
+        <v>235</v>
+      </c>
+      <c r="I42" t="s" s="324">
         <v>54</v>
       </c>
-      <c r="J42" t="s" s="324">
+      <c r="J42" t="s" s="325">
         <v>89</v>
       </c>
-      <c r="K42" t="s" s="325">
+      <c r="K42" t="s" s="326">
+        <v>236</v>
+      </c>
+      <c r="L42" t="s" s="327">
+        <v>237</v>
+      </c>
+      <c r="M42" t="s" s="328">
+        <v>238</v>
+      </c>
+      <c r="N42" t="s" s="329">
+        <v>239</v>
+      </c>
+      <c r="O42" t="s" s="330">
+        <v>240</v>
+      </c>
+      <c r="P42" t="s" s="331">
+        <v>241</v>
+      </c>
+      <c r="Q42" t="s" s="332">
+        <v>242</v>
+      </c>
+      <c r="R42" t="s" s="333">
+        <v>210</v>
+      </c>
+      <c r="S42" t="s" s="334">
+        <v>210</v>
+      </c>
+      <c r="T42" s="335"/>
+    </row>
+    <row r="43" spans="1:25" s="10" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A43" t="s" s="336">
+        <v>210</v>
+      </c>
+      <c r="B43" t="s" s="337">
+        <v>210</v>
+      </c>
+      <c r="C43" t="s" s="338">
+        <v>231</v>
+      </c>
+      <c r="D43" t="s" s="339">
+        <v>231</v>
+      </c>
+      <c r="E43" t="s" s="340">
+        <v>233</v>
+      </c>
+      <c r="F43" t="s" s="341">
+        <v>243</v>
+      </c>
+      <c r="G43" t="s" s="342">
+        <v>234</v>
+      </c>
+      <c r="H43" t="s" s="343">
         <v>235</v>
       </c>
-      <c r="L42" t="s" s="326">
+      <c r="I43" t="s" s="344">
+        <v>54</v>
+      </c>
+      <c r="J43" t="s" s="345">
+        <v>89</v>
+      </c>
+      <c r="K43" t="s" s="346">
         <v>236</v>
       </c>
-      <c r="M42" t="s" s="327">
+      <c r="L43" t="s" s="347">
         <v>237</v>
       </c>
-      <c r="N42" t="s" s="328">
-        <v>238</v>
+      <c r="M43" t="s" s="348">
+        <v>244</v>
       </c>
-      <c r="O42" t="s" s="329">
+      <c r="N43" t="s" s="349">
         <v>239</v>
       </c>
-      <c r="P42" t="s" s="330">
+      <c r="O43" t="s" s="350">
         <v>240</v>
       </c>
-      <c r="Q42" t="s" s="331">
+      <c r="P43" t="s" s="351">
         <v>241</v>
       </c>
-      <c r="R42" t="s" s="332">
-        <v>209</v>
+      <c r="Q43" t="s" s="352">
+        <v>242</v>
       </c>
-      <c r="S42" t="s" s="333">
-        <v>209</v>
+      <c r="R43" t="s" s="353">
+        <v>210</v>
       </c>
-      <c r="T42" s="334"/>
-    </row>
-    <row r="43" spans="1:25" s="10" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A43" t="s" s="335">
-        <v>209</v>
+      <c r="S43" t="s" s="354">
+        <v>210</v>
       </c>
-      <c r="B43" t="s" s="336">
-        <v>209</v>
+      <c r="T43" s="355"/>
+    </row>
+    <row r="44" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A44" t="s" s="356">
+        <v>245</v>
       </c>
-      <c r="C43" t="s" s="337">
-        <v>230</v>
+      <c r="B44" t="s" s="357">
+        <v>246</v>
       </c>
-      <c r="D43" t="s" s="338">
-        <v>230</v>
+      <c r="C44" t="s" s="358">
+        <v>247</v>
       </c>
-      <c r="E43" t="s" s="339">
+      <c r="D44" t="s" s="359">
+        <v>210</v>
+      </c>
+      <c r="E44" t="s" s="360">
+        <v>243</v>
+      </c>
+      <c r="F44" t="s" s="361">
+        <v>248</v>
+      </c>
+      <c r="G44" t="s" s="362">
+        <v>210</v>
+      </c>
+      <c r="H44" t="s" s="363">
+        <v>249</v>
+      </c>
+      <c r="I44" t="s" s="364">
+        <v>54</v>
+      </c>
+      <c r="J44" t="s" s="365">
+        <v>250</v>
+      </c>
+      <c r="K44" t="s" s="366">
+        <v>251</v>
+      </c>
+      <c r="L44" t="s" s="367">
+        <v>252</v>
+      </c>
+      <c r="M44" t="s" s="368">
+        <v>210</v>
+      </c>
+      <c r="N44" t="s" s="369">
+        <v>210</v>
+      </c>
+      <c r="O44" t="s" s="370">
+        <v>123</v>
+      </c>
+      <c r="P44" t="s" s="371">
+        <v>253</v>
+      </c>
+      <c r="Q44" t="s" s="372">
+        <v>254</v>
+      </c>
+      <c r="R44" t="s" s="373">
+        <v>210</v>
+      </c>
+      <c r="S44" t="s" s="374">
+        <v>255</v>
+      </c>
+      <c r="T44" s="375"/>
+    </row>
+    <row r="45" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A45" t="s" s="376">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s" s="377">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s" s="378">
+        <v>258</v>
+      </c>
+      <c r="D45" t="s" s="379">
+        <v>210</v>
+      </c>
+      <c r="E45" t="s" s="380">
+        <v>259</v>
+      </c>
+      <c r="F45" t="s" s="381">
+        <v>260</v>
+      </c>
+      <c r="G45" t="s" s="382">
+        <v>234</v>
+      </c>
+      <c r="H45" t="s" s="383">
+        <v>235</v>
+      </c>
+      <c r="I45" t="s" s="384">
+        <v>54</v>
+      </c>
+      <c r="J45" t="s" s="385">
+        <v>89</v>
+      </c>
+      <c r="K45" t="s" s="386">
+        <v>261</v>
+      </c>
+      <c r="L45" t="s" s="387">
+        <v>262</v>
+      </c>
+      <c r="M45" t="s" s="388">
+        <v>244</v>
+      </c>
+      <c r="N45" t="s" s="389">
+        <v>239</v>
+      </c>
+      <c r="O45" t="s" s="390">
+        <v>210</v>
+      </c>
+      <c r="P45" t="s" s="391">
+        <v>241</v>
+      </c>
+      <c r="Q45" t="s" s="392">
+        <v>263</v>
+      </c>
+      <c r="R45" t="s" s="393">
+        <v>210</v>
+      </c>
+      <c r="S45" t="s" s="394">
+        <v>264</v>
+      </c>
+      <c r="T45" s="395"/>
+    </row>
+    <row r="46" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A46" t="s" s="396">
+        <v>265</v>
+      </c>
+      <c r="B46" t="s" s="397">
+        <v>266</v>
+      </c>
+      <c r="C46" t="s" s="398">
+        <v>258</v>
+      </c>
+      <c r="D46" t="s" s="399">
+        <v>210</v>
+      </c>
+      <c r="E46" t="s" s="400">
+        <v>267</v>
+      </c>
+      <c r="F46" t="s" s="401">
+        <v>268</v>
+      </c>
+      <c r="G46" t="s" s="402">
+        <v>234</v>
+      </c>
+      <c r="H46" t="s" s="403">
+        <v>235</v>
+      </c>
+      <c r="I46" t="s" s="404">
+        <v>54</v>
+      </c>
+      <c r="J46" t="s" s="405">
+        <v>250</v>
+      </c>
+      <c r="K46" t="s" s="406">
+        <v>251</v>
+      </c>
+      <c r="L46" t="s" s="407">
+        <v>252</v>
+      </c>
+      <c r="M46" t="s" s="408">
+        <v>210</v>
+      </c>
+      <c r="N46" t="s" s="409">
+        <v>269</v>
+      </c>
+      <c r="O46" t="s" s="410">
+        <v>123</v>
+      </c>
+      <c r="P46" t="s" s="411">
+        <v>270</v>
+      </c>
+      <c r="Q46" t="s" s="412">
+        <v>210</v>
+      </c>
+      <c r="R46" t="s" s="413">
+        <v>271</v>
+      </c>
+      <c r="S46" t="s" s="414">
+        <v>255</v>
+      </c>
+      <c r="T46" s="415"/>
+    </row>
+    <row r="47" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A47" t="s" s="416">
+        <v>272</v>
+      </c>
+      <c r="B47" t="s" s="417">
+        <v>273</v>
+      </c>
+      <c r="C47" t="s" s="418">
+        <v>258</v>
+      </c>
+      <c r="D47" t="s" s="419">
+        <v>210</v>
+      </c>
+      <c r="E47" t="s" s="420">
+        <v>274</v>
+      </c>
+      <c r="F47" t="s" s="421">
+        <v>275</v>
+      </c>
+      <c r="G47" t="s" s="422">
+        <v>234</v>
+      </c>
+      <c r="H47" t="s" s="423">
+        <v>235</v>
+      </c>
+      <c r="I47" t="s" s="424">
+        <v>54</v>
+      </c>
+      <c r="J47" t="s" s="425">
+        <v>250</v>
+      </c>
+      <c r="K47" t="s" s="426">
+        <v>251</v>
+      </c>
+      <c r="L47" t="s" s="427">
+        <v>252</v>
+      </c>
+      <c r="M47" t="s" s="428">
+        <v>210</v>
+      </c>
+      <c r="N47" t="s" s="429">
+        <v>269</v>
+      </c>
+      <c r="O47" t="s" s="430">
+        <v>123</v>
+      </c>
+      <c r="P47" t="s" s="431">
+        <v>270</v>
+      </c>
+      <c r="Q47" t="s" s="432">
+        <v>210</v>
+      </c>
+      <c r="R47" t="s" s="433">
+        <v>271</v>
+      </c>
+      <c r="S47" t="s" s="434">
+        <v>255</v>
+      </c>
+      <c r="T47" s="435"/>
+    </row>
+    <row r="48" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A48" t="s" s="436">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s" s="437">
+        <v>277</v>
+      </c>
+      <c r="C48" t="s" s="438">
+        <v>278</v>
+      </c>
+      <c r="D48" t="s" s="439">
+        <v>210</v>
+      </c>
+      <c r="E48" t="s" s="440">
+        <v>275</v>
+      </c>
+      <c r="F48" t="s" s="441">
         <v>232</v>
       </c>
-      <c r="F43" t="s" s="340">
-        <v>242</v>
-      </c>
-      <c r="G43" t="s" s="341">
-        <v>233</v>
-      </c>
-      <c r="H43" t="s" s="342">
+      <c r="G48" t="s" s="442">
         <v>234</v>
       </c>
-      <c r="I43" t="s" s="343">
+      <c r="H48" t="s" s="443">
+        <v>235</v>
+      </c>
+      <c r="I48" t="s" s="444">
         <v>54</v>
       </c>
-      <c r="J43" t="s" s="344">
-        <v>89</v>
-      </c>
-      <c r="K43" t="s" s="345">
-        <v>235</v>
-      </c>
-      <c r="L43" t="s" s="346">
-        <v>236</v>
-      </c>
-      <c r="M43" t="s" s="347">
-        <v>243</v>
-      </c>
-      <c r="N43" t="s" s="348">
-        <v>238</v>
-      </c>
-      <c r="O43" t="s" s="349">
-        <v>239</v>
-      </c>
-      <c r="P43" t="s" s="350">
-        <v>240</v>
-      </c>
-      <c r="Q43" t="s" s="351">
-        <v>241</v>
-      </c>
-      <c r="R43" t="s" s="352">
-        <v>209</v>
-      </c>
-      <c r="S43" t="s" s="353">
-        <v>209</v>
-      </c>
-      <c r="T43" s="354"/>
-    </row>
-    <row r="44" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A44" t="s" s="355">
-        <v>244</v>
-      </c>
-      <c r="B44" t="s" s="356">
-        <v>245</v>
-      </c>
-      <c r="C44" t="s" s="357">
-        <v>246</v>
-      </c>
-      <c r="D44" t="s" s="358">
-        <v>209</v>
-      </c>
-      <c r="E44" t="s" s="359">
-        <v>242</v>
-      </c>
-      <c r="F44" t="s" s="360">
-        <v>247</v>
-      </c>
-      <c r="G44" t="s" s="361">
-        <v>209</v>
-      </c>
-      <c r="H44" t="s" s="362">
-        <v>248</v>
-      </c>
-      <c r="I44" t="s" s="363">
-        <v>54</v>
-      </c>
-      <c r="J44" t="s" s="364">
-        <v>249</v>
-      </c>
-      <c r="K44" t="s" s="365">
+      <c r="J48" t="s" s="445">
         <v>250</v>
       </c>
-      <c r="L44" t="s" s="366">
-        <v>251</v>
+      <c r="K48" t="s" s="446">
+        <v>279</v>
       </c>
-      <c r="M44" t="s" s="367">
-        <v>209</v>
+      <c r="L48" t="s" s="447">
+        <v>280</v>
       </c>
-      <c r="N44" t="s" s="368">
-        <v>209</v>
+      <c r="M48" t="s" s="448">
+        <v>210</v>
       </c>
-      <c r="O44" t="s" s="369">
-        <v>124</v>
-      </c>
-      <c r="P44" t="s" s="370">
-        <v>252</v>
-      </c>
-      <c r="Q44" t="s" s="371">
-        <v>253</v>
-      </c>
-      <c r="R44" t="s" s="372">
-        <v>209</v>
-      </c>
-      <c r="S44" t="s" s="373">
-        <v>254</v>
-      </c>
-      <c r="T44" s="374"/>
-    </row>
-    <row r="45" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A45" t="s" s="375">
-        <v>255</v>
-      </c>
-      <c r="B45" t="s" s="376">
-        <v>256</v>
-      </c>
-      <c r="C45" t="s" s="377">
-        <v>257</v>
-      </c>
-      <c r="D45" t="s" s="378">
-        <v>209</v>
-      </c>
-      <c r="E45" t="s" s="379">
-        <v>258</v>
-      </c>
-      <c r="F45" t="s" s="380">
-        <v>259</v>
-      </c>
-      <c r="G45" t="s" s="381">
-        <v>233</v>
-      </c>
-      <c r="H45" t="s" s="382">
-        <v>234</v>
-      </c>
-      <c r="I45" t="s" s="383">
-        <v>54</v>
-      </c>
-      <c r="J45" t="s" s="384">
-        <v>89</v>
-      </c>
-      <c r="K45" t="s" s="385">
-        <v>260</v>
-      </c>
-      <c r="L45" t="s" s="386">
-        <v>261</v>
-      </c>
-      <c r="M45" t="s" s="387">
-        <v>243</v>
-      </c>
-      <c r="N45" t="s" s="388">
-        <v>238</v>
-      </c>
-      <c r="O45" t="s" s="389">
-        <v>209</v>
-      </c>
-      <c r="P45" t="s" s="390">
-        <v>240</v>
-      </c>
-      <c r="Q45" t="s" s="391">
-        <v>262</v>
-      </c>
-      <c r="R45" t="s" s="392">
-        <v>209</v>
-      </c>
-      <c r="S45" t="s" s="393">
-        <v>263</v>
-      </c>
-      <c r="T45" s="394"/>
-    </row>
-    <row r="46" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A46" t="s" s="395">
-        <v>264</v>
-      </c>
-      <c r="B46" t="s" s="396">
-        <v>265</v>
-      </c>
-      <c r="C46" t="s" s="397">
-        <v>257</v>
-      </c>
-      <c r="D46" t="s" s="398">
-        <v>209</v>
-      </c>
-      <c r="E46" t="s" s="399">
-        <v>266</v>
-      </c>
-      <c r="F46" t="s" s="400">
-        <v>267</v>
-      </c>
-      <c r="G46" t="s" s="401">
-        <v>233</v>
-      </c>
-      <c r="H46" t="s" s="402">
-        <v>234</v>
-      </c>
-      <c r="I46" t="s" s="403">
-        <v>54</v>
-      </c>
-      <c r="J46" t="s" s="404">
-        <v>249</v>
-      </c>
-      <c r="K46" t="s" s="405">
-        <v>250</v>
-      </c>
-      <c r="L46" t="s" s="406">
-        <v>251</v>
-      </c>
-      <c r="M46" t="s" s="407">
-        <v>209</v>
-      </c>
-      <c r="N46" t="s" s="408">
-        <v>268</v>
-      </c>
-      <c r="O46" t="s" s="409">
-        <v>124</v>
-      </c>
-      <c r="P46" t="s" s="410">
+      <c r="N48" t="s" s="449">
         <v>269</v>
       </c>
-      <c r="Q46" t="s" s="411">
-        <v>209</v>
+      <c r="O48" t="s" s="450">
+        <v>210</v>
       </c>
-      <c r="R46" t="s" s="412">
-        <v>270</v>
+      <c r="P48" t="s" s="451">
+        <v>281</v>
       </c>
-      <c r="S46" t="s" s="413">
-        <v>254</v>
+      <c r="Q48" t="s" s="452">
+        <v>210</v>
       </c>
-      <c r="T46" s="414"/>
-    </row>
-    <row r="47" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A47" t="s" s="415">
-        <v>271</v>
+      <c r="R48" t="s" s="453">
+        <v>210</v>
       </c>
-      <c r="B47" t="s" s="416">
-        <v>272</v>
+      <c r="S48" t="s" s="454">
+        <v>210</v>
       </c>
-      <c r="C47" t="s" s="417">
-        <v>257</v>
-      </c>
-      <c r="D47" t="s" s="418">
-        <v>209</v>
-      </c>
-      <c r="E47" t="s" s="419">
-        <v>273</v>
-      </c>
-      <c r="F47" t="s" s="420">
-        <v>274</v>
-      </c>
-      <c r="G47" t="s" s="421">
-        <v>233</v>
-      </c>
-      <c r="H47" t="s" s="422">
-        <v>234</v>
-      </c>
-      <c r="I47" t="s" s="423">
-        <v>54</v>
-      </c>
-      <c r="J47" t="s" s="424">
-        <v>249</v>
-      </c>
-      <c r="K47" t="s" s="425">
-        <v>250</v>
-      </c>
-      <c r="L47" t="s" s="426">
-        <v>251</v>
-      </c>
-      <c r="M47" t="s" s="427">
-        <v>209</v>
-      </c>
-      <c r="N47" t="s" s="428">
-        <v>268</v>
-      </c>
-      <c r="O47" t="s" s="429">
-        <v>124</v>
-      </c>
-      <c r="P47" t="s" s="430">
-        <v>269</v>
-      </c>
-      <c r="Q47" t="s" s="431">
-        <v>209</v>
-      </c>
-      <c r="R47" t="s" s="432">
-        <v>270</v>
-      </c>
-      <c r="S47" t="s" s="433">
-        <v>254</v>
-      </c>
-      <c r="T47" s="434"/>
-    </row>
-    <row r="48" spans="1:25" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A48" t="s" s="435">
-        <v>275</v>
-      </c>
-      <c r="B48" t="s" s="436">
-        <v>276</v>
-      </c>
-      <c r="C48" t="s" s="437">
-        <v>277</v>
-      </c>
-      <c r="D48" t="s" s="438">
-        <v>209</v>
-      </c>
-      <c r="E48" t="s" s="439">
-        <v>274</v>
-      </c>
-      <c r="F48" t="s" s="440">
-        <v>231</v>
-      </c>
-      <c r="G48" t="s" s="441">
-        <v>233</v>
-      </c>
-      <c r="H48" t="s" s="442">
-        <v>234</v>
-      </c>
-      <c r="I48" t="s" s="443">
-        <v>54</v>
-      </c>
-      <c r="J48" t="s" s="444">
-        <v>249</v>
-      </c>
-      <c r="K48" t="s" s="445">
-        <v>278</v>
-      </c>
-      <c r="L48" t="s" s="446">
-        <v>279</v>
-      </c>
-      <c r="M48" t="s" s="447">
-        <v>209</v>
-      </c>
-      <c r="N48" t="s" s="448">
-        <v>268</v>
-      </c>
-      <c r="O48" t="s" s="449">
-        <v>209</v>
-      </c>
-      <c r="P48" t="s" s="450">
-        <v>280</v>
-      </c>
-      <c r="Q48" t="s" s="451">
-        <v>209</v>
-      </c>
-      <c r="R48" t="s" s="452">
-        <v>209</v>
-      </c>
-      <c r="S48" t="s" s="453">
-        <v>209</v>
-      </c>
-      <c r="T48" s="454"/>
+      <c r="T48" s="455"/>
     </row>
     <row r="49" spans="1:19" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A49" s="455"/>
-      <c r="B49" s="456"/>
-      <c r="C49" s="457"/>
-      <c r="D49" s="458"/>
-      <c r="E49" s="459"/>
-      <c r="F49" s="460"/>
-      <c r="G49" s="461"/>
-      <c r="H49" s="462"/>
-      <c r="I49" s="463"/>
-      <c r="J49" s="464"/>
-      <c r="K49" s="465"/>
-      <c r="L49" s="466"/>
-      <c r="M49" s="467"/>
-      <c r="N49" s="468"/>
-      <c r="O49" s="469"/>
-      <c r="P49" s="470"/>
-      <c r="Q49" s="471"/>
-      <c r="R49" s="472"/>
-      <c r="S49" s="473"/>
-      <c r="T49" s="474"/>
+      <c r="A49" s="456"/>
+      <c r="B49" s="457"/>
+      <c r="C49" s="458"/>
+      <c r="D49" s="459"/>
+      <c r="E49" s="460"/>
+      <c r="F49" s="461"/>
+      <c r="G49" s="462"/>
+      <c r="H49" s="463"/>
+      <c r="I49" s="464"/>
+      <c r="J49" s="465"/>
+      <c r="K49" s="466"/>
+      <c r="L49" s="467"/>
+      <c r="M49" s="468"/>
+      <c r="N49" s="469"/>
+      <c r="O49" s="470"/>
+      <c r="P49" s="471"/>
+      <c r="Q49" s="472"/>
+      <c r="R49" s="473"/>
+      <c r="S49" s="474"/>
+      <c r="T49" s="475"/>
     </row>
     <row r="50" spans="1:19" s="11" customFormat="1" ht="21.75" customHeight="1">
       <c r="A50" s="103"/>
@@ -51067,24 +51087,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="J21:O21"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A1:F1"/>
@@ -51101,6 +51103,24 @@
     <mergeCell ref="C17:H18"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J21:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="3">
@@ -51120,7 +51140,7 @@
   <pageMargins left="0.86614173228346458" right="0.35433070866141736" top="0.62992125984251968" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LValidiert durch OE-Mibi, AL-4 am 09.10.2017&amp;CMibi-SOP 059&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;LDieses Formular wurde validiert durch OE-Mibi, AL-4 am 28.08.2020&amp;CMibi-SOP 059&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="40" max="16383" man="1"/>
@@ -51163,7 +51183,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18">
       <c r="A1" t="s" s="169">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="170"/>
       <c r="C1" s="170"/>
@@ -51235,595 +51255,595 @@
       <c r="A4" t="s" s="46">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="272">
+      <c r="B4" t="s" s="271">
         <v>10</v>
       </c>
-      <c r="C4" s="276"/>
-      <c r="D4" s="277"/>
-      <c r="E4" t="s" s="272">
+      <c r="C4" s="275"/>
+      <c r="D4" s="276"/>
+      <c r="E4" t="s" s="271">
         <v>11</v>
       </c>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="273"/>
-      <c r="N4" s="273"/>
-      <c r="O4" s="273"/>
-      <c r="P4" s="274"/>
-      <c r="Q4" t="s" s="280">
-        <v>135</v>
-      </c>
-      <c r="R4" s="284"/>
-      <c r="S4" t="s" s="280">
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="273"/>
+      <c r="Q4" t="s" s="250">
         <v>134</v>
       </c>
-      <c r="T4" s="281"/>
+      <c r="R4" s="257"/>
+      <c r="S4" t="s" s="250">
+        <v>133</v>
+      </c>
+      <c r="T4" s="251"/>
     </row>
     <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A5" t="s" s="52">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="278">
+      <c r="B5" t="s" s="277">
         <v>51</v>
       </c>
-      <c r="C5" s="279"/>
-      <c r="D5" s="279"/>
-      <c r="E5" t="s" s="269">
-        <v>113</v>
+      <c r="C5" s="278"/>
+      <c r="D5" s="278"/>
+      <c r="E5" t="s" s="268">
+        <v>112</v>
       </c>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="270"/>
-      <c r="M5" s="270"/>
-      <c r="N5" s="270"/>
-      <c r="O5" s="270"/>
-      <c r="P5" s="271"/>
-      <c r="Q5" t="s" s="285">
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="269"/>
+      <c r="K5" s="269"/>
+      <c r="L5" s="269"/>
+      <c r="M5" s="269"/>
+      <c r="N5" s="269"/>
+      <c r="O5" s="269"/>
+      <c r="P5" s="270"/>
+      <c r="Q5" t="s" s="258">
         <v>92</v>
       </c>
-      <c r="R5" s="286"/>
-      <c r="S5" t="s" s="282">
+      <c r="R5" s="259"/>
+      <c r="S5" t="s" s="253">
         <v>92</v>
       </c>
-      <c r="T5" s="283"/>
+      <c r="T5" s="254"/>
     </row>
     <row r="6" spans="1:20" ht="33.950000000000003" customHeight="1">
       <c r="A6" t="s" s="47">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="255">
+      <c r="B6" t="s" s="248">
         <v>52</v>
       </c>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" t="s" s="257">
-        <v>281</v>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
+      <c r="E6" t="s" s="245">
+        <v>282</v>
       </c>
-      <c r="F6" s="258"/>
-      <c r="G6" s="258"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="258"/>
-      <c r="O6" s="258"/>
-      <c r="P6" s="259"/>
-      <c r="Q6" s="287"/>
-      <c r="R6" s="288"/>
-      <c r="S6" t="s" s="266">
+      <c r="F6" s="246"/>
+      <c r="G6" s="246"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="246"/>
+      <c r="J6" s="246"/>
+      <c r="K6" s="246"/>
+      <c r="L6" s="246"/>
+      <c r="M6" s="246"/>
+      <c r="N6" s="246"/>
+      <c r="O6" s="246"/>
+      <c r="P6" s="247"/>
+      <c r="Q6" s="260"/>
+      <c r="R6" s="261"/>
+      <c r="S6" t="s" s="255">
         <v>92</v>
       </c>
-      <c r="T6" s="267"/>
+      <c r="T6" s="256"/>
     </row>
     <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A7" t="s" s="47">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="255">
-        <v>116</v>
+      <c r="B7" t="s" s="248">
+        <v>115</v>
       </c>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" t="s" s="275">
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
+      <c r="E7" t="s" s="274">
+        <v>113</v>
+      </c>
+      <c r="F7" s="274"/>
+      <c r="G7" s="274"/>
+      <c r="H7" s="274"/>
+      <c r="I7" s="274"/>
+      <c r="J7" s="274"/>
+      <c r="K7" s="274"/>
+      <c r="L7" s="274"/>
+      <c r="M7" s="274"/>
+      <c r="N7" s="274"/>
+      <c r="O7" s="274"/>
+      <c r="P7" s="274"/>
+      <c r="Q7" t="s" s="262">
         <v>114</v>
       </c>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
-      <c r="I7" s="275"/>
-      <c r="J7" s="275"/>
-      <c r="K7" s="275"/>
-      <c r="L7" s="275"/>
-      <c r="M7" s="275"/>
-      <c r="N7" s="275"/>
-      <c r="O7" s="275"/>
-      <c r="P7" s="275"/>
-      <c r="Q7" t="s" s="264">
-        <v>115</v>
+      <c r="R7" s="263"/>
+      <c r="S7" t="s" s="262">
+        <v>114</v>
       </c>
-      <c r="R7" s="289"/>
-      <c r="S7" t="s" s="264">
-        <v>115</v>
-      </c>
-      <c r="T7" s="265"/>
+      <c r="T7" s="280"/>
     </row>
     <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A8" t="s" s="47">
         <v>15</v>
       </c>
-      <c r="B8" t="s" s="255">
-        <v>117</v>
+      <c r="B8" t="s" s="248">
+        <v>116</v>
       </c>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-      <c r="E8" t="s" s="275">
-        <v>158</v>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" t="s" s="274">
+        <v>156</v>
       </c>
-      <c r="F8" s="275"/>
-      <c r="G8" s="275"/>
-      <c r="H8" s="275"/>
-      <c r="I8" s="275"/>
-      <c r="J8" s="275"/>
-      <c r="K8" s="275"/>
-      <c r="L8" s="275"/>
-      <c r="M8" s="275"/>
-      <c r="N8" s="275"/>
-      <c r="O8" s="275"/>
-      <c r="P8" s="275"/>
-      <c r="Q8" s="266"/>
-      <c r="R8" s="290"/>
-      <c r="S8" s="266"/>
-      <c r="T8" s="267"/>
+      <c r="F8" s="274"/>
+      <c r="G8" s="274"/>
+      <c r="H8" s="274"/>
+      <c r="I8" s="274"/>
+      <c r="J8" s="274"/>
+      <c r="K8" s="274"/>
+      <c r="L8" s="274"/>
+      <c r="M8" s="274"/>
+      <c r="N8" s="274"/>
+      <c r="O8" s="274"/>
+      <c r="P8" s="274"/>
+      <c r="Q8" s="255"/>
+      <c r="R8" s="264"/>
+      <c r="S8" s="255"/>
+      <c r="T8" s="256"/>
     </row>
     <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A9" t="s" s="47">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="255">
+      <c r="B9" t="s" s="248">
         <v>2</v>
       </c>
-      <c r="C9" s="256"/>
-      <c r="D9" s="256"/>
-      <c r="E9" t="s" s="257">
+      <c r="C9" s="249"/>
+      <c r="D9" s="249"/>
+      <c r="E9" t="s" s="245">
         <v>57</v>
       </c>
-      <c r="F9" s="258"/>
-      <c r="G9" s="258"/>
-      <c r="H9" s="258"/>
-      <c r="I9" s="258"/>
-      <c r="J9" s="258"/>
-      <c r="K9" s="258"/>
-      <c r="L9" s="258"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="258"/>
-      <c r="P9" s="259"/>
-      <c r="Q9" t="s" s="243">
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="246"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="246"/>
+      <c r="M9" s="246"/>
+      <c r="N9" s="246"/>
+      <c r="O9" s="246"/>
+      <c r="P9" s="247"/>
+      <c r="Q9" t="s" s="244">
         <v>92</v>
       </c>
-      <c r="R9" s="243"/>
-      <c r="S9" t="s" s="243">
+      <c r="R9" s="244"/>
+      <c r="S9" t="s" s="244">
         <v>92</v>
       </c>
-      <c r="T9" s="244"/>
+      <c r="T9" s="252"/>
     </row>
     <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A10" t="s" s="47">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="255">
+      <c r="B10" t="s" s="248">
         <v>1</v>
       </c>
-      <c r="C10" s="256"/>
-      <c r="D10" s="256"/>
-      <c r="E10" t="s" s="257">
-        <v>159</v>
+      <c r="C10" s="249"/>
+      <c r="D10" s="249"/>
+      <c r="E10" t="s" s="245">
+        <v>157</v>
       </c>
-      <c r="F10" s="258"/>
-      <c r="G10" s="258"/>
-      <c r="H10" s="258"/>
-      <c r="I10" s="258"/>
-      <c r="J10" s="258"/>
-      <c r="K10" s="258"/>
-      <c r="L10" s="258"/>
-      <c r="M10" s="258"/>
-      <c r="N10" s="258"/>
-      <c r="O10" s="258"/>
-      <c r="P10" s="259"/>
-      <c r="Q10" s="243"/>
-      <c r="R10" s="243"/>
-      <c r="S10" t="s" s="243">
+      <c r="F10" s="246"/>
+      <c r="G10" s="246"/>
+      <c r="H10" s="246"/>
+      <c r="I10" s="246"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="246"/>
+      <c r="M10" s="246"/>
+      <c r="N10" s="246"/>
+      <c r="O10" s="246"/>
+      <c r="P10" s="247"/>
+      <c r="Q10" s="244"/>
+      <c r="R10" s="244"/>
+      <c r="S10" t="s" s="244">
         <v>92</v>
       </c>
-      <c r="T10" s="244"/>
+      <c r="T10" s="252"/>
     </row>
     <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A11" t="s" s="47">
         <v>18</v>
       </c>
-      <c r="B11" t="s" s="255">
-        <v>282</v>
+      <c r="B11" t="s" s="248">
+        <v>283</v>
       </c>
-      <c r="C11" s="256"/>
-      <c r="D11" s="256"/>
-      <c r="E11" t="s" s="257">
+      <c r="C11" s="249"/>
+      <c r="D11" s="249"/>
+      <c r="E11" t="s" s="245">
         <v>58</v>
       </c>
-      <c r="F11" s="258"/>
-      <c r="G11" s="258"/>
-      <c r="H11" s="258"/>
-      <c r="I11" s="258"/>
-      <c r="J11" s="258"/>
-      <c r="K11" s="258"/>
-      <c r="L11" s="258"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="258"/>
-      <c r="O11" s="258"/>
-      <c r="P11" s="259"/>
-      <c r="Q11" s="243"/>
-      <c r="R11" s="243"/>
-      <c r="S11" t="s" s="243">
-        <v>283</v>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="246"/>
+      <c r="M11" s="246"/>
+      <c r="N11" s="246"/>
+      <c r="O11" s="246"/>
+      <c r="P11" s="247"/>
+      <c r="Q11" s="244"/>
+      <c r="R11" s="244"/>
+      <c r="S11" t="s" s="244">
+        <v>284</v>
       </c>
-      <c r="T11" s="244"/>
+      <c r="T11" s="252"/>
     </row>
     <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A12" t="s" s="47">
         <v>19</v>
       </c>
-      <c r="B12" t="s" s="255">
+      <c r="B12" t="s" s="248">
         <v>66</v>
       </c>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-      <c r="E12" t="s" s="257">
-        <v>132</v>
+      <c r="C12" s="249"/>
+      <c r="D12" s="249"/>
+      <c r="E12" t="s" s="245">
+        <v>131</v>
       </c>
-      <c r="F12" s="258"/>
-      <c r="G12" s="258"/>
-      <c r="H12" s="258"/>
-      <c r="I12" s="258"/>
-      <c r="J12" s="258"/>
-      <c r="K12" s="258"/>
-      <c r="L12" s="258"/>
-      <c r="M12" s="258"/>
-      <c r="N12" s="258"/>
-      <c r="O12" s="258"/>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="243"/>
-      <c r="R12" s="243"/>
-      <c r="S12" s="243"/>
-      <c r="T12" s="244"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="246"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="246"/>
+      <c r="M12" s="246"/>
+      <c r="N12" s="246"/>
+      <c r="O12" s="246"/>
+      <c r="P12" s="247"/>
+      <c r="Q12" s="244"/>
+      <c r="R12" s="244"/>
+      <c r="S12" s="244"/>
+      <c r="T12" s="252"/>
     </row>
     <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A13" t="s" s="47">
         <v>20</v>
       </c>
-      <c r="B13" t="s" s="255">
+      <c r="B13" t="s" s="248">
         <v>67</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" t="s" s="257">
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" t="s" s="245">
         <v>72</v>
       </c>
-      <c r="F13" s="258"/>
-      <c r="G13" s="258"/>
-      <c r="H13" s="258"/>
-      <c r="I13" s="258"/>
-      <c r="J13" s="258"/>
-      <c r="K13" s="258"/>
-      <c r="L13" s="258"/>
-      <c r="M13" s="258"/>
-      <c r="N13" s="258"/>
-      <c r="O13" s="258"/>
-      <c r="P13" s="259"/>
-      <c r="Q13" s="243"/>
-      <c r="R13" s="243"/>
-      <c r="S13" s="243"/>
-      <c r="T13" s="244"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="246"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="246"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="246"/>
+      <c r="M13" s="246"/>
+      <c r="N13" s="246"/>
+      <c r="O13" s="246"/>
+      <c r="P13" s="247"/>
+      <c r="Q13" s="244"/>
+      <c r="R13" s="244"/>
+      <c r="S13" s="244"/>
+      <c r="T13" s="252"/>
     </row>
     <row r="14" spans="1:20" ht="51" customHeight="1">
       <c r="A14" t="s" s="47">
         <v>21</v>
       </c>
-      <c r="B14" t="s" s="268">
-        <v>284</v>
-      </c>
-      <c r="C14" s="256"/>
-      <c r="D14" s="256"/>
-      <c r="E14" t="s" s="257">
-        <v>133</v>
-      </c>
-      <c r="F14" s="258"/>
-      <c r="G14" s="258"/>
-      <c r="H14" s="258"/>
-      <c r="I14" s="258"/>
-      <c r="J14" s="258"/>
-      <c r="K14" s="258"/>
-      <c r="L14" s="258"/>
-      <c r="M14" s="258"/>
-      <c r="N14" s="258"/>
-      <c r="O14" s="258"/>
-      <c r="P14" s="259"/>
-      <c r="Q14" t="s" s="243">
+      <c r="B14" t="s" s="279">
         <v>285</v>
       </c>
-      <c r="R14" s="243"/>
-      <c r="S14" t="s" s="243">
-        <v>285</v>
+      <c r="C14" s="249"/>
+      <c r="D14" s="249"/>
+      <c r="E14" t="s" s="245">
+        <v>132</v>
       </c>
-      <c r="T14" s="244"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="246"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="246"/>
+      <c r="K14" s="246"/>
+      <c r="L14" s="246"/>
+      <c r="M14" s="246"/>
+      <c r="N14" s="246"/>
+      <c r="O14" s="246"/>
+      <c r="P14" s="247"/>
+      <c r="Q14" t="s" s="244">
+        <v>286</v>
+      </c>
+      <c r="R14" s="244"/>
+      <c r="S14" t="s" s="244">
+        <v>286</v>
+      </c>
+      <c r="T14" s="252"/>
     </row>
     <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A15" t="s" s="47">
         <v>22</v>
       </c>
-      <c r="B15" t="s" s="255">
-        <v>286</v>
+      <c r="B15" t="s" s="248">
+        <v>287</v>
       </c>
-      <c r="C15" s="256"/>
-      <c r="D15" s="256"/>
-      <c r="E15" t="s" s="257">
+      <c r="C15" s="249"/>
+      <c r="D15" s="249"/>
+      <c r="E15" t="s" s="245">
         <v>30</v>
       </c>
-      <c r="F15" s="258"/>
-      <c r="G15" s="258"/>
-      <c r="H15" s="258"/>
-      <c r="I15" s="258"/>
-      <c r="J15" s="258"/>
-      <c r="K15" s="258"/>
-      <c r="L15" s="258"/>
-      <c r="M15" s="258"/>
-      <c r="N15" s="258"/>
-      <c r="O15" s="258"/>
-      <c r="P15" s="259"/>
-      <c r="Q15" s="243"/>
-      <c r="R15" s="243"/>
-      <c r="S15" s="243"/>
-      <c r="T15" s="244"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="246"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="246"/>
+      <c r="K15" s="246"/>
+      <c r="L15" s="246"/>
+      <c r="M15" s="246"/>
+      <c r="N15" s="246"/>
+      <c r="O15" s="246"/>
+      <c r="P15" s="247"/>
+      <c r="Q15" s="244"/>
+      <c r="R15" s="244"/>
+      <c r="S15" s="244"/>
+      <c r="T15" s="252"/>
     </row>
     <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A16" t="s" s="47">
         <v>23</v>
       </c>
-      <c r="B16" t="s" s="255">
+      <c r="B16" t="s" s="248">
         <v>59</v>
       </c>
-      <c r="C16" s="256"/>
-      <c r="D16" s="256"/>
-      <c r="E16" t="s" s="257">
-        <v>156</v>
+      <c r="C16" s="249"/>
+      <c r="D16" s="249"/>
+      <c r="E16" t="s" s="245">
+        <v>154</v>
       </c>
-      <c r="F16" s="258"/>
-      <c r="G16" s="258"/>
-      <c r="H16" s="258"/>
-      <c r="I16" s="258"/>
-      <c r="J16" s="258"/>
-      <c r="K16" s="258"/>
-      <c r="L16" s="258"/>
-      <c r="M16" s="258"/>
-      <c r="N16" s="258"/>
-      <c r="O16" s="258"/>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="243"/>
-      <c r="R16" s="243"/>
-      <c r="S16" s="243"/>
-      <c r="T16" s="244"/>
+      <c r="F16" s="246"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="246"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="246"/>
+      <c r="K16" s="246"/>
+      <c r="L16" s="246"/>
+      <c r="M16" s="246"/>
+      <c r="N16" s="246"/>
+      <c r="O16" s="246"/>
+      <c r="P16" s="247"/>
+      <c r="Q16" s="244"/>
+      <c r="R16" s="244"/>
+      <c r="S16" s="244"/>
+      <c r="T16" s="252"/>
     </row>
     <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A17" t="s" s="47">
         <v>25</v>
       </c>
-      <c r="B17" t="s" s="255">
-        <v>287</v>
-      </c>
-      <c r="C17" s="255"/>
-      <c r="D17" s="255"/>
-      <c r="E17" t="s" s="257">
+      <c r="B17" t="s" s="248">
         <v>288</v>
       </c>
-      <c r="F17" s="258"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="258"/>
-      <c r="I17" s="258"/>
-      <c r="J17" s="258"/>
-      <c r="K17" s="258"/>
-      <c r="L17" s="258"/>
-      <c r="M17" s="258"/>
-      <c r="N17" s="258"/>
-      <c r="O17" s="258"/>
-      <c r="P17" s="259"/>
-      <c r="Q17" s="243"/>
-      <c r="R17" s="243"/>
-      <c r="S17" t="s" s="243">
+      <c r="C17" s="248"/>
+      <c r="D17" s="248"/>
+      <c r="E17" t="s" s="245">
         <v>289</v>
       </c>
-      <c r="T17" s="244"/>
+      <c r="F17" s="246"/>
+      <c r="G17" s="246"/>
+      <c r="H17" s="246"/>
+      <c r="I17" s="246"/>
+      <c r="J17" s="246"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="246"/>
+      <c r="M17" s="246"/>
+      <c r="N17" s="246"/>
+      <c r="O17" s="246"/>
+      <c r="P17" s="247"/>
+      <c r="Q17" s="244"/>
+      <c r="R17" s="244"/>
+      <c r="S17" t="s" s="244">
+        <v>290</v>
+      </c>
+      <c r="T17" s="252"/>
     </row>
     <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A18" t="s" s="47">
         <v>61</v>
       </c>
-      <c r="B18" t="s" s="255">
-        <v>290</v>
-      </c>
-      <c r="C18" s="256"/>
-      <c r="D18" s="256"/>
-      <c r="E18" t="s" s="257">
-        <v>189</v>
-      </c>
-      <c r="F18" s="258"/>
-      <c r="G18" s="258"/>
-      <c r="H18" s="258"/>
-      <c r="I18" s="258"/>
-      <c r="J18" s="258"/>
-      <c r="K18" s="258"/>
-      <c r="L18" s="258"/>
-      <c r="M18" s="258"/>
-      <c r="N18" s="258"/>
-      <c r="O18" s="258"/>
-      <c r="P18" s="259"/>
-      <c r="Q18" s="243"/>
-      <c r="R18" s="243"/>
-      <c r="S18" t="s" s="243">
+      <c r="B18" t="s" s="248">
         <v>291</v>
       </c>
-      <c r="T18" s="244"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="249"/>
+      <c r="E18" t="s" s="245">
+        <v>186</v>
+      </c>
+      <c r="F18" s="246"/>
+      <c r="G18" s="246"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="246"/>
+      <c r="K18" s="246"/>
+      <c r="L18" s="246"/>
+      <c r="M18" s="246"/>
+      <c r="N18" s="246"/>
+      <c r="O18" s="246"/>
+      <c r="P18" s="247"/>
+      <c r="Q18" s="244"/>
+      <c r="R18" s="244"/>
+      <c r="S18" t="s" s="244">
+        <v>292</v>
+      </c>
+      <c r="T18" s="252"/>
     </row>
     <row r="19" spans="1:20" ht="33.950000000000003" customHeight="1">
       <c r="A19" t="s" s="47">
         <v>62</v>
       </c>
-      <c r="B19" t="s" s="291">
-        <v>160</v>
+      <c r="B19" t="s" s="265">
+        <v>158</v>
       </c>
-      <c r="C19" s="292"/>
-      <c r="D19" s="293"/>
-      <c r="E19" t="s" s="257">
-        <v>198</v>
+      <c r="C19" s="266"/>
+      <c r="D19" s="267"/>
+      <c r="E19" t="s" s="245">
+        <v>195</v>
       </c>
-      <c r="F19" s="258"/>
-      <c r="G19" s="258"/>
-      <c r="H19" s="258"/>
-      <c r="I19" s="258"/>
-      <c r="J19" s="258"/>
-      <c r="K19" s="258"/>
-      <c r="L19" s="258"/>
-      <c r="M19" s="258"/>
-      <c r="N19" s="258"/>
-      <c r="O19" s="258"/>
-      <c r="P19" s="259"/>
-      <c r="Q19" s="243"/>
-      <c r="R19" s="243"/>
-      <c r="S19" s="243"/>
-      <c r="T19" s="244"/>
+      <c r="F19" s="246"/>
+      <c r="G19" s="246"/>
+      <c r="H19" s="246"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="246"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="246"/>
+      <c r="M19" s="246"/>
+      <c r="N19" s="246"/>
+      <c r="O19" s="246"/>
+      <c r="P19" s="247"/>
+      <c r="Q19" s="244"/>
+      <c r="R19" s="244"/>
+      <c r="S19" s="244"/>
+      <c r="T19" s="252"/>
     </row>
     <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A20" t="s" s="47">
         <v>63</v>
       </c>
-      <c r="B20" t="s" s="255">
+      <c r="B20" t="s" s="248">
+        <v>293</v>
+      </c>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" t="s" s="245">
+        <v>24</v>
+      </c>
+      <c r="F20" s="246"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="246"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="246"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="246"/>
+      <c r="M20" s="246"/>
+      <c r="N20" s="246"/>
+      <c r="O20" s="246"/>
+      <c r="P20" s="247"/>
+      <c r="Q20" s="244"/>
+      <c r="R20" s="244"/>
+      <c r="S20" t="s" s="244">
         <v>292</v>
       </c>
-      <c r="C20" s="256"/>
-      <c r="D20" s="256"/>
-      <c r="E20" t="s" s="257">
-        <v>24</v>
-      </c>
-      <c r="F20" s="258"/>
-      <c r="G20" s="258"/>
-      <c r="H20" s="258"/>
-      <c r="I20" s="258"/>
-      <c r="J20" s="258"/>
-      <c r="K20" s="258"/>
-      <c r="L20" s="258"/>
-      <c r="M20" s="258"/>
-      <c r="N20" s="258"/>
-      <c r="O20" s="258"/>
-      <c r="P20" s="259"/>
-      <c r="Q20" s="243"/>
-      <c r="R20" s="243"/>
-      <c r="S20" t="s" s="243">
-        <v>291</v>
-      </c>
-      <c r="T20" s="244"/>
+      <c r="T20" s="252"/>
     </row>
     <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A21" t="s" s="47">
         <v>68</v>
       </c>
-      <c r="B21" t="s" s="255">
-        <v>161</v>
+      <c r="B21" t="s" s="248">
+        <v>159</v>
       </c>
-      <c r="C21" s="256"/>
-      <c r="D21" s="256"/>
-      <c r="E21" t="s" s="257">
-        <v>157</v>
+      <c r="C21" s="249"/>
+      <c r="D21" s="249"/>
+      <c r="E21" t="s" s="245">
+        <v>155</v>
       </c>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
-      <c r="H21" s="258"/>
-      <c r="I21" s="258"/>
-      <c r="J21" s="258"/>
-      <c r="K21" s="258"/>
-      <c r="L21" s="258"/>
-      <c r="M21" s="258"/>
-      <c r="N21" s="258"/>
-      <c r="O21" s="258"/>
-      <c r="P21" s="259"/>
-      <c r="Q21" s="243"/>
-      <c r="R21" s="243"/>
-      <c r="S21" s="243"/>
-      <c r="T21" s="244"/>
+      <c r="F21" s="246"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="246"/>
+      <c r="I21" s="246"/>
+      <c r="J21" s="246"/>
+      <c r="K21" s="246"/>
+      <c r="L21" s="246"/>
+      <c r="M21" s="246"/>
+      <c r="N21" s="246"/>
+      <c r="O21" s="246"/>
+      <c r="P21" s="247"/>
+      <c r="Q21" s="244"/>
+      <c r="R21" s="244"/>
+      <c r="S21" s="244"/>
+      <c r="T21" s="252"/>
     </row>
     <row r="22" spans="1:20" ht="42" customHeight="1">
       <c r="A22" t="s" s="48">
         <v>74</v>
       </c>
-      <c r="B22" t="s" s="245">
+      <c r="B22" t="s" s="288">
+        <v>95</v>
+      </c>
+      <c r="C22" s="289"/>
+      <c r="D22" s="290"/>
+      <c r="E22" t="s" s="245">
+        <v>199</v>
+      </c>
+      <c r="F22" s="246"/>
+      <c r="G22" s="246"/>
+      <c r="H22" s="246"/>
+      <c r="I22" s="246"/>
+      <c r="J22" s="246"/>
+      <c r="K22" s="246"/>
+      <c r="L22" s="246"/>
+      <c r="M22" s="246"/>
+      <c r="N22" s="246"/>
+      <c r="O22" s="246"/>
+      <c r="P22" s="247"/>
+      <c r="Q22" s="244"/>
+      <c r="R22" s="244"/>
+      <c r="S22" t="s" s="244">
+        <v>290</v>
+      </c>
+      <c r="T22" s="252"/>
+    </row>
+    <row r="23" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A23" t="s" s="49">
         <v>96</v>
       </c>
-      <c r="C22" s="246"/>
-      <c r="D22" s="247"/>
-      <c r="E22" t="s" s="257">
-        <v>202</v>
-      </c>
-      <c r="F22" s="258"/>
-      <c r="G22" s="258"/>
-      <c r="H22" s="258"/>
-      <c r="I22" s="258"/>
-      <c r="J22" s="258"/>
-      <c r="K22" s="258"/>
-      <c r="L22" s="258"/>
-      <c r="M22" s="258"/>
-      <c r="N22" s="258"/>
-      <c r="O22" s="258"/>
-      <c r="P22" s="259"/>
-      <c r="Q22" s="243"/>
-      <c r="R22" s="243"/>
-      <c r="S22" t="s" s="243">
-        <v>289</v>
-      </c>
-      <c r="T22" s="244"/>
-    </row>
-    <row r="23" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A23" t="s" s="49">
-        <v>97</v>
-      </c>
-      <c r="B23" t="s" s="262">
+      <c r="B23" t="s" s="285">
         <v>0</v>
       </c>
-      <c r="C23" s="263"/>
-      <c r="D23" s="263"/>
-      <c r="E23" t="s" s="251">
-        <v>293</v>
+      <c r="C23" s="286"/>
+      <c r="D23" s="286"/>
+      <c r="E23" t="s" s="293">
+        <v>294</v>
       </c>
-      <c r="F23" s="252"/>
-      <c r="G23" s="252"/>
-      <c r="H23" s="252"/>
-      <c r="I23" s="252"/>
-      <c r="J23" s="252"/>
-      <c r="K23" s="252"/>
-      <c r="L23" s="252"/>
-      <c r="M23" s="252"/>
-      <c r="N23" s="252"/>
-      <c r="O23" s="252"/>
-      <c r="P23" s="253"/>
-      <c r="Q23" s="249"/>
-      <c r="R23" s="250"/>
-      <c r="S23" s="260"/>
-      <c r="T23" s="261"/>
+      <c r="F23" s="294"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="294"/>
+      <c r="J23" s="294"/>
+      <c r="K23" s="294"/>
+      <c r="L23" s="294"/>
+      <c r="M23" s="294"/>
+      <c r="N23" s="294"/>
+      <c r="O23" s="294"/>
+      <c r="P23" s="295"/>
+      <c r="Q23" s="291"/>
+      <c r="R23" s="292"/>
+      <c r="S23" s="283"/>
+      <c r="T23" s="284"/>
     </row>
     <row r="24" spans="1:20" s="71" customFormat="1" ht="3" customHeight="1">
       <c r="A24" s="172"/>
@@ -51849,7 +51869,7 @@
     </row>
     <row r="25" spans="1:20" s="71" customFormat="1">
       <c r="A25" t="s" s="173">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="172"/>
       <c r="C25" s="172"/>
@@ -51872,28 +51892,28 @@
       <c r="T25" s="172"/>
     </row>
     <row r="26" spans="1:20" s="71" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A26" t="s" s="242">
-        <v>196</v>
+      <c r="A26" t="s" s="287">
+        <v>193</v>
       </c>
-      <c r="B26" s="242"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="242"/>
-      <c r="E26" s="242"/>
-      <c r="F26" s="242"/>
-      <c r="G26" s="242"/>
-      <c r="H26" s="242"/>
-      <c r="I26" s="242"/>
-      <c r="J26" s="242"/>
-      <c r="K26" s="242"/>
-      <c r="L26" s="242"/>
-      <c r="M26" s="242"/>
-      <c r="N26" s="242"/>
-      <c r="O26" s="242"/>
-      <c r="P26" s="242"/>
-      <c r="Q26" s="242"/>
-      <c r="R26" s="242"/>
-      <c r="S26" s="242"/>
-      <c r="T26" s="242"/>
+      <c r="B26" s="287"/>
+      <c r="C26" s="287"/>
+      <c r="D26" s="287"/>
+      <c r="E26" s="287"/>
+      <c r="F26" s="287"/>
+      <c r="G26" s="287"/>
+      <c r="H26" s="287"/>
+      <c r="I26" s="287"/>
+      <c r="J26" s="287"/>
+      <c r="K26" s="287"/>
+      <c r="L26" s="287"/>
+      <c r="M26" s="287"/>
+      <c r="N26" s="287"/>
+      <c r="O26" s="287"/>
+      <c r="P26" s="287"/>
+      <c r="Q26" s="287"/>
+      <c r="R26" s="287"/>
+      <c r="S26" s="287"/>
+      <c r="T26" s="287"/>
     </row>
     <row r="27" spans="1:20" s="71" customFormat="1" ht="3" customHeight="1">
       <c r="A27" s="172"/>
@@ -51919,7 +51939,7 @@
     </row>
     <row r="28" spans="1:20" s="71" customFormat="1" ht="13.5" thickBot="1">
       <c r="A28" t="s" s="173">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B28" s="172"/>
       <c r="C28" s="172"/>
@@ -51943,7 +51963,7 @@
     </row>
     <row r="29" spans="1:20" ht="63.75" customHeight="1" thickBot="1">
       <c r="A29" t="s" s="94">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s" s="27">
         <v>50</v>
@@ -51952,10 +51972,10 @@
         <v>53</v>
       </c>
       <c r="D29" t="s" s="27">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E29" t="s" s="28">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F29" t="s" s="7">
         <v>73</v>
@@ -51964,51 +51984,51 @@
         <v>1</v>
       </c>
       <c r="H29" t="s" s="27">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I29" t="s" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J29" t="s" s="28">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K29" t="s" s="7">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M29" t="s" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N29" t="s" s="29">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O29" t="s" s="7">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P29" t="s" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q29" t="s" s="27">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R29" t="s" s="28">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S29" t="s" s="31">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T29" t="s" s="30">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="33.75">
       <c r="A30" t="s" s="93">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s" s="192">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="193">
         <v>98765432</v>
@@ -52020,10 +52040,10 @@
         <v>56</v>
       </c>
       <c r="F30" t="s" s="201">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G30" t="s" s="205">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H30" s="207">
         <v>11000000</v>
@@ -52049,16 +52069,16 @@
       </c>
       <c r="R30" s="58"/>
       <c r="S30" t="s" s="214">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T30" s="61"/>
     </row>
     <row r="31" spans="1:20" ht="34.5" thickBot="1">
       <c r="A31" t="s" s="91">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s" s="194">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="195">
         <v>98765433</v>
@@ -52068,10 +52088,10 @@
         <v>69</v>
       </c>
       <c r="F31" t="s" s="202">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s" s="206">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H31" s="68"/>
       <c r="I31" s="208">
@@ -52083,34 +52103,34 @@
       <c r="K31" s="88"/>
       <c r="L31" s="75"/>
       <c r="M31" t="s" s="195">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N31" s="89"/>
       <c r="O31" s="90"/>
       <c r="P31" t="s" s="195">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q31" s="88"/>
       <c r="R31" t="s" s="198">
+        <v>104</v>
+      </c>
+      <c r="S31" t="s" s="215">
+        <v>118</v>
+      </c>
+      <c r="T31" s="43"/>
+    </row>
+    <row r="32" spans="1:20" ht="33.75">
+      <c r="A32" t="s" s="92">
         <v>105</v>
       </c>
-      <c r="S31" t="s" s="215">
-        <v>119</v>
-      </c>
-      <c r="T31" s="43"/>
-    </row>
-    <row r="32" spans="1:20" ht="33.75">
-      <c r="A32" t="s" s="92">
+      <c r="B32" t="s" s="196">
         <v>106</v>
-      </c>
-      <c r="B32" t="s" s="196">
-        <v>107</v>
       </c>
       <c r="C32" s="78">
         <v>98765434</v>
       </c>
       <c r="D32" t="s" s="199">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="79"/>
       <c r="F32" s="203">
@@ -52128,7 +52148,7 @@
         <v>15</v>
       </c>
       <c r="L32" t="s" s="211">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M32" s="78"/>
       <c r="N32" s="81"/>
@@ -52136,22 +52156,22 @@
       <c r="P32" s="83"/>
       <c r="Q32" s="84"/>
       <c r="R32" t="s" s="85">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S32" s="86"/>
       <c r="T32" s="87"/>
     </row>
     <row r="33" spans="1:20" ht="23.25" thickBot="1">
       <c r="A33" t="s" s="91">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s" s="197">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="53"/>
       <c r="D33" s="73"/>
       <c r="E33" t="s" s="200">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F33" s="204">
         <v>42855</v>
@@ -52169,23 +52189,23 @@
       <c r="K33" s="66"/>
       <c r="L33" s="62"/>
       <c r="M33" t="s" s="212">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N33" s="54"/>
       <c r="O33" s="63"/>
       <c r="P33" t="s" s="64">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q33" s="55"/>
       <c r="R33" t="s" s="65">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S33" s="56"/>
       <c r="T33" s="57"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s" s="191">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="170"/>
       <c r="C34" s="174"/>
@@ -52230,152 +52250,152 @@
       <c r="T35" s="170"/>
     </row>
     <row r="36" spans="1:20" s="72" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A36" t="s" s="254">
-        <v>308</v>
-      </c>
-      <c r="B36" s="254"/>
-      <c r="C36" s="254"/>
-      <c r="D36" s="254"/>
-      <c r="E36" s="254"/>
-      <c r="F36" s="254"/>
-      <c r="G36" s="254"/>
-      <c r="H36" s="254"/>
-      <c r="I36" s="254"/>
-      <c r="J36" s="254"/>
-      <c r="K36" s="254"/>
-      <c r="L36" s="254"/>
-      <c r="M36" s="254"/>
-      <c r="N36" s="254"/>
-      <c r="O36" s="254"/>
-      <c r="P36" s="254"/>
-      <c r="Q36" s="254"/>
-      <c r="R36" s="254"/>
-      <c r="S36" s="254"/>
-      <c r="T36" s="254"/>
-    </row>
-    <row r="37" spans="1:20" s="72" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A37" t="s" s="248">
+      <c r="A36" t="s" s="282">
         <v>309</v>
       </c>
-      <c r="B37" s="248"/>
-      <c r="C37" s="248"/>
-      <c r="D37" s="248"/>
-      <c r="E37" s="248"/>
-      <c r="F37" s="248"/>
-      <c r="G37" s="248"/>
-      <c r="H37" s="248"/>
-      <c r="I37" s="248"/>
-      <c r="J37" s="248"/>
-      <c r="K37" s="248"/>
-      <c r="L37" s="248"/>
-      <c r="M37" s="248"/>
-      <c r="N37" s="248"/>
-      <c r="O37" s="248"/>
-      <c r="P37" s="248"/>
-      <c r="Q37" s="248"/>
-      <c r="R37" s="248"/>
-      <c r="S37" s="248"/>
-      <c r="T37" s="248"/>
+      <c r="B36" s="282"/>
+      <c r="C36" s="282"/>
+      <c r="D36" s="282"/>
+      <c r="E36" s="282"/>
+      <c r="F36" s="282"/>
+      <c r="G36" s="282"/>
+      <c r="H36" s="282"/>
+      <c r="I36" s="282"/>
+      <c r="J36" s="282"/>
+      <c r="K36" s="282"/>
+      <c r="L36" s="282"/>
+      <c r="M36" s="282"/>
+      <c r="N36" s="282"/>
+      <c r="O36" s="282"/>
+      <c r="P36" s="282"/>
+      <c r="Q36" s="282"/>
+      <c r="R36" s="282"/>
+      <c r="S36" s="282"/>
+      <c r="T36" s="282"/>
+    </row>
+    <row r="37" spans="1:20" s="72" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A37" t="s" s="281">
+        <v>310</v>
+      </c>
+      <c r="B37" s="281"/>
+      <c r="C37" s="281"/>
+      <c r="D37" s="281"/>
+      <c r="E37" s="281"/>
+      <c r="F37" s="281"/>
+      <c r="G37" s="281"/>
+      <c r="H37" s="281"/>
+      <c r="I37" s="281"/>
+      <c r="J37" s="281"/>
+      <c r="K37" s="281"/>
+      <c r="L37" s="281"/>
+      <c r="M37" s="281"/>
+      <c r="N37" s="281"/>
+      <c r="O37" s="281"/>
+      <c r="P37" s="281"/>
+      <c r="Q37" s="281"/>
+      <c r="R37" s="281"/>
+      <c r="S37" s="281"/>
+      <c r="T37" s="281"/>
     </row>
     <row r="38" spans="1:20" s="72" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A38" t="s" s="248">
+      <c r="A38" t="s" s="281">
         <v>91</v>
       </c>
-      <c r="B38" s="248"/>
-      <c r="C38" s="248"/>
-      <c r="D38" s="248"/>
-      <c r="E38" s="248"/>
-      <c r="F38" s="248"/>
-      <c r="G38" s="248"/>
-      <c r="H38" s="248"/>
-      <c r="I38" s="248"/>
-      <c r="J38" s="248"/>
-      <c r="K38" s="248"/>
-      <c r="L38" s="248"/>
-      <c r="M38" s="248"/>
-      <c r="N38" s="248"/>
-      <c r="O38" s="248"/>
-      <c r="P38" s="248"/>
-      <c r="Q38" s="248"/>
-      <c r="R38" s="248"/>
-      <c r="S38" s="248"/>
-      <c r="T38" s="248"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="281"/>
+      <c r="D38" s="281"/>
+      <c r="E38" s="281"/>
+      <c r="F38" s="281"/>
+      <c r="G38" s="281"/>
+      <c r="H38" s="281"/>
+      <c r="I38" s="281"/>
+      <c r="J38" s="281"/>
+      <c r="K38" s="281"/>
+      <c r="L38" s="281"/>
+      <c r="M38" s="281"/>
+      <c r="N38" s="281"/>
+      <c r="O38" s="281"/>
+      <c r="P38" s="281"/>
+      <c r="Q38" s="281"/>
+      <c r="R38" s="281"/>
+      <c r="S38" s="281"/>
+      <c r="T38" s="281"/>
     </row>
     <row r="39" spans="1:20" s="72" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A39" t="s" s="248">
-        <v>206</v>
+      <c r="A39" t="s" s="281">
+        <v>203</v>
       </c>
-      <c r="B39" s="248"/>
-      <c r="C39" s="248"/>
-      <c r="D39" s="248"/>
-      <c r="E39" s="248"/>
-      <c r="F39" s="248"/>
-      <c r="G39" s="248"/>
-      <c r="H39" s="248"/>
-      <c r="I39" s="248"/>
-      <c r="J39" s="248"/>
-      <c r="K39" s="248"/>
-      <c r="L39" s="248"/>
-      <c r="M39" s="248"/>
-      <c r="N39" s="248"/>
-      <c r="O39" s="248"/>
-      <c r="P39" s="248"/>
-      <c r="Q39" s="248"/>
-      <c r="R39" s="248"/>
-      <c r="S39" s="248"/>
-      <c r="T39" s="248"/>
+      <c r="B39" s="281"/>
+      <c r="C39" s="281"/>
+      <c r="D39" s="281"/>
+      <c r="E39" s="281"/>
+      <c r="F39" s="281"/>
+      <c r="G39" s="281"/>
+      <c r="H39" s="281"/>
+      <c r="I39" s="281"/>
+      <c r="J39" s="281"/>
+      <c r="K39" s="281"/>
+      <c r="L39" s="281"/>
+      <c r="M39" s="281"/>
+      <c r="N39" s="281"/>
+      <c r="O39" s="281"/>
+      <c r="P39" s="281"/>
+      <c r="Q39" s="281"/>
+      <c r="R39" s="281"/>
+      <c r="S39" s="281"/>
+      <c r="T39" s="281"/>
     </row>
     <row r="40" spans="1:20" s="72" customFormat="1" ht="24" customHeight="1">
-      <c r="A40" t="s" s="248">
-        <v>201</v>
+      <c r="A40" t="s" s="281">
+        <v>198</v>
       </c>
-      <c r="B40" s="248"/>
-      <c r="C40" s="248"/>
-      <c r="D40" s="248"/>
-      <c r="E40" s="248"/>
-      <c r="F40" s="248"/>
-      <c r="G40" s="248"/>
-      <c r="H40" s="248"/>
-      <c r="I40" s="248"/>
-      <c r="J40" s="248"/>
-      <c r="K40" s="248"/>
-      <c r="L40" s="248"/>
-      <c r="M40" s="248"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="248"/>
-      <c r="P40" s="248"/>
-      <c r="Q40" s="248"/>
-      <c r="R40" s="248"/>
-      <c r="S40" s="248"/>
-      <c r="T40" s="248"/>
+      <c r="B40" s="281"/>
+      <c r="C40" s="281"/>
+      <c r="D40" s="281"/>
+      <c r="E40" s="281"/>
+      <c r="F40" s="281"/>
+      <c r="G40" s="281"/>
+      <c r="H40" s="281"/>
+      <c r="I40" s="281"/>
+      <c r="J40" s="281"/>
+      <c r="K40" s="281"/>
+      <c r="L40" s="281"/>
+      <c r="M40" s="281"/>
+      <c r="N40" s="281"/>
+      <c r="O40" s="281"/>
+      <c r="P40" s="281"/>
+      <c r="Q40" s="281"/>
+      <c r="R40" s="281"/>
+      <c r="S40" s="281"/>
+      <c r="T40" s="281"/>
     </row>
     <row r="41" spans="1:20" s="72" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A41" t="s" s="248">
-        <v>310</v>
+      <c r="A41" t="s" s="281">
+        <v>311</v>
       </c>
-      <c r="B41" s="248"/>
-      <c r="C41" s="248"/>
-      <c r="D41" s="248"/>
-      <c r="E41" s="248"/>
-      <c r="F41" s="248"/>
-      <c r="G41" s="248"/>
-      <c r="H41" s="248"/>
-      <c r="I41" s="248"/>
-      <c r="J41" s="248"/>
-      <c r="K41" s="248"/>
-      <c r="L41" s="248"/>
-      <c r="M41" s="248"/>
-      <c r="N41" s="248"/>
-      <c r="O41" s="248"/>
-      <c r="P41" s="248"/>
-      <c r="Q41" s="248"/>
-      <c r="R41" s="248"/>
-      <c r="S41" s="248"/>
-      <c r="T41" s="248"/>
+      <c r="B41" s="281"/>
+      <c r="C41" s="281"/>
+      <c r="D41" s="281"/>
+      <c r="E41" s="281"/>
+      <c r="F41" s="281"/>
+      <c r="G41" s="281"/>
+      <c r="H41" s="281"/>
+      <c r="I41" s="281"/>
+      <c r="J41" s="281"/>
+      <c r="K41" s="281"/>
+      <c r="L41" s="281"/>
+      <c r="M41" s="281"/>
+      <c r="N41" s="281"/>
+      <c r="O41" s="281"/>
+      <c r="P41" s="281"/>
+      <c r="Q41" s="281"/>
+      <c r="R41" s="281"/>
+      <c r="S41" s="281"/>
+      <c r="T41" s="281"/>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" t="s" s="218">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B42" s="218"/>
       <c r="C42" s="218"/>
@@ -52399,11 +52419,58 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="E20:P20"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="E22:P22"/>
+    <mergeCell ref="A26:T26"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A39:T39"/>
+    <mergeCell ref="A40:T40"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="E23:P23"/>
+    <mergeCell ref="A41:T41"/>
+    <mergeCell ref="A36:T36"/>
+    <mergeCell ref="A37:T37"/>
+    <mergeCell ref="A38:T38"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E16:P16"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="E18:P18"/>
+    <mergeCell ref="E19:P19"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q14:R16"/>
+    <mergeCell ref="S14:T16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="E14:P14"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="E12:P12"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Q11:R13"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="E9:P9"/>
+    <mergeCell ref="E10:P10"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="S4:T4"/>
@@ -52420,58 +52487,11 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Q11:R13"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="E5:P5"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="E9:P9"/>
-    <mergeCell ref="E10:P10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E14:P14"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="E12:P12"/>
-    <mergeCell ref="E13:P13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q14:R16"/>
-    <mergeCell ref="S14:T16"/>
-    <mergeCell ref="A41:T41"/>
-    <mergeCell ref="A36:T36"/>
-    <mergeCell ref="A37:T37"/>
-    <mergeCell ref="A38:T38"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E16:P16"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="E18:P18"/>
-    <mergeCell ref="E19:P19"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A26:T26"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A39:T39"/>
-    <mergeCell ref="A40:T40"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="E23:P23"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="E20:P20"/>
+    <mergeCell ref="E21:P21"/>
+    <mergeCell ref="E22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -52519,7 +52539,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="18">
       <c r="A1" t="s" s="169">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B1" s="170"/>
       <c r="C1" s="170"/>
@@ -52547,7 +52567,7 @@
     </row>
     <row r="2" spans="1:28" s="189" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" t="s" s="190">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" s="186"/>
       <c r="C2" s="186"/>
@@ -52581,775 +52601,775 @@
       <c r="A3" t="s" s="46">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="272">
+      <c r="B3" t="s" s="271">
         <v>10</v>
       </c>
-      <c r="C3" s="276"/>
-      <c r="D3" s="277"/>
-      <c r="E3" t="s" s="272">
+      <c r="C3" s="275"/>
+      <c r="D3" s="276"/>
+      <c r="E3" t="s" s="271">
         <v>11</v>
       </c>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="274"/>
-      <c r="Q3" t="s" s="280">
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="272"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="272"/>
+      <c r="N3" s="272"/>
+      <c r="O3" s="272"/>
+      <c r="P3" s="273"/>
+      <c r="Q3" t="s" s="250">
+        <v>181</v>
+      </c>
+      <c r="R3" s="257"/>
+      <c r="S3" t="s" s="250">
+        <v>312</v>
+      </c>
+      <c r="T3" s="257"/>
+      <c r="U3" t="s" s="305">
+        <v>183</v>
+      </c>
+      <c r="V3" s="305"/>
+      <c r="W3" t="s" s="305">
         <v>184</v>
       </c>
-      <c r="R3" s="284"/>
-      <c r="S3" t="s" s="280">
-        <v>311</v>
-      </c>
-      <c r="T3" s="284"/>
-      <c r="U3" t="s" s="301">
-        <v>186</v>
-      </c>
-      <c r="V3" s="301"/>
-      <c r="W3" t="s" s="301">
-        <v>187</v>
-      </c>
-      <c r="X3" s="302"/>
+      <c r="X3" s="307"/>
       <c r="Y3" s="183"/>
     </row>
     <row r="4" spans="1:28" ht="12.75" customHeight="1">
       <c r="A4" t="s" s="185">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="294">
+      <c r="B4" t="s" s="314">
         <v>51</v>
       </c>
-      <c r="C4" s="295"/>
-      <c r="D4" s="295"/>
-      <c r="E4" t="s" s="269">
-        <v>113</v>
+      <c r="C4" s="315"/>
+      <c r="D4" s="315"/>
+      <c r="E4" t="s" s="268">
+        <v>112</v>
       </c>
-      <c r="F4" s="270"/>
-      <c r="G4" s="270"/>
-      <c r="H4" s="270"/>
-      <c r="I4" s="270"/>
-      <c r="J4" s="270"/>
-      <c r="K4" s="270"/>
-      <c r="L4" s="270"/>
-      <c r="M4" s="270"/>
-      <c r="N4" s="270"/>
-      <c r="O4" s="270"/>
-      <c r="P4" s="271"/>
-      <c r="Q4" t="s" s="296">
+      <c r="F4" s="269"/>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="269"/>
+      <c r="L4" s="269"/>
+      <c r="M4" s="269"/>
+      <c r="N4" s="269"/>
+      <c r="O4" s="269"/>
+      <c r="P4" s="270"/>
+      <c r="Q4" t="s" s="306">
         <v>92</v>
       </c>
-      <c r="R4" s="296"/>
-      <c r="S4" t="s" s="296">
+      <c r="R4" s="306"/>
+      <c r="S4" t="s" s="306">
         <v>92</v>
       </c>
-      <c r="T4" s="296"/>
-      <c r="U4" t="s" s="296">
+      <c r="T4" s="306"/>
+      <c r="U4" t="s" s="306">
         <v>92</v>
       </c>
-      <c r="V4" s="296"/>
-      <c r="W4" t="s" s="296">
+      <c r="V4" s="306"/>
+      <c r="W4" t="s" s="306">
         <v>92</v>
       </c>
-      <c r="X4" s="303"/>
+      <c r="X4" s="308"/>
       <c r="Y4" s="183"/>
     </row>
     <row r="5" spans="1:28" ht="42" customHeight="1">
       <c r="A5" t="s" s="47">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="255">
+      <c r="B5" t="s" s="248">
         <v>52</v>
       </c>
-      <c r="C5" s="256"/>
-      <c r="D5" s="256"/>
-      <c r="E5" t="s" s="257">
-        <v>281</v>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" t="s" s="245">
+        <v>282</v>
       </c>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="258"/>
-      <c r="M5" s="258"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="258"/>
-      <c r="P5" s="259"/>
-      <c r="Q5" s="243"/>
-      <c r="R5" s="243"/>
-      <c r="S5" s="243"/>
-      <c r="T5" s="243"/>
-      <c r="U5" t="s" s="243">
+      <c r="F5" s="246"/>
+      <c r="G5" s="246"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="246"/>
+      <c r="J5" s="246"/>
+      <c r="K5" s="246"/>
+      <c r="L5" s="246"/>
+      <c r="M5" s="246"/>
+      <c r="N5" s="246"/>
+      <c r="O5" s="246"/>
+      <c r="P5" s="247"/>
+      <c r="Q5" s="244"/>
+      <c r="R5" s="244"/>
+      <c r="S5" s="244"/>
+      <c r="T5" s="244"/>
+      <c r="U5" t="s" s="244">
         <v>92</v>
       </c>
-      <c r="V5" s="243"/>
-      <c r="W5" s="243"/>
-      <c r="X5" s="244"/>
+      <c r="V5" s="244"/>
+      <c r="W5" s="244"/>
+      <c r="X5" s="252"/>
       <c r="Y5" s="183"/>
     </row>
     <row r="6" spans="1:28" ht="110.25" customHeight="1">
       <c r="A6" t="s" s="47">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="255">
-        <v>116</v>
+      <c r="B6" t="s" s="248">
+        <v>115</v>
       </c>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" t="s" s="275">
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
+      <c r="E6" t="s" s="274">
+        <v>113</v>
+      </c>
+      <c r="F6" s="274"/>
+      <c r="G6" s="274"/>
+      <c r="H6" s="274"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
+      <c r="K6" s="274"/>
+      <c r="L6" s="274"/>
+      <c r="M6" s="274"/>
+      <c r="N6" s="274"/>
+      <c r="O6" s="274"/>
+      <c r="P6" s="274"/>
+      <c r="Q6" t="s" s="244">
         <v>114</v>
       </c>
-      <c r="F6" s="275"/>
-      <c r="G6" s="275"/>
-      <c r="H6" s="275"/>
-      <c r="I6" s="275"/>
-      <c r="J6" s="275"/>
-      <c r="K6" s="275"/>
-      <c r="L6" s="275"/>
-      <c r="M6" s="275"/>
-      <c r="N6" s="275"/>
-      <c r="O6" s="275"/>
-      <c r="P6" s="275"/>
-      <c r="Q6" t="s" s="243">
-        <v>115</v>
+      <c r="R6" s="244"/>
+      <c r="S6" t="s" s="244">
+        <v>188</v>
       </c>
-      <c r="R6" s="243"/>
-      <c r="S6" t="s" s="243">
-        <v>191</v>
+      <c r="T6" s="244"/>
+      <c r="U6" t="s" s="244">
+        <v>114</v>
       </c>
-      <c r="T6" s="243"/>
-      <c r="U6" t="s" s="243">
-        <v>115</v>
+      <c r="V6" s="244"/>
+      <c r="W6" t="s" s="301">
+        <v>313</v>
       </c>
-      <c r="V6" s="243"/>
-      <c r="W6" t="s" s="297">
-        <v>312</v>
-      </c>
-      <c r="X6" s="304"/>
+      <c r="X6" s="309"/>
       <c r="Y6" s="183"/>
     </row>
     <row r="7" spans="1:28" ht="110.25" customHeight="1">
       <c r="A7" t="s" s="47">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="255">
-        <v>117</v>
+      <c r="B7" t="s" s="248">
+        <v>116</v>
       </c>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" t="s" s="275">
-        <v>158</v>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
+      <c r="E7" t="s" s="274">
+        <v>156</v>
       </c>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
-      <c r="I7" s="275"/>
-      <c r="J7" s="275"/>
-      <c r="K7" s="275"/>
-      <c r="L7" s="275"/>
-      <c r="M7" s="275"/>
-      <c r="N7" s="275"/>
-      <c r="O7" s="275"/>
-      <c r="P7" s="275"/>
-      <c r="Q7" s="243"/>
-      <c r="R7" s="243"/>
-      <c r="S7" s="243"/>
-      <c r="T7" s="243"/>
-      <c r="U7" s="243"/>
-      <c r="V7" s="243"/>
-      <c r="W7" s="305"/>
-      <c r="X7" s="306"/>
+      <c r="F7" s="274"/>
+      <c r="G7" s="274"/>
+      <c r="H7" s="274"/>
+      <c r="I7" s="274"/>
+      <c r="J7" s="274"/>
+      <c r="K7" s="274"/>
+      <c r="L7" s="274"/>
+      <c r="M7" s="274"/>
+      <c r="N7" s="274"/>
+      <c r="O7" s="274"/>
+      <c r="P7" s="274"/>
+      <c r="Q7" s="244"/>
+      <c r="R7" s="244"/>
+      <c r="S7" s="244"/>
+      <c r="T7" s="244"/>
+      <c r="U7" s="244"/>
+      <c r="V7" s="244"/>
+      <c r="W7" s="310"/>
+      <c r="X7" s="311"/>
       <c r="Y7" s="183"/>
     </row>
     <row r="8" spans="1:28" ht="28.5" customHeight="1">
       <c r="A8" t="s" s="47">
         <v>16</v>
       </c>
-      <c r="B8" t="s" s="255">
+      <c r="B8" t="s" s="248">
         <v>2</v>
       </c>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-      <c r="E8" t="s" s="257">
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" t="s" s="245">
         <v>57</v>
       </c>
-      <c r="F8" s="258"/>
-      <c r="G8" s="258"/>
-      <c r="H8" s="258"/>
-      <c r="I8" s="258"/>
-      <c r="J8" s="258"/>
-      <c r="K8" s="258"/>
-      <c r="L8" s="258"/>
-      <c r="M8" s="258"/>
-      <c r="N8" s="258"/>
-      <c r="O8" s="258"/>
-      <c r="P8" s="259"/>
-      <c r="Q8" t="s" s="243">
+      <c r="F8" s="246"/>
+      <c r="G8" s="246"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="247"/>
+      <c r="Q8" t="s" s="244">
         <v>92</v>
       </c>
-      <c r="R8" s="243"/>
-      <c r="S8" s="243"/>
-      <c r="T8" s="243"/>
-      <c r="U8" t="s" s="243">
+      <c r="R8" s="244"/>
+      <c r="S8" s="244"/>
+      <c r="T8" s="244"/>
+      <c r="U8" t="s" s="244">
         <v>92</v>
       </c>
-      <c r="V8" s="243"/>
-      <c r="W8" t="s" s="243">
+      <c r="V8" s="244"/>
+      <c r="W8" t="s" s="244">
         <v>92</v>
       </c>
-      <c r="X8" s="244"/>
+      <c r="X8" s="252"/>
       <c r="Y8" s="183"/>
     </row>
     <row r="9" spans="1:28" ht="12.75" customHeight="1">
       <c r="A9" t="s" s="47">
         <v>17</v>
       </c>
-      <c r="B9" t="s" s="255">
+      <c r="B9" t="s" s="248">
         <v>1</v>
       </c>
-      <c r="C9" s="256"/>
-      <c r="D9" s="256"/>
-      <c r="E9" t="s" s="257">
-        <v>159</v>
+      <c r="C9" s="249"/>
+      <c r="D9" s="249"/>
+      <c r="E9" t="s" s="245">
+        <v>157</v>
       </c>
-      <c r="F9" s="258"/>
-      <c r="G9" s="258"/>
-      <c r="H9" s="258"/>
-      <c r="I9" s="258"/>
-      <c r="J9" s="258"/>
-      <c r="K9" s="258"/>
-      <c r="L9" s="258"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="258"/>
-      <c r="P9" s="259"/>
-      <c r="Q9" s="243"/>
-      <c r="R9" s="243"/>
-      <c r="S9" t="s" s="243">
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="246"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="246"/>
+      <c r="M9" s="246"/>
+      <c r="N9" s="246"/>
+      <c r="O9" s="246"/>
+      <c r="P9" s="247"/>
+      <c r="Q9" s="244"/>
+      <c r="R9" s="244"/>
+      <c r="S9" t="s" s="244">
         <v>92</v>
       </c>
-      <c r="T9" s="243"/>
-      <c r="U9" s="243"/>
-      <c r="V9" s="243"/>
-      <c r="W9" s="243"/>
-      <c r="X9" s="244"/>
+      <c r="T9" s="244"/>
+      <c r="U9" s="244"/>
+      <c r="V9" s="244"/>
+      <c r="W9" s="244"/>
+      <c r="X9" s="252"/>
       <c r="Y9" s="183"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" customHeight="1">
       <c r="A10" t="s" s="47">
         <v>18</v>
       </c>
-      <c r="B10" t="s" s="255">
-        <v>282</v>
+      <c r="B10" t="s" s="248">
+        <v>283</v>
       </c>
-      <c r="C10" s="256"/>
-      <c r="D10" s="256"/>
-      <c r="E10" t="s" s="257">
+      <c r="C10" s="249"/>
+      <c r="D10" s="249"/>
+      <c r="E10" t="s" s="245">
         <v>58</v>
       </c>
-      <c r="F10" s="258"/>
-      <c r="G10" s="258"/>
-      <c r="H10" s="258"/>
-      <c r="I10" s="258"/>
-      <c r="J10" s="258"/>
-      <c r="K10" s="258"/>
-      <c r="L10" s="258"/>
-      <c r="M10" s="258"/>
-      <c r="N10" s="258"/>
-      <c r="O10" s="258"/>
-      <c r="P10" s="259"/>
-      <c r="Q10" s="243"/>
-      <c r="R10" s="243"/>
-      <c r="S10" t="s" s="243">
-        <v>283</v>
+      <c r="F10" s="246"/>
+      <c r="G10" s="246"/>
+      <c r="H10" s="246"/>
+      <c r="I10" s="246"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="246"/>
+      <c r="M10" s="246"/>
+      <c r="N10" s="246"/>
+      <c r="O10" s="246"/>
+      <c r="P10" s="247"/>
+      <c r="Q10" s="244"/>
+      <c r="R10" s="244"/>
+      <c r="S10" t="s" s="244">
+        <v>284</v>
       </c>
-      <c r="T10" s="243"/>
-      <c r="U10" t="s" s="243">
-        <v>283</v>
+      <c r="T10" s="244"/>
+      <c r="U10" t="s" s="244">
+        <v>284</v>
       </c>
-      <c r="V10" s="243"/>
-      <c r="W10" s="243"/>
-      <c r="X10" s="244"/>
+      <c r="V10" s="244"/>
+      <c r="W10" s="244"/>
+      <c r="X10" s="252"/>
       <c r="Y10" s="183"/>
     </row>
     <row r="11" spans="1:28" ht="12.75" customHeight="1">
       <c r="A11" t="s" s="47">
         <v>19</v>
       </c>
-      <c r="B11" t="s" s="255">
+      <c r="B11" t="s" s="248">
         <v>66</v>
       </c>
-      <c r="C11" s="256"/>
-      <c r="D11" s="256"/>
-      <c r="E11" t="s" s="257">
-        <v>132</v>
+      <c r="C11" s="249"/>
+      <c r="D11" s="249"/>
+      <c r="E11" t="s" s="245">
+        <v>131</v>
       </c>
-      <c r="F11" s="258"/>
-      <c r="G11" s="258"/>
-      <c r="H11" s="258"/>
-      <c r="I11" s="258"/>
-      <c r="J11" s="258"/>
-      <c r="K11" s="258"/>
-      <c r="L11" s="258"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="258"/>
-      <c r="O11" s="258"/>
-      <c r="P11" s="259"/>
-      <c r="Q11" s="243"/>
-      <c r="R11" s="243"/>
-      <c r="S11" s="243"/>
-      <c r="T11" s="243"/>
-      <c r="U11" s="243"/>
-      <c r="V11" s="243"/>
-      <c r="W11" s="243"/>
-      <c r="X11" s="244"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="246"/>
+      <c r="M11" s="246"/>
+      <c r="N11" s="246"/>
+      <c r="O11" s="246"/>
+      <c r="P11" s="247"/>
+      <c r="Q11" s="244"/>
+      <c r="R11" s="244"/>
+      <c r="S11" s="244"/>
+      <c r="T11" s="244"/>
+      <c r="U11" s="244"/>
+      <c r="V11" s="244"/>
+      <c r="W11" s="244"/>
+      <c r="X11" s="252"/>
       <c r="Y11" s="183"/>
     </row>
     <row r="12" spans="1:28" ht="12.75" customHeight="1">
       <c r="A12" t="s" s="47">
         <v>20</v>
       </c>
-      <c r="B12" t="s" s="255">
+      <c r="B12" t="s" s="248">
         <v>67</v>
       </c>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-      <c r="E12" t="s" s="257">
+      <c r="C12" s="249"/>
+      <c r="D12" s="249"/>
+      <c r="E12" t="s" s="245">
         <v>72</v>
       </c>
-      <c r="F12" s="258"/>
-      <c r="G12" s="258"/>
-      <c r="H12" s="258"/>
-      <c r="I12" s="258"/>
-      <c r="J12" s="258"/>
-      <c r="K12" s="258"/>
-      <c r="L12" s="258"/>
-      <c r="M12" s="258"/>
-      <c r="N12" s="258"/>
-      <c r="O12" s="258"/>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="243"/>
-      <c r="R12" s="243"/>
-      <c r="S12" s="243"/>
-      <c r="T12" s="243"/>
-      <c r="U12" s="243"/>
-      <c r="V12" s="243"/>
-      <c r="W12" s="243"/>
-      <c r="X12" s="244"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="246"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="246"/>
+      <c r="M12" s="246"/>
+      <c r="N12" s="246"/>
+      <c r="O12" s="246"/>
+      <c r="P12" s="247"/>
+      <c r="Q12" s="244"/>
+      <c r="R12" s="244"/>
+      <c r="S12" s="244"/>
+      <c r="T12" s="244"/>
+      <c r="U12" s="244"/>
+      <c r="V12" s="244"/>
+      <c r="W12" s="244"/>
+      <c r="X12" s="252"/>
       <c r="Y12" s="183"/>
     </row>
     <row r="13" spans="1:28" ht="68.25" customHeight="1">
       <c r="A13" t="s" s="47">
         <v>21</v>
       </c>
-      <c r="B13" t="s" s="268">
-        <v>284</v>
-      </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" t="s" s="257">
-        <v>133</v>
-      </c>
-      <c r="F13" s="258"/>
-      <c r="G13" s="258"/>
-      <c r="H13" s="258"/>
-      <c r="I13" s="258"/>
-      <c r="J13" s="258"/>
-      <c r="K13" s="258"/>
-      <c r="L13" s="258"/>
-      <c r="M13" s="258"/>
-      <c r="N13" s="258"/>
-      <c r="O13" s="258"/>
-      <c r="P13" s="259"/>
-      <c r="Q13" t="s" s="243">
+      <c r="B13" t="s" s="279">
         <v>285</v>
       </c>
-      <c r="R13" s="243"/>
-      <c r="S13" t="s" s="243">
-        <v>285</v>
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" t="s" s="245">
+        <v>132</v>
       </c>
-      <c r="T13" s="243"/>
-      <c r="U13" t="s" s="243">
-        <v>285</v>
+      <c r="F13" s="246"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="246"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="246"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="246"/>
+      <c r="M13" s="246"/>
+      <c r="N13" s="246"/>
+      <c r="O13" s="246"/>
+      <c r="P13" s="247"/>
+      <c r="Q13" t="s" s="244">
+        <v>286</v>
       </c>
-      <c r="V13" s="243"/>
-      <c r="W13" t="s" s="243">
-        <v>285</v>
+      <c r="R13" s="244"/>
+      <c r="S13" t="s" s="244">
+        <v>286</v>
       </c>
-      <c r="X13" s="244"/>
+      <c r="T13" s="244"/>
+      <c r="U13" t="s" s="244">
+        <v>286</v>
+      </c>
+      <c r="V13" s="244"/>
+      <c r="W13" t="s" s="244">
+        <v>286</v>
+      </c>
+      <c r="X13" s="252"/>
       <c r="Y13" s="183"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1">
       <c r="A14" t="s" s="47">
         <v>22</v>
       </c>
-      <c r="B14" t="s" s="255">
-        <v>286</v>
+      <c r="B14" t="s" s="248">
+        <v>287</v>
       </c>
-      <c r="C14" s="256"/>
-      <c r="D14" s="256"/>
-      <c r="E14" t="s" s="257">
+      <c r="C14" s="249"/>
+      <c r="D14" s="249"/>
+      <c r="E14" t="s" s="245">
         <v>30</v>
       </c>
-      <c r="F14" s="258"/>
-      <c r="G14" s="258"/>
-      <c r="H14" s="258"/>
-      <c r="I14" s="258"/>
-      <c r="J14" s="258"/>
-      <c r="K14" s="258"/>
-      <c r="L14" s="258"/>
-      <c r="M14" s="258"/>
-      <c r="N14" s="258"/>
-      <c r="O14" s="258"/>
-      <c r="P14" s="259"/>
-      <c r="Q14" s="243"/>
-      <c r="R14" s="243"/>
-      <c r="S14" s="243"/>
-      <c r="T14" s="243"/>
-      <c r="U14" s="243"/>
-      <c r="V14" s="243"/>
-      <c r="W14" s="243"/>
-      <c r="X14" s="244"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="246"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="246"/>
+      <c r="K14" s="246"/>
+      <c r="L14" s="246"/>
+      <c r="M14" s="246"/>
+      <c r="N14" s="246"/>
+      <c r="O14" s="246"/>
+      <c r="P14" s="247"/>
+      <c r="Q14" s="244"/>
+      <c r="R14" s="244"/>
+      <c r="S14" s="244"/>
+      <c r="T14" s="244"/>
+      <c r="U14" s="244"/>
+      <c r="V14" s="244"/>
+      <c r="W14" s="244"/>
+      <c r="X14" s="252"/>
       <c r="Y14" s="183"/>
     </row>
     <row r="15" spans="1:28" ht="12.75" customHeight="1">
       <c r="A15" t="s" s="47">
         <v>23</v>
       </c>
-      <c r="B15" t="s" s="255">
+      <c r="B15" t="s" s="248">
         <v>59</v>
       </c>
-      <c r="C15" s="256"/>
-      <c r="D15" s="256"/>
-      <c r="E15" t="s" s="257">
-        <v>156</v>
+      <c r="C15" s="249"/>
+      <c r="D15" s="249"/>
+      <c r="E15" t="s" s="245">
+        <v>154</v>
       </c>
-      <c r="F15" s="258"/>
-      <c r="G15" s="258"/>
-      <c r="H15" s="258"/>
-      <c r="I15" s="258"/>
-      <c r="J15" s="258"/>
-      <c r="K15" s="258"/>
-      <c r="L15" s="258"/>
-      <c r="M15" s="258"/>
-      <c r="N15" s="258"/>
-      <c r="O15" s="258"/>
-      <c r="P15" s="259"/>
-      <c r="Q15" s="243"/>
-      <c r="R15" s="243"/>
-      <c r="S15" s="243"/>
-      <c r="T15" s="243"/>
-      <c r="U15" s="243"/>
-      <c r="V15" s="243"/>
-      <c r="W15" s="243"/>
-      <c r="X15" s="244"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="246"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="246"/>
+      <c r="K15" s="246"/>
+      <c r="L15" s="246"/>
+      <c r="M15" s="246"/>
+      <c r="N15" s="246"/>
+      <c r="O15" s="246"/>
+      <c r="P15" s="247"/>
+      <c r="Q15" s="244"/>
+      <c r="R15" s="244"/>
+      <c r="S15" s="244"/>
+      <c r="T15" s="244"/>
+      <c r="U15" s="244"/>
+      <c r="V15" s="244"/>
+      <c r="W15" s="244"/>
+      <c r="X15" s="252"/>
       <c r="Y15" s="183"/>
     </row>
     <row r="16" spans="1:28" ht="33.75" customHeight="1">
       <c r="A16" t="s" s="47">
         <v>25</v>
       </c>
-      <c r="B16" t="s" s="255">
-        <v>287</v>
+      <c r="B16" t="s" s="248">
+        <v>288</v>
       </c>
-      <c r="C16" s="255"/>
-      <c r="D16" s="255"/>
-      <c r="E16" t="s" s="257">
-        <v>205</v>
+      <c r="C16" s="248"/>
+      <c r="D16" s="248"/>
+      <c r="E16" t="s" s="245">
+        <v>202</v>
       </c>
-      <c r="F16" s="258"/>
-      <c r="G16" s="258"/>
-      <c r="H16" s="258"/>
-      <c r="I16" s="258"/>
-      <c r="J16" s="258"/>
-      <c r="K16" s="258"/>
-      <c r="L16" s="258"/>
-      <c r="M16" s="258"/>
-      <c r="N16" s="258"/>
-      <c r="O16" s="258"/>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="243"/>
-      <c r="R16" s="243"/>
-      <c r="S16" s="243"/>
-      <c r="T16" s="243"/>
-      <c r="U16" s="243"/>
-      <c r="V16" s="243"/>
-      <c r="W16" s="243"/>
-      <c r="X16" s="244"/>
+      <c r="F16" s="246"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="246"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="246"/>
+      <c r="K16" s="246"/>
+      <c r="L16" s="246"/>
+      <c r="M16" s="246"/>
+      <c r="N16" s="246"/>
+      <c r="O16" s="246"/>
+      <c r="P16" s="247"/>
+      <c r="Q16" s="244"/>
+      <c r="R16" s="244"/>
+      <c r="S16" s="244"/>
+      <c r="T16" s="244"/>
+      <c r="U16" s="244"/>
+      <c r="V16" s="244"/>
+      <c r="W16" s="244"/>
+      <c r="X16" s="252"/>
       <c r="Y16" s="183"/>
     </row>
     <row r="17" spans="1:28" ht="52.5" customHeight="1">
       <c r="A17" t="s" s="47">
         <v>61</v>
       </c>
-      <c r="B17" t="s" s="255">
-        <v>290</v>
-      </c>
-      <c r="C17" s="256"/>
-      <c r="D17" s="256"/>
-      <c r="E17" t="s" s="257">
-        <v>189</v>
-      </c>
-      <c r="F17" s="258"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="258"/>
-      <c r="I17" s="258"/>
-      <c r="J17" s="258"/>
-      <c r="K17" s="258"/>
-      <c r="L17" s="258"/>
-      <c r="M17" s="258"/>
-      <c r="N17" s="258"/>
-      <c r="O17" s="258"/>
-      <c r="P17" s="259"/>
-      <c r="Q17" t="s" s="297">
-        <v>313</v>
-      </c>
-      <c r="R17" s="298"/>
-      <c r="S17" t="s" s="243">
+      <c r="B17" t="s" s="248">
         <v>291</v>
       </c>
-      <c r="T17" s="243"/>
-      <c r="U17" t="s" s="243">
-        <v>291</v>
+      <c r="C17" s="249"/>
+      <c r="D17" s="249"/>
+      <c r="E17" t="s" s="245">
+        <v>186</v>
       </c>
-      <c r="V17" s="243"/>
-      <c r="W17" t="s" s="297">
+      <c r="F17" s="246"/>
+      <c r="G17" s="246"/>
+      <c r="H17" s="246"/>
+      <c r="I17" s="246"/>
+      <c r="J17" s="246"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="246"/>
+      <c r="M17" s="246"/>
+      <c r="N17" s="246"/>
+      <c r="O17" s="246"/>
+      <c r="P17" s="247"/>
+      <c r="Q17" t="s" s="301">
         <v>314</v>
       </c>
-      <c r="X17" s="312"/>
+      <c r="R17" s="312"/>
+      <c r="S17" t="s" s="244">
+        <v>292</v>
+      </c>
+      <c r="T17" s="244"/>
+      <c r="U17" t="s" s="244">
+        <v>292</v>
+      </c>
+      <c r="V17" s="244"/>
+      <c r="W17" t="s" s="301">
+        <v>315</v>
+      </c>
+      <c r="X17" s="302"/>
       <c r="Y17" s="183"/>
     </row>
     <row r="18" spans="1:28" ht="52.5" customHeight="1">
       <c r="A18" t="s" s="47">
         <v>62</v>
       </c>
-      <c r="B18" t="s" s="291">
-        <v>160</v>
+      <c r="B18" t="s" s="265">
+        <v>158</v>
       </c>
-      <c r="C18" s="292"/>
-      <c r="D18" s="293"/>
-      <c r="E18" t="s" s="257">
-        <v>198</v>
+      <c r="C18" s="266"/>
+      <c r="D18" s="267"/>
+      <c r="E18" t="s" s="245">
+        <v>195</v>
       </c>
-      <c r="F18" s="258"/>
-      <c r="G18" s="258"/>
-      <c r="H18" s="258"/>
-      <c r="I18" s="258"/>
-      <c r="J18" s="258"/>
-      <c r="K18" s="258"/>
-      <c r="L18" s="258"/>
-      <c r="M18" s="258"/>
-      <c r="N18" s="258"/>
-      <c r="O18" s="258"/>
-      <c r="P18" s="259"/>
-      <c r="Q18" s="299"/>
-      <c r="R18" s="300"/>
-      <c r="S18" s="243"/>
-      <c r="T18" s="243"/>
-      <c r="U18" s="243"/>
-      <c r="V18" s="243"/>
-      <c r="W18" s="299"/>
-      <c r="X18" s="313"/>
+      <c r="F18" s="246"/>
+      <c r="G18" s="246"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="246"/>
+      <c r="K18" s="246"/>
+      <c r="L18" s="246"/>
+      <c r="M18" s="246"/>
+      <c r="N18" s="246"/>
+      <c r="O18" s="246"/>
+      <c r="P18" s="247"/>
+      <c r="Q18" s="303"/>
+      <c r="R18" s="313"/>
+      <c r="S18" s="244"/>
+      <c r="T18" s="244"/>
+      <c r="U18" s="244"/>
+      <c r="V18" s="244"/>
+      <c r="W18" s="303"/>
+      <c r="X18" s="304"/>
       <c r="Y18" s="183"/>
     </row>
     <row r="19" spans="1:28" ht="14.25" customHeight="1">
       <c r="A19" t="s" s="47">
         <v>63</v>
       </c>
-      <c r="B19" t="s" s="255">
+      <c r="B19" t="s" s="248">
+        <v>293</v>
+      </c>
+      <c r="C19" s="249"/>
+      <c r="D19" s="249"/>
+      <c r="E19" t="s" s="245">
+        <v>24</v>
+      </c>
+      <c r="F19" s="246"/>
+      <c r="G19" s="246"/>
+      <c r="H19" s="246"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="246"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="246"/>
+      <c r="M19" s="246"/>
+      <c r="N19" s="246"/>
+      <c r="O19" s="246"/>
+      <c r="P19" s="247"/>
+      <c r="Q19" s="244"/>
+      <c r="R19" s="244"/>
+      <c r="S19" s="244"/>
+      <c r="T19" s="244"/>
+      <c r="U19" t="s" s="244">
         <v>292</v>
       </c>
-      <c r="C19" s="256"/>
-      <c r="D19" s="256"/>
-      <c r="E19" t="s" s="257">
-        <v>24</v>
-      </c>
-      <c r="F19" s="258"/>
-      <c r="G19" s="258"/>
-      <c r="H19" s="258"/>
-      <c r="I19" s="258"/>
-      <c r="J19" s="258"/>
-      <c r="K19" s="258"/>
-      <c r="L19" s="258"/>
-      <c r="M19" s="258"/>
-      <c r="N19" s="258"/>
-      <c r="O19" s="258"/>
-      <c r="P19" s="259"/>
-      <c r="Q19" s="243"/>
-      <c r="R19" s="243"/>
-      <c r="S19" s="243"/>
-      <c r="T19" s="243"/>
-      <c r="U19" t="s" s="243">
-        <v>291</v>
-      </c>
-      <c r="V19" s="243"/>
-      <c r="W19" s="243"/>
-      <c r="X19" s="244"/>
+      <c r="V19" s="244"/>
+      <c r="W19" s="244"/>
+      <c r="X19" s="252"/>
       <c r="Y19" s="183"/>
     </row>
     <row r="20" spans="1:28" ht="12.75" customHeight="1">
       <c r="A20" t="s" s="47">
         <v>68</v>
       </c>
-      <c r="B20" t="s" s="255">
-        <v>161</v>
+      <c r="B20" t="s" s="248">
+        <v>159</v>
       </c>
-      <c r="C20" s="256"/>
-      <c r="D20" s="256"/>
-      <c r="E20" t="s" s="257">
-        <v>157</v>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" t="s" s="245">
+        <v>155</v>
       </c>
-      <c r="F20" s="258"/>
-      <c r="G20" s="258"/>
-      <c r="H20" s="258"/>
-      <c r="I20" s="258"/>
-      <c r="J20" s="258"/>
-      <c r="K20" s="258"/>
-      <c r="L20" s="258"/>
-      <c r="M20" s="258"/>
-      <c r="N20" s="258"/>
-      <c r="O20" s="258"/>
-      <c r="P20" s="259"/>
-      <c r="Q20" s="243"/>
-      <c r="R20" s="243"/>
-      <c r="S20" s="243"/>
-      <c r="T20" s="243"/>
-      <c r="U20" s="243"/>
-      <c r="V20" s="243"/>
-      <c r="W20" s="243"/>
-      <c r="X20" s="244"/>
+      <c r="F20" s="246"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="246"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="246"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="246"/>
+      <c r="M20" s="246"/>
+      <c r="N20" s="246"/>
+      <c r="O20" s="246"/>
+      <c r="P20" s="247"/>
+      <c r="Q20" s="244"/>
+      <c r="R20" s="244"/>
+      <c r="S20" s="244"/>
+      <c r="T20" s="244"/>
+      <c r="U20" s="244"/>
+      <c r="V20" s="244"/>
+      <c r="W20" s="244"/>
+      <c r="X20" s="252"/>
       <c r="Y20" s="183"/>
     </row>
     <row r="21" spans="1:28" ht="52.5" customHeight="1">
       <c r="A21" t="s" s="48">
         <v>74</v>
       </c>
-      <c r="B21" t="s" s="245">
+      <c r="B21" t="s" s="288">
+        <v>95</v>
+      </c>
+      <c r="C21" s="289"/>
+      <c r="D21" s="290"/>
+      <c r="E21" t="s" s="245">
+        <v>199</v>
+      </c>
+      <c r="F21" s="246"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="246"/>
+      <c r="I21" s="246"/>
+      <c r="J21" s="246"/>
+      <c r="K21" s="246"/>
+      <c r="L21" s="246"/>
+      <c r="M21" s="246"/>
+      <c r="N21" s="246"/>
+      <c r="O21" s="246"/>
+      <c r="P21" s="247"/>
+      <c r="Q21" s="244"/>
+      <c r="R21" s="244"/>
+      <c r="S21" s="244"/>
+      <c r="T21" s="244"/>
+      <c r="U21" s="244"/>
+      <c r="V21" s="244"/>
+      <c r="W21" s="244"/>
+      <c r="X21" s="252"/>
+      <c r="Y21" s="183"/>
+    </row>
+    <row r="22" spans="1:28" ht="41.25" customHeight="1" thickBot="1">
+      <c r="A22" t="s" s="49">
         <v>96</v>
       </c>
-      <c r="C21" s="246"/>
-      <c r="D21" s="247"/>
-      <c r="E21" t="s" s="257">
-        <v>202</v>
-      </c>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
-      <c r="H21" s="258"/>
-      <c r="I21" s="258"/>
-      <c r="J21" s="258"/>
-      <c r="K21" s="258"/>
-      <c r="L21" s="258"/>
-      <c r="M21" s="258"/>
-      <c r="N21" s="258"/>
-      <c r="O21" s="258"/>
-      <c r="P21" s="259"/>
-      <c r="Q21" s="243"/>
-      <c r="R21" s="243"/>
-      <c r="S21" s="243"/>
-      <c r="T21" s="243"/>
-      <c r="U21" s="243"/>
-      <c r="V21" s="243"/>
-      <c r="W21" s="243"/>
-      <c r="X21" s="244"/>
-      <c r="Y21" s="183"/>
-    </row>
-    <row r="22" spans="1:28" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A22" t="s" s="49">
-        <v>97</v>
-      </c>
-      <c r="B22" t="s" s="262">
+      <c r="B22" t="s" s="285">
         <v>0</v>
       </c>
-      <c r="C22" s="263"/>
-      <c r="D22" s="263"/>
-      <c r="E22" t="s" s="251">
-        <v>293</v>
+      <c r="C22" s="286"/>
+      <c r="D22" s="286"/>
+      <c r="E22" t="s" s="293">
+        <v>294</v>
       </c>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
-      <c r="H22" s="252"/>
-      <c r="I22" s="252"/>
-      <c r="J22" s="252"/>
-      <c r="K22" s="252"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="252"/>
-      <c r="N22" s="252"/>
-      <c r="O22" s="252"/>
-      <c r="P22" s="253"/>
-      <c r="Q22" s="260"/>
-      <c r="R22" s="260"/>
-      <c r="S22" s="260"/>
-      <c r="T22" s="260"/>
-      <c r="U22" s="260"/>
-      <c r="V22" s="260"/>
-      <c r="W22" s="260"/>
-      <c r="X22" s="261"/>
+      <c r="F22" s="294"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="294"/>
+      <c r="J22" s="294"/>
+      <c r="K22" s="294"/>
+      <c r="L22" s="294"/>
+      <c r="M22" s="294"/>
+      <c r="N22" s="294"/>
+      <c r="O22" s="294"/>
+      <c r="P22" s="295"/>
+      <c r="Q22" s="283"/>
+      <c r="R22" s="283"/>
+      <c r="S22" s="283"/>
+      <c r="T22" s="283"/>
+      <c r="U22" s="283"/>
+      <c r="V22" s="283"/>
+      <c r="W22" s="283"/>
+      <c r="X22" s="284"/>
       <c r="Y22" s="184"/>
       <c r="Z22" s="181"/>
       <c r="AA22" s="181"/>
       <c r="AB22" s="181"/>
     </row>
     <row r="23" spans="1:28" s="179" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" t="s" s="307">
-        <v>310</v>
+      <c r="A23" t="s" s="296">
+        <v>311</v>
       </c>
-      <c r="B23" s="307"/>
-      <c r="C23" s="307"/>
-      <c r="D23" s="307"/>
-      <c r="E23" s="307"/>
-      <c r="F23" s="307"/>
-      <c r="G23" s="307"/>
-      <c r="H23" s="307"/>
-      <c r="I23" s="307"/>
-      <c r="J23" s="307"/>
-      <c r="K23" s="307"/>
-      <c r="L23" s="307"/>
-      <c r="M23" s="307"/>
-      <c r="N23" s="307"/>
-      <c r="O23" s="307"/>
-      <c r="P23" s="307"/>
-      <c r="Q23" s="307"/>
-      <c r="R23" s="307"/>
-      <c r="S23" s="307"/>
-      <c r="T23" s="307"/>
-      <c r="U23" s="307"/>
-      <c r="V23" s="307"/>
-      <c r="W23" s="307"/>
-      <c r="X23" s="308"/>
+      <c r="B23" s="296"/>
+      <c r="C23" s="296"/>
+      <c r="D23" s="296"/>
+      <c r="E23" s="296"/>
+      <c r="F23" s="296"/>
+      <c r="G23" s="296"/>
+      <c r="H23" s="296"/>
+      <c r="I23" s="296"/>
+      <c r="J23" s="296"/>
+      <c r="K23" s="296"/>
+      <c r="L23" s="296"/>
+      <c r="M23" s="296"/>
+      <c r="N23" s="296"/>
+      <c r="O23" s="296"/>
+      <c r="P23" s="296"/>
+      <c r="Q23" s="296"/>
+      <c r="R23" s="296"/>
+      <c r="S23" s="296"/>
+      <c r="T23" s="296"/>
+      <c r="U23" s="296"/>
+      <c r="V23" s="296"/>
+      <c r="W23" s="296"/>
+      <c r="X23" s="297"/>
     </row>
     <row r="24" spans="1:28" s="179" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:28" s="179" customFormat="1" ht="12.75">
-      <c r="A25" s="309"/>
-      <c r="B25" s="310"/>
-      <c r="C25" s="310"/>
-      <c r="D25" s="310"/>
-      <c r="E25" s="310"/>
-      <c r="F25" s="310"/>
-      <c r="G25" s="310"/>
-      <c r="H25" s="310"/>
-      <c r="I25" s="310"/>
-      <c r="J25" s="310"/>
-      <c r="K25" s="310"/>
-      <c r="L25" s="310"/>
-      <c r="M25" s="310"/>
-      <c r="N25" s="310"/>
-      <c r="O25" s="310"/>
-      <c r="P25" s="310"/>
-      <c r="Q25" s="310"/>
-      <c r="R25" s="310"/>
-      <c r="S25" s="310"/>
-      <c r="T25" s="310"/>
-      <c r="U25" s="310"/>
-      <c r="V25" s="310"/>
-      <c r="W25" s="310"/>
-      <c r="X25" s="311"/>
+      <c r="A25" s="298"/>
+      <c r="B25" s="299"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="299"/>
+      <c r="F25" s="299"/>
+      <c r="G25" s="299"/>
+      <c r="H25" s="299"/>
+      <c r="I25" s="299"/>
+      <c r="J25" s="299"/>
+      <c r="K25" s="299"/>
+      <c r="L25" s="299"/>
+      <c r="M25" s="299"/>
+      <c r="N25" s="299"/>
+      <c r="O25" s="299"/>
+      <c r="P25" s="299"/>
+      <c r="Q25" s="299"/>
+      <c r="R25" s="299"/>
+      <c r="S25" s="299"/>
+      <c r="T25" s="299"/>
+      <c r="U25" s="299"/>
+      <c r="V25" s="299"/>
+      <c r="W25" s="299"/>
+      <c r="X25" s="300"/>
     </row>
     <row r="26" spans="1:28" s="179" customFormat="1" ht="12.75"/>
     <row r="27" spans="1:28" s="179" customFormat="1" ht="12.75"/>
@@ -53424,6 +53444,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:P10"/>
+    <mergeCell ref="Q10:R12"/>
+    <mergeCell ref="S10:T12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:P12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="Q13:R15"/>
+    <mergeCell ref="S13:T15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:P14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:P19"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:P20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:P18"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="A23:X23"/>
     <mergeCell ref="A25:X25"/>
     <mergeCell ref="W22:X22"/>
@@ -53440,84 +53538,6 @@
     <mergeCell ref="U10:V12"/>
     <mergeCell ref="U13:V15"/>
     <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:P18"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:P19"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:P20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:P13"/>
-    <mergeCell ref="Q13:R15"/>
-    <mergeCell ref="S13:T15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:P14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:P10"/>
-    <mergeCell ref="Q10:R12"/>
-    <mergeCell ref="S10:T12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:P12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0"/>

--- a/test/data/mps155_timezone_bug_validated.xlsx
+++ b/test/data/mps155_timezone_bug_validated.xlsx
@@ -1643,10 +1643,35 @@
     </r>
   </si>
   <si>
-    <t>Eingesandte Isolate können vom BfR auch für weitergehende Untersuchungen verwendet werden, z.B. für Ausbruchsuntersuchungen und zur Klärung wissenschaftlicher Fragestellungen.</t>
+    <t>V15</t>
   </si>
   <si>
-    <t>V15</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bitte beachten Sie die allgemeinen Bedingungen für den Austausch von Materialien – Vergabe an das BfR (Material Transfer-Bedingungen – Teil B (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.bfr.bund.de/cm/343/mt-bedingungen-teil-b.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -8495,74 +8520,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -8595,8 +8552,114 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8607,25 +8670,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8634,38 +8694,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8700,55 +8730,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8766,50 +8826,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -9841,7 +9866,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A32" sqref="A32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
@@ -9870,14 +9895,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21">
-      <c r="A1" t="s" s="238">
+      <c r="A1" t="s" s="221">
         <v>209</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
       <c r="G1" s="139"/>
       <c r="H1" s="139"/>
       <c r="I1" s="139"/>
@@ -9922,7 +9947,7 @@
         <v>88</v>
       </c>
       <c r="B3" t="s" s="141">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -9987,8 +10012,8 @@
       <c r="Q5" t="s" s="143">
         <v>48</v>
       </c>
-      <c r="R5" s="234"/>
-      <c r="S5" s="235"/>
+      <c r="R5" s="228"/>
+      <c r="S5" s="229"/>
       <c r="T5" t="s" s="130">
         <v>76</v>
       </c>
@@ -10015,10 +10040,10 @@
       <c r="Q6" t="s" s="143">
         <v>34</v>
       </c>
-      <c r="R6" t="s" s="236">
+      <c r="R6" t="s" s="219">
         <v>210</v>
       </c>
-      <c r="S6" s="237"/>
+      <c r="S6" s="220"/>
       <c r="T6" t="s" s="130">
         <v>77</v>
       </c>
@@ -10027,15 +10052,15 @@
       <c r="A7" t="s" s="144">
         <v>87</v>
       </c>
-      <c r="B7" t="s" s="243">
+      <c r="B7" t="s" s="226">
         <v>210</v>
       </c>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="243"/>
-      <c r="G7" s="243"/>
-      <c r="H7" s="243"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
       <c r="I7" s="140"/>
       <c r="J7" s="140"/>
       <c r="K7" s="140"/>
@@ -10156,27 +10181,27 @@
       </c>
     </row>
     <row r="12" spans="1:20" s="129" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" t="s" s="241">
+      <c r="A12" t="s" s="224">
         <v>3</v>
       </c>
-      <c r="B12" s="242"/>
-      <c r="C12" t="s" s="230">
+      <c r="B12" s="225"/>
+      <c r="C12" t="s" s="227">
         <v>210</v>
       </c>
-      <c r="D12" s="230"/>
-      <c r="E12" s="230"/>
-      <c r="F12" s="230"/>
-      <c r="G12" s="230"/>
-      <c r="H12" s="230"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="227"/>
       <c r="I12" s="168"/>
-      <c r="J12" t="s" s="227">
+      <c r="J12" t="s" s="237">
         <v>37</v>
       </c>
-      <c r="K12" s="228"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="228"/>
-      <c r="N12" s="228"/>
-      <c r="O12" s="229"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="239"/>
       <c r="P12" t="s" s="137">
         <v>210</v>
       </c>
@@ -10188,23 +10213,23 @@
       </c>
     </row>
     <row r="13" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="242"/>
-      <c r="B13" s="242"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="230"/>
-      <c r="E13" s="230"/>
-      <c r="F13" s="230"/>
-      <c r="G13" s="230"/>
-      <c r="H13" s="230"/>
+      <c r="A13" s="225"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="227"/>
       <c r="I13" s="168"/>
-      <c r="J13" t="s" s="224">
+      <c r="J13" t="s" s="230">
         <v>38</v>
       </c>
-      <c r="K13" s="225"/>
-      <c r="L13" s="225"/>
-      <c r="M13" s="225"/>
-      <c r="N13" s="225"/>
-      <c r="O13" s="226"/>
+      <c r="K13" s="231"/>
+      <c r="L13" s="231"/>
+      <c r="M13" s="231"/>
+      <c r="N13" s="231"/>
+      <c r="O13" s="232"/>
       <c r="P13" t="s" s="137">
         <v>210</v>
       </c>
@@ -10216,23 +10241,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="242"/>
-      <c r="B14" s="242"/>
-      <c r="C14" s="230"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="230"/>
-      <c r="F14" s="230"/>
-      <c r="G14" s="230"/>
-      <c r="H14" s="230"/>
+      <c r="A14" s="225"/>
+      <c r="B14" s="225"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="227"/>
+      <c r="E14" s="227"/>
+      <c r="F14" s="227"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="227"/>
       <c r="I14" s="168"/>
-      <c r="J14" t="s" s="221">
+      <c r="J14" t="s" s="233">
         <v>39</v>
       </c>
-      <c r="K14" s="222"/>
-      <c r="L14" s="222"/>
-      <c r="M14" s="222"/>
-      <c r="N14" s="222"/>
-      <c r="O14" s="223"/>
+      <c r="K14" s="234"/>
+      <c r="L14" s="234"/>
+      <c r="M14" s="234"/>
+      <c r="N14" s="234"/>
+      <c r="O14" s="235"/>
       <c r="P14" s="137"/>
       <c r="Q14" s="153"/>
       <c r="R14" s="153"/>
@@ -10242,27 +10267,27 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A15" t="s" s="240">
+      <c r="A15" t="s" s="223">
         <v>4</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" t="s" s="230">
+      <c r="B15" s="220"/>
+      <c r="C15" t="s" s="227">
         <v>210</v>
       </c>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="230"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="230"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="227"/>
+      <c r="F15" s="227"/>
+      <c r="G15" s="227"/>
+      <c r="H15" s="227"/>
       <c r="I15" s="168"/>
-      <c r="J15" t="s" s="221">
+      <c r="J15" t="s" s="233">
         <v>40</v>
       </c>
-      <c r="K15" s="222"/>
-      <c r="L15" s="222"/>
-      <c r="M15" s="222"/>
-      <c r="N15" s="222"/>
-      <c r="O15" s="223"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="234"/>
+      <c r="M15" s="234"/>
+      <c r="N15" s="234"/>
+      <c r="O15" s="235"/>
       <c r="P15" t="s" s="137">
         <v>210</v>
       </c>
@@ -10274,23 +10299,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="237"/>
-      <c r="B16" s="237"/>
-      <c r="C16" s="230"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="230"/>
-      <c r="G16" s="230"/>
-      <c r="H16" s="230"/>
+      <c r="A16" s="220"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="227"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="227"/>
       <c r="I16" s="168"/>
-      <c r="J16" t="s" s="221">
+      <c r="J16" t="s" s="233">
         <v>41</v>
       </c>
-      <c r="K16" s="222"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="222"/>
-      <c r="N16" s="222"/>
-      <c r="O16" s="223"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="234"/>
+      <c r="N16" s="234"/>
+      <c r="O16" s="235"/>
       <c r="P16" t="s" s="137">
         <v>210</v>
       </c>
@@ -10302,27 +10327,27 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A17" t="s" s="240">
+      <c r="A17" t="s" s="223">
         <v>5</v>
       </c>
-      <c r="B17" s="237"/>
-      <c r="C17" t="s" s="230">
+      <c r="B17" s="220"/>
+      <c r="C17" t="s" s="227">
         <v>210</v>
       </c>
-      <c r="D17" s="230"/>
-      <c r="E17" s="230"/>
-      <c r="F17" s="230"/>
-      <c r="G17" s="230"/>
-      <c r="H17" s="230"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="227"/>
+      <c r="F17" s="227"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="227"/>
       <c r="I17" s="168"/>
-      <c r="J17" t="s" s="221">
+      <c r="J17" t="s" s="233">
         <v>212</v>
       </c>
-      <c r="K17" s="222"/>
-      <c r="L17" s="222"/>
-      <c r="M17" s="222"/>
-      <c r="N17" s="222"/>
-      <c r="O17" s="223"/>
+      <c r="K17" s="234"/>
+      <c r="L17" s="234"/>
+      <c r="M17" s="234"/>
+      <c r="N17" s="234"/>
+      <c r="O17" s="235"/>
       <c r="P17" t="s" s="137">
         <v>210</v>
       </c>
@@ -10334,23 +10359,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="237"/>
-      <c r="B18" s="237"/>
-      <c r="C18" s="230"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="230"/>
-      <c r="F18" s="230"/>
-      <c r="G18" s="230"/>
-      <c r="H18" s="230"/>
+      <c r="A18" s="220"/>
+      <c r="B18" s="220"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="227"/>
+      <c r="E18" s="227"/>
+      <c r="F18" s="227"/>
+      <c r="G18" s="227"/>
+      <c r="H18" s="227"/>
       <c r="I18" s="168"/>
-      <c r="J18" t="s" s="224">
+      <c r="J18" t="s" s="230">
         <v>42</v>
       </c>
-      <c r="K18" s="225"/>
-      <c r="L18" s="225"/>
-      <c r="M18" s="225"/>
-      <c r="N18" s="225"/>
-      <c r="O18" s="226"/>
+      <c r="K18" s="231"/>
+      <c r="L18" s="231"/>
+      <c r="M18" s="231"/>
+      <c r="N18" s="231"/>
+      <c r="O18" s="232"/>
       <c r="P18" t="s" s="137">
         <v>210</v>
       </c>
@@ -10360,27 +10385,27 @@
       <c r="T18" s="132"/>
     </row>
     <row r="19" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A19" t="s" s="240">
+      <c r="A19" t="s" s="223">
         <v>6</v>
       </c>
-      <c r="B19" s="237"/>
-      <c r="C19" t="s" s="230">
+      <c r="B19" s="220"/>
+      <c r="C19" t="s" s="227">
         <v>210</v>
       </c>
-      <c r="D19" s="230"/>
-      <c r="E19" s="230"/>
-      <c r="F19" s="230"/>
-      <c r="G19" s="230"/>
-      <c r="H19" s="230"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="227"/>
       <c r="I19" s="168"/>
-      <c r="J19" t="s" s="224">
+      <c r="J19" t="s" s="230">
         <v>43</v>
       </c>
-      <c r="K19" s="225"/>
-      <c r="L19" s="225"/>
-      <c r="M19" s="225"/>
-      <c r="N19" s="225"/>
-      <c r="O19" s="226"/>
+      <c r="K19" s="231"/>
+      <c r="L19" s="231"/>
+      <c r="M19" s="231"/>
+      <c r="N19" s="231"/>
+      <c r="O19" s="232"/>
       <c r="P19" s="137"/>
       <c r="Q19" s="153"/>
       <c r="R19" s="153"/>
@@ -10388,27 +10413,27 @@
       <c r="T19" s="132"/>
     </row>
     <row r="20" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A20" t="s" s="240">
+      <c r="A20" t="s" s="223">
         <v>7</v>
       </c>
-      <c r="B20" s="237"/>
-      <c r="C20" t="s" s="230">
+      <c r="B20" s="220"/>
+      <c r="C20" t="s" s="227">
         <v>210</v>
       </c>
-      <c r="D20" s="230"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="230"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="227"/>
+      <c r="F20" s="227"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="227"/>
       <c r="I20" s="168"/>
-      <c r="J20" t="s" s="224">
+      <c r="J20" t="s" s="230">
         <v>70</v>
       </c>
-      <c r="K20" s="225"/>
-      <c r="L20" s="225"/>
-      <c r="M20" s="225"/>
-      <c r="N20" s="225"/>
-      <c r="O20" s="226"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="231"/>
+      <c r="M20" s="231"/>
+      <c r="N20" s="231"/>
+      <c r="O20" s="232"/>
       <c r="P20" t="s" s="137">
         <v>210</v>
       </c>
@@ -10420,27 +10445,27 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A21" t="s" s="240">
+      <c r="A21" t="s" s="223">
         <v>29</v>
       </c>
-      <c r="B21" s="237"/>
-      <c r="C21" t="s" s="230">
+      <c r="B21" s="220"/>
+      <c r="C21" t="s" s="227">
         <v>210</v>
       </c>
-      <c r="D21" s="230"/>
-      <c r="E21" s="230"/>
-      <c r="F21" s="230"/>
-      <c r="G21" s="230"/>
-      <c r="H21" s="230"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="227"/>
+      <c r="F21" s="227"/>
+      <c r="G21" s="227"/>
+      <c r="H21" s="227"/>
       <c r="I21" s="168"/>
-      <c r="J21" t="s" s="224">
+      <c r="J21" t="s" s="230">
         <v>71</v>
       </c>
-      <c r="K21" s="225"/>
-      <c r="L21" s="225"/>
-      <c r="M21" s="225"/>
-      <c r="N21" s="225"/>
-      <c r="O21" s="226"/>
+      <c r="K21" s="231"/>
+      <c r="L21" s="231"/>
+      <c r="M21" s="231"/>
+      <c r="N21" s="231"/>
+      <c r="O21" s="232"/>
       <c r="P21" t="s" s="137">
         <v>210</v>
       </c>
@@ -10452,27 +10477,27 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A22" t="s" s="240">
+      <c r="A22" t="s" s="223">
         <v>8</v>
       </c>
-      <c r="B22" s="237"/>
-      <c r="C22" t="s" s="230">
+      <c r="B22" s="220"/>
+      <c r="C22" t="s" s="227">
         <v>210</v>
       </c>
-      <c r="D22" s="230"/>
-      <c r="E22" s="230"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="230"/>
-      <c r="H22" s="230"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="227"/>
+      <c r="F22" s="227"/>
+      <c r="G22" s="227"/>
+      <c r="H22" s="227"/>
       <c r="I22" s="168"/>
-      <c r="J22" t="s" s="231">
+      <c r="J22" t="s" s="240">
         <v>210</v>
       </c>
-      <c r="K22" s="232"/>
-      <c r="L22" s="232"/>
-      <c r="M22" s="232"/>
-      <c r="N22" s="232"/>
-      <c r="O22" s="233"/>
+      <c r="K22" s="241"/>
+      <c r="L22" s="241"/>
+      <c r="M22" s="241"/>
+      <c r="N22" s="241"/>
+      <c r="O22" s="242"/>
       <c r="P22" s="135"/>
       <c r="Q22" s="153"/>
       <c r="R22" s="153"/>
@@ -10491,14 +10516,14 @@
       <c r="G23" s="140"/>
       <c r="H23" s="140"/>
       <c r="I23" s="140"/>
-      <c r="J23" t="s" s="231">
+      <c r="J23" t="s" s="240">
         <v>213</v>
       </c>
-      <c r="K23" s="232"/>
-      <c r="L23" s="232"/>
-      <c r="M23" s="232"/>
-      <c r="N23" s="232"/>
-      <c r="O23" s="233"/>
+      <c r="K23" s="241"/>
+      <c r="L23" s="241"/>
+      <c r="M23" s="241"/>
+      <c r="N23" s="241"/>
+      <c r="O23" s="242"/>
       <c r="P23" t="s" s="138">
         <v>210</v>
       </c>
@@ -10516,15 +10541,15 @@
       <c r="G24" s="140"/>
       <c r="H24" s="140"/>
       <c r="I24" s="140"/>
-      <c r="J24" t="s" s="231">
+      <c r="J24" t="s" s="240">
         <v>210</v>
       </c>
-      <c r="K24" s="232"/>
-      <c r="L24" s="232"/>
-      <c r="M24" s="232"/>
-      <c r="N24" s="232"/>
-      <c r="O24" s="232"/>
-      <c r="P24" s="233"/>
+      <c r="K24" s="241"/>
+      <c r="L24" s="241"/>
+      <c r="M24" s="241"/>
+      <c r="N24" s="241"/>
+      <c r="O24" s="241"/>
+      <c r="P24" s="242"/>
       <c r="Q24" s="153"/>
       <c r="R24" s="153"/>
       <c r="S24" s="153"/>
@@ -10572,12 +10597,12 @@
       <c r="S26" s="153"/>
     </row>
     <row r="27" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A27" t="s" s="236">
+      <c r="A27" t="s" s="219">
         <v>210</v>
       </c>
-      <c r="B27" s="237"/>
-      <c r="C27" s="237"/>
-      <c r="D27" s="237"/>
+      <c r="B27" s="220"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="220"/>
       <c r="E27" s="146"/>
       <c r="F27" s="146"/>
       <c r="G27" s="146"/>
@@ -10643,17 +10668,17 @@
       <c r="S29" s="140"/>
     </row>
     <row r="30" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A30" t="s" s="220">
+      <c r="A30" t="s" s="236">
         <v>204</v>
       </c>
-      <c r="B30" s="220"/>
-      <c r="C30" s="220"/>
-      <c r="D30" s="220"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="220"/>
+      <c r="B30" s="236"/>
+      <c r="C30" s="236"/>
+      <c r="D30" s="236"/>
+      <c r="E30" s="236"/>
+      <c r="F30" s="236"/>
+      <c r="G30" s="236"/>
+      <c r="H30" s="236"/>
+      <c r="I30" s="236"/>
       <c r="J30" s="160"/>
       <c r="K30" s="140"/>
       <c r="L30" s="140"/>
@@ -10666,8 +10691,8 @@
       <c r="S30" s="140"/>
     </row>
     <row r="31" spans="1:20" s="129" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A31" t="s" s="219">
-        <v>207</v>
+      <c r="A31" t="s" s="315">
+        <v>208</v>
       </c>
       <c r="B31" s="146"/>
       <c r="C31" s="146"/>
@@ -10689,10 +10714,10 @@
       <c r="S31" s="140"/>
     </row>
     <row r="32" spans="1:20" s="134" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="236"/>
-      <c r="B32" s="237"/>
-      <c r="C32" s="237"/>
-      <c r="D32" s="237"/>
+      <c r="A32" s="219"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="220"/>
+      <c r="D32" s="220"/>
       <c r="E32" s="146"/>
       <c r="F32" s="146"/>
       <c r="G32" s="146"/>
@@ -51087,6 +51112,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J16:O16"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A1:F1"/>
@@ -51103,24 +51146,6 @@
     <mergeCell ref="C17:H18"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="J21:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="3">
@@ -51136,11 +51161,12 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A30" r:id="rId1"/>
+    <hyperlink ref="A31" r:id="rId2" display="Bitte beachten Sie dazu die Allgemeinen Bedingungen für den Austausch von Materialien – Vergabe an das BfR (Material Transfer-Bedingungen – Teil B (https://www.bfr.bund.de/cm/343/mt-bedingungen-teil-b.pdf)"/>
   </hyperlinks>
   <pageMargins left="0.86614173228346458" right="0.35433070866141736" top="0.62992125984251968" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LDieses Formular wurde validiert durch OE-Mibi, AL-4 am 28.08.2020&amp;CMibi-SOP 059&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;LOE-Mibi-SOP-059_FB_A01_elektronischer Einsendebogen_V15 gültig ab 02.09.2020&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="40" max="16383" man="1"/>
@@ -51148,7 +51174,7 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="19" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -51255,179 +51281,179 @@
       <c r="A4" t="s" s="46">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="271">
+      <c r="B4" t="s" s="273">
         <v>10</v>
       </c>
-      <c r="C4" s="275"/>
-      <c r="D4" s="276"/>
-      <c r="E4" t="s" s="271">
+      <c r="C4" s="277"/>
+      <c r="D4" s="278"/>
+      <c r="E4" t="s" s="273">
         <v>11</v>
       </c>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="272"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="273"/>
-      <c r="Q4" t="s" s="250">
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="274"/>
+      <c r="J4" s="274"/>
+      <c r="K4" s="274"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="275"/>
+      <c r="Q4" t="s" s="281">
         <v>134</v>
       </c>
-      <c r="R4" s="257"/>
-      <c r="S4" t="s" s="250">
+      <c r="R4" s="285"/>
+      <c r="S4" t="s" s="281">
         <v>133</v>
       </c>
-      <c r="T4" s="251"/>
+      <c r="T4" s="282"/>
     </row>
     <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A5" t="s" s="52">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="277">
+      <c r="B5" t="s" s="279">
         <v>51</v>
       </c>
-      <c r="C5" s="278"/>
-      <c r="D5" s="278"/>
-      <c r="E5" t="s" s="268">
+      <c r="C5" s="280"/>
+      <c r="D5" s="280"/>
+      <c r="E5" t="s" s="270">
         <v>112</v>
       </c>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="269"/>
-      <c r="J5" s="269"/>
-      <c r="K5" s="269"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="270"/>
-      <c r="Q5" t="s" s="258">
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="271"/>
+      <c r="J5" s="271"/>
+      <c r="K5" s="271"/>
+      <c r="L5" s="271"/>
+      <c r="M5" s="271"/>
+      <c r="N5" s="271"/>
+      <c r="O5" s="271"/>
+      <c r="P5" s="272"/>
+      <c r="Q5" t="s" s="286">
         <v>92</v>
       </c>
-      <c r="R5" s="259"/>
-      <c r="S5" t="s" s="253">
+      <c r="R5" s="287"/>
+      <c r="S5" t="s" s="283">
         <v>92</v>
       </c>
-      <c r="T5" s="254"/>
+      <c r="T5" s="284"/>
     </row>
     <row r="6" spans="1:20" ht="33.950000000000003" customHeight="1">
       <c r="A6" t="s" s="47">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="248">
+      <c r="B6" t="s" s="256">
         <v>52</v>
       </c>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
-      <c r="E6" t="s" s="245">
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
+      <c r="E6" t="s" s="258">
         <v>282</v>
       </c>
-      <c r="F6" s="246"/>
-      <c r="G6" s="246"/>
-      <c r="H6" s="246"/>
-      <c r="I6" s="246"/>
-      <c r="J6" s="246"/>
-      <c r="K6" s="246"/>
-      <c r="L6" s="246"/>
-      <c r="M6" s="246"/>
-      <c r="N6" s="246"/>
-      <c r="O6" s="246"/>
-      <c r="P6" s="247"/>
-      <c r="Q6" s="260"/>
-      <c r="R6" s="261"/>
-      <c r="S6" t="s" s="255">
+      <c r="F6" s="259"/>
+      <c r="G6" s="259"/>
+      <c r="H6" s="259"/>
+      <c r="I6" s="259"/>
+      <c r="J6" s="259"/>
+      <c r="K6" s="259"/>
+      <c r="L6" s="259"/>
+      <c r="M6" s="259"/>
+      <c r="N6" s="259"/>
+      <c r="O6" s="259"/>
+      <c r="P6" s="260"/>
+      <c r="Q6" s="288"/>
+      <c r="R6" s="289"/>
+      <c r="S6" t="s" s="267">
         <v>92</v>
       </c>
-      <c r="T6" s="256"/>
+      <c r="T6" s="268"/>
     </row>
     <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A7" t="s" s="47">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="248">
+      <c r="B7" t="s" s="256">
         <v>115</v>
       </c>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
-      <c r="E7" t="s" s="274">
+      <c r="C7" s="257"/>
+      <c r="D7" s="257"/>
+      <c r="E7" t="s" s="276">
         <v>113</v>
       </c>
-      <c r="F7" s="274"/>
-      <c r="G7" s="274"/>
-      <c r="H7" s="274"/>
-      <c r="I7" s="274"/>
-      <c r="J7" s="274"/>
-      <c r="K7" s="274"/>
-      <c r="L7" s="274"/>
-      <c r="M7" s="274"/>
-      <c r="N7" s="274"/>
-      <c r="O7" s="274"/>
-      <c r="P7" s="274"/>
-      <c r="Q7" t="s" s="262">
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="276"/>
+      <c r="J7" s="276"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="276"/>
+      <c r="N7" s="276"/>
+      <c r="O7" s="276"/>
+      <c r="P7" s="276"/>
+      <c r="Q7" t="s" s="265">
         <v>114</v>
       </c>
-      <c r="R7" s="263"/>
-      <c r="S7" t="s" s="262">
+      <c r="R7" s="290"/>
+      <c r="S7" t="s" s="265">
         <v>114</v>
       </c>
-      <c r="T7" s="280"/>
+      <c r="T7" s="266"/>
     </row>
     <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A8" t="s" s="47">
         <v>15</v>
       </c>
-      <c r="B8" t="s" s="248">
+      <c r="B8" t="s" s="256">
         <v>116</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" t="s" s="274">
+      <c r="C8" s="257"/>
+      <c r="D8" s="257"/>
+      <c r="E8" t="s" s="276">
         <v>156</v>
       </c>
-      <c r="F8" s="274"/>
-      <c r="G8" s="274"/>
-      <c r="H8" s="274"/>
-      <c r="I8" s="274"/>
-      <c r="J8" s="274"/>
-      <c r="K8" s="274"/>
-      <c r="L8" s="274"/>
-      <c r="M8" s="274"/>
-      <c r="N8" s="274"/>
-      <c r="O8" s="274"/>
-      <c r="P8" s="274"/>
-      <c r="Q8" s="255"/>
-      <c r="R8" s="264"/>
-      <c r="S8" s="255"/>
-      <c r="T8" s="256"/>
+      <c r="F8" s="276"/>
+      <c r="G8" s="276"/>
+      <c r="H8" s="276"/>
+      <c r="I8" s="276"/>
+      <c r="J8" s="276"/>
+      <c r="K8" s="276"/>
+      <c r="L8" s="276"/>
+      <c r="M8" s="276"/>
+      <c r="N8" s="276"/>
+      <c r="O8" s="276"/>
+      <c r="P8" s="276"/>
+      <c r="Q8" s="267"/>
+      <c r="R8" s="291"/>
+      <c r="S8" s="267"/>
+      <c r="T8" s="268"/>
     </row>
     <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A9" t="s" s="47">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="248">
+      <c r="B9" t="s" s="256">
         <v>2</v>
       </c>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
-      <c r="E9" t="s" s="245">
+      <c r="C9" s="257"/>
+      <c r="D9" s="257"/>
+      <c r="E9" t="s" s="258">
         <v>57</v>
       </c>
-      <c r="F9" s="246"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="246"/>
-      <c r="M9" s="246"/>
-      <c r="N9" s="246"/>
-      <c r="O9" s="246"/>
-      <c r="P9" s="247"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="259"/>
+      <c r="H9" s="259"/>
+      <c r="I9" s="259"/>
+      <c r="J9" s="259"/>
+      <c r="K9" s="259"/>
+      <c r="L9" s="259"/>
+      <c r="M9" s="259"/>
+      <c r="N9" s="259"/>
+      <c r="O9" s="259"/>
+      <c r="P9" s="260"/>
       <c r="Q9" t="s" s="244">
         <v>92</v>
       </c>
@@ -51435,147 +51461,147 @@
       <c r="S9" t="s" s="244">
         <v>92</v>
       </c>
-      <c r="T9" s="252"/>
+      <c r="T9" s="245"/>
     </row>
     <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A10" t="s" s="47">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="248">
+      <c r="B10" t="s" s="256">
         <v>1</v>
       </c>
-      <c r="C10" s="249"/>
-      <c r="D10" s="249"/>
-      <c r="E10" t="s" s="245">
+      <c r="C10" s="257"/>
+      <c r="D10" s="257"/>
+      <c r="E10" t="s" s="258">
         <v>157</v>
       </c>
-      <c r="F10" s="246"/>
-      <c r="G10" s="246"/>
-      <c r="H10" s="246"/>
-      <c r="I10" s="246"/>
-      <c r="J10" s="246"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="246"/>
-      <c r="M10" s="246"/>
-      <c r="N10" s="246"/>
-      <c r="O10" s="246"/>
-      <c r="P10" s="247"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="259"/>
+      <c r="J10" s="259"/>
+      <c r="K10" s="259"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="259"/>
+      <c r="N10" s="259"/>
+      <c r="O10" s="259"/>
+      <c r="P10" s="260"/>
       <c r="Q10" s="244"/>
       <c r="R10" s="244"/>
       <c r="S10" t="s" s="244">
         <v>92</v>
       </c>
-      <c r="T10" s="252"/>
+      <c r="T10" s="245"/>
     </row>
     <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A11" t="s" s="47">
         <v>18</v>
       </c>
-      <c r="B11" t="s" s="248">
+      <c r="B11" t="s" s="256">
         <v>283</v>
       </c>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
-      <c r="E11" t="s" s="245">
+      <c r="C11" s="257"/>
+      <c r="D11" s="257"/>
+      <c r="E11" t="s" s="258">
         <v>58</v>
       </c>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="246"/>
-      <c r="K11" s="246"/>
-      <c r="L11" s="246"/>
-      <c r="M11" s="246"/>
-      <c r="N11" s="246"/>
-      <c r="O11" s="246"/>
-      <c r="P11" s="247"/>
+      <c r="F11" s="259"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="259"/>
+      <c r="J11" s="259"/>
+      <c r="K11" s="259"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="259"/>
+      <c r="N11" s="259"/>
+      <c r="O11" s="259"/>
+      <c r="P11" s="260"/>
       <c r="Q11" s="244"/>
       <c r="R11" s="244"/>
       <c r="S11" t="s" s="244">
         <v>284</v>
       </c>
-      <c r="T11" s="252"/>
+      <c r="T11" s="245"/>
     </row>
     <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A12" t="s" s="47">
         <v>19</v>
       </c>
-      <c r="B12" t="s" s="248">
+      <c r="B12" t="s" s="256">
         <v>66</v>
       </c>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" t="s" s="245">
+      <c r="C12" s="257"/>
+      <c r="D12" s="257"/>
+      <c r="E12" t="s" s="258">
         <v>131</v>
       </c>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
-      <c r="J12" s="246"/>
-      <c r="K12" s="246"/>
-      <c r="L12" s="246"/>
-      <c r="M12" s="246"/>
-      <c r="N12" s="246"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="247"/>
+      <c r="F12" s="259"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="259"/>
+      <c r="I12" s="259"/>
+      <c r="J12" s="259"/>
+      <c r="K12" s="259"/>
+      <c r="L12" s="259"/>
+      <c r="M12" s="259"/>
+      <c r="N12" s="259"/>
+      <c r="O12" s="259"/>
+      <c r="P12" s="260"/>
       <c r="Q12" s="244"/>
       <c r="R12" s="244"/>
       <c r="S12" s="244"/>
-      <c r="T12" s="252"/>
+      <c r="T12" s="245"/>
     </row>
     <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A13" t="s" s="47">
         <v>20</v>
       </c>
-      <c r="B13" t="s" s="248">
+      <c r="B13" t="s" s="256">
         <v>67</v>
       </c>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" t="s" s="245">
+      <c r="C13" s="257"/>
+      <c r="D13" s="257"/>
+      <c r="E13" t="s" s="258">
         <v>72</v>
       </c>
-      <c r="F13" s="246"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="246"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="246"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="247"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="259"/>
+      <c r="J13" s="259"/>
+      <c r="K13" s="259"/>
+      <c r="L13" s="259"/>
+      <c r="M13" s="259"/>
+      <c r="N13" s="259"/>
+      <c r="O13" s="259"/>
+      <c r="P13" s="260"/>
       <c r="Q13" s="244"/>
       <c r="R13" s="244"/>
       <c r="S13" s="244"/>
-      <c r="T13" s="252"/>
+      <c r="T13" s="245"/>
     </row>
     <row r="14" spans="1:20" ht="51" customHeight="1">
       <c r="A14" t="s" s="47">
         <v>21</v>
       </c>
-      <c r="B14" t="s" s="279">
+      <c r="B14" t="s" s="269">
         <v>285</v>
       </c>
-      <c r="C14" s="249"/>
-      <c r="D14" s="249"/>
-      <c r="E14" t="s" s="245">
+      <c r="C14" s="257"/>
+      <c r="D14" s="257"/>
+      <c r="E14" t="s" s="258">
         <v>132</v>
       </c>
-      <c r="F14" s="246"/>
-      <c r="G14" s="246"/>
-      <c r="H14" s="246"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="246"/>
-      <c r="K14" s="246"/>
-      <c r="L14" s="246"/>
-      <c r="M14" s="246"/>
-      <c r="N14" s="246"/>
-      <c r="O14" s="246"/>
-      <c r="P14" s="247"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="259"/>
+      <c r="I14" s="259"/>
+      <c r="J14" s="259"/>
+      <c r="K14" s="259"/>
+      <c r="L14" s="259"/>
+      <c r="M14" s="259"/>
+      <c r="N14" s="259"/>
+      <c r="O14" s="259"/>
+      <c r="P14" s="260"/>
       <c r="Q14" t="s" s="244">
         <v>286</v>
       </c>
@@ -51583,267 +51609,267 @@
       <c r="S14" t="s" s="244">
         <v>286</v>
       </c>
-      <c r="T14" s="252"/>
+      <c r="T14" s="245"/>
     </row>
     <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A15" t="s" s="47">
         <v>22</v>
       </c>
-      <c r="B15" t="s" s="248">
+      <c r="B15" t="s" s="256">
         <v>287</v>
       </c>
-      <c r="C15" s="249"/>
-      <c r="D15" s="249"/>
-      <c r="E15" t="s" s="245">
+      <c r="C15" s="257"/>
+      <c r="D15" s="257"/>
+      <c r="E15" t="s" s="258">
         <v>30</v>
       </c>
-      <c r="F15" s="246"/>
-      <c r="G15" s="246"/>
-      <c r="H15" s="246"/>
-      <c r="I15" s="246"/>
-      <c r="J15" s="246"/>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
-      <c r="M15" s="246"/>
-      <c r="N15" s="246"/>
-      <c r="O15" s="246"/>
-      <c r="P15" s="247"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="259"/>
+      <c r="H15" s="259"/>
+      <c r="I15" s="259"/>
+      <c r="J15" s="259"/>
+      <c r="K15" s="259"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="259"/>
+      <c r="N15" s="259"/>
+      <c r="O15" s="259"/>
+      <c r="P15" s="260"/>
       <c r="Q15" s="244"/>
       <c r="R15" s="244"/>
       <c r="S15" s="244"/>
-      <c r="T15" s="252"/>
+      <c r="T15" s="245"/>
     </row>
     <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A16" t="s" s="47">
         <v>23</v>
       </c>
-      <c r="B16" t="s" s="248">
+      <c r="B16" t="s" s="256">
         <v>59</v>
       </c>
-      <c r="C16" s="249"/>
-      <c r="D16" s="249"/>
-      <c r="E16" t="s" s="245">
+      <c r="C16" s="257"/>
+      <c r="D16" s="257"/>
+      <c r="E16" t="s" s="258">
         <v>154</v>
       </c>
-      <c r="F16" s="246"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="246"/>
-      <c r="I16" s="246"/>
-      <c r="J16" s="246"/>
-      <c r="K16" s="246"/>
-      <c r="L16" s="246"/>
-      <c r="M16" s="246"/>
-      <c r="N16" s="246"/>
-      <c r="O16" s="246"/>
-      <c r="P16" s="247"/>
+      <c r="F16" s="259"/>
+      <c r="G16" s="259"/>
+      <c r="H16" s="259"/>
+      <c r="I16" s="259"/>
+      <c r="J16" s="259"/>
+      <c r="K16" s="259"/>
+      <c r="L16" s="259"/>
+      <c r="M16" s="259"/>
+      <c r="N16" s="259"/>
+      <c r="O16" s="259"/>
+      <c r="P16" s="260"/>
       <c r="Q16" s="244"/>
       <c r="R16" s="244"/>
       <c r="S16" s="244"/>
-      <c r="T16" s="252"/>
+      <c r="T16" s="245"/>
     </row>
     <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A17" t="s" s="47">
         <v>25</v>
       </c>
-      <c r="B17" t="s" s="248">
+      <c r="B17" t="s" s="256">
         <v>288</v>
       </c>
-      <c r="C17" s="248"/>
-      <c r="D17" s="248"/>
-      <c r="E17" t="s" s="245">
+      <c r="C17" s="256"/>
+      <c r="D17" s="256"/>
+      <c r="E17" t="s" s="258">
         <v>289</v>
       </c>
-      <c r="F17" s="246"/>
-      <c r="G17" s="246"/>
-      <c r="H17" s="246"/>
-      <c r="I17" s="246"/>
-      <c r="J17" s="246"/>
-      <c r="K17" s="246"/>
-      <c r="L17" s="246"/>
-      <c r="M17" s="246"/>
-      <c r="N17" s="246"/>
-      <c r="O17" s="246"/>
-      <c r="P17" s="247"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="259"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="259"/>
+      <c r="M17" s="259"/>
+      <c r="N17" s="259"/>
+      <c r="O17" s="259"/>
+      <c r="P17" s="260"/>
       <c r="Q17" s="244"/>
       <c r="R17" s="244"/>
       <c r="S17" t="s" s="244">
         <v>290</v>
       </c>
-      <c r="T17" s="252"/>
+      <c r="T17" s="245"/>
     </row>
     <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A18" t="s" s="47">
         <v>61</v>
       </c>
-      <c r="B18" t="s" s="248">
+      <c r="B18" t="s" s="256">
         <v>291</v>
       </c>
-      <c r="C18" s="249"/>
-      <c r="D18" s="249"/>
-      <c r="E18" t="s" s="245">
+      <c r="C18" s="257"/>
+      <c r="D18" s="257"/>
+      <c r="E18" t="s" s="258">
         <v>186</v>
       </c>
-      <c r="F18" s="246"/>
-      <c r="G18" s="246"/>
-      <c r="H18" s="246"/>
-      <c r="I18" s="246"/>
-      <c r="J18" s="246"/>
-      <c r="K18" s="246"/>
-      <c r="L18" s="246"/>
-      <c r="M18" s="246"/>
-      <c r="N18" s="246"/>
-      <c r="O18" s="246"/>
-      <c r="P18" s="247"/>
+      <c r="F18" s="259"/>
+      <c r="G18" s="259"/>
+      <c r="H18" s="259"/>
+      <c r="I18" s="259"/>
+      <c r="J18" s="259"/>
+      <c r="K18" s="259"/>
+      <c r="L18" s="259"/>
+      <c r="M18" s="259"/>
+      <c r="N18" s="259"/>
+      <c r="O18" s="259"/>
+      <c r="P18" s="260"/>
       <c r="Q18" s="244"/>
       <c r="R18" s="244"/>
       <c r="S18" t="s" s="244">
         <v>292</v>
       </c>
-      <c r="T18" s="252"/>
+      <c r="T18" s="245"/>
     </row>
     <row r="19" spans="1:20" ht="33.950000000000003" customHeight="1">
       <c r="A19" t="s" s="47">
         <v>62</v>
       </c>
-      <c r="B19" t="s" s="265">
+      <c r="B19" t="s" s="292">
         <v>158</v>
       </c>
-      <c r="C19" s="266"/>
-      <c r="D19" s="267"/>
-      <c r="E19" t="s" s="245">
+      <c r="C19" s="293"/>
+      <c r="D19" s="294"/>
+      <c r="E19" t="s" s="258">
         <v>195</v>
       </c>
-      <c r="F19" s="246"/>
-      <c r="G19" s="246"/>
-      <c r="H19" s="246"/>
-      <c r="I19" s="246"/>
-      <c r="J19" s="246"/>
-      <c r="K19" s="246"/>
-      <c r="L19" s="246"/>
-      <c r="M19" s="246"/>
-      <c r="N19" s="246"/>
-      <c r="O19" s="246"/>
-      <c r="P19" s="247"/>
+      <c r="F19" s="259"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="259"/>
+      <c r="I19" s="259"/>
+      <c r="J19" s="259"/>
+      <c r="K19" s="259"/>
+      <c r="L19" s="259"/>
+      <c r="M19" s="259"/>
+      <c r="N19" s="259"/>
+      <c r="O19" s="259"/>
+      <c r="P19" s="260"/>
       <c r="Q19" s="244"/>
       <c r="R19" s="244"/>
       <c r="S19" s="244"/>
-      <c r="T19" s="252"/>
+      <c r="T19" s="245"/>
     </row>
     <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A20" t="s" s="47">
         <v>63</v>
       </c>
-      <c r="B20" t="s" s="248">
+      <c r="B20" t="s" s="256">
         <v>293</v>
       </c>
-      <c r="C20" s="249"/>
-      <c r="D20" s="249"/>
-      <c r="E20" t="s" s="245">
+      <c r="C20" s="257"/>
+      <c r="D20" s="257"/>
+      <c r="E20" t="s" s="258">
         <v>24</v>
       </c>
-      <c r="F20" s="246"/>
-      <c r="G20" s="246"/>
-      <c r="H20" s="246"/>
-      <c r="I20" s="246"/>
-      <c r="J20" s="246"/>
-      <c r="K20" s="246"/>
-      <c r="L20" s="246"/>
-      <c r="M20" s="246"/>
-      <c r="N20" s="246"/>
-      <c r="O20" s="246"/>
-      <c r="P20" s="247"/>
+      <c r="F20" s="259"/>
+      <c r="G20" s="259"/>
+      <c r="H20" s="259"/>
+      <c r="I20" s="259"/>
+      <c r="J20" s="259"/>
+      <c r="K20" s="259"/>
+      <c r="L20" s="259"/>
+      <c r="M20" s="259"/>
+      <c r="N20" s="259"/>
+      <c r="O20" s="259"/>
+      <c r="P20" s="260"/>
       <c r="Q20" s="244"/>
       <c r="R20" s="244"/>
       <c r="S20" t="s" s="244">
         <v>292</v>
       </c>
-      <c r="T20" s="252"/>
+      <c r="T20" s="245"/>
     </row>
     <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A21" t="s" s="47">
         <v>68</v>
       </c>
-      <c r="B21" t="s" s="248">
+      <c r="B21" t="s" s="256">
         <v>159</v>
       </c>
-      <c r="C21" s="249"/>
-      <c r="D21" s="249"/>
-      <c r="E21" t="s" s="245">
+      <c r="C21" s="257"/>
+      <c r="D21" s="257"/>
+      <c r="E21" t="s" s="258">
         <v>155</v>
       </c>
-      <c r="F21" s="246"/>
-      <c r="G21" s="246"/>
-      <c r="H21" s="246"/>
-      <c r="I21" s="246"/>
-      <c r="J21" s="246"/>
-      <c r="K21" s="246"/>
-      <c r="L21" s="246"/>
-      <c r="M21" s="246"/>
-      <c r="N21" s="246"/>
-      <c r="O21" s="246"/>
-      <c r="P21" s="247"/>
+      <c r="F21" s="259"/>
+      <c r="G21" s="259"/>
+      <c r="H21" s="259"/>
+      <c r="I21" s="259"/>
+      <c r="J21" s="259"/>
+      <c r="K21" s="259"/>
+      <c r="L21" s="259"/>
+      <c r="M21" s="259"/>
+      <c r="N21" s="259"/>
+      <c r="O21" s="259"/>
+      <c r="P21" s="260"/>
       <c r="Q21" s="244"/>
       <c r="R21" s="244"/>
       <c r="S21" s="244"/>
-      <c r="T21" s="252"/>
+      <c r="T21" s="245"/>
     </row>
     <row r="22" spans="1:20" ht="42" customHeight="1">
       <c r="A22" t="s" s="48">
         <v>74</v>
       </c>
-      <c r="B22" t="s" s="288">
+      <c r="B22" t="s" s="246">
         <v>95</v>
       </c>
-      <c r="C22" s="289"/>
-      <c r="D22" s="290"/>
-      <c r="E22" t="s" s="245">
+      <c r="C22" s="247"/>
+      <c r="D22" s="248"/>
+      <c r="E22" t="s" s="258">
         <v>199</v>
       </c>
-      <c r="F22" s="246"/>
-      <c r="G22" s="246"/>
-      <c r="H22" s="246"/>
-      <c r="I22" s="246"/>
-      <c r="J22" s="246"/>
-      <c r="K22" s="246"/>
-      <c r="L22" s="246"/>
-      <c r="M22" s="246"/>
-      <c r="N22" s="246"/>
-      <c r="O22" s="246"/>
-      <c r="P22" s="247"/>
+      <c r="F22" s="259"/>
+      <c r="G22" s="259"/>
+      <c r="H22" s="259"/>
+      <c r="I22" s="259"/>
+      <c r="J22" s="259"/>
+      <c r="K22" s="259"/>
+      <c r="L22" s="259"/>
+      <c r="M22" s="259"/>
+      <c r="N22" s="259"/>
+      <c r="O22" s="259"/>
+      <c r="P22" s="260"/>
       <c r="Q22" s="244"/>
       <c r="R22" s="244"/>
       <c r="S22" t="s" s="244">
         <v>290</v>
       </c>
-      <c r="T22" s="252"/>
+      <c r="T22" s="245"/>
     </row>
     <row r="23" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
       <c r="A23" t="s" s="49">
         <v>96</v>
       </c>
-      <c r="B23" t="s" s="285">
+      <c r="B23" t="s" s="263">
         <v>0</v>
       </c>
-      <c r="C23" s="286"/>
-      <c r="D23" s="286"/>
-      <c r="E23" t="s" s="293">
+      <c r="C23" s="264"/>
+      <c r="D23" s="264"/>
+      <c r="E23" t="s" s="252">
         <v>294</v>
       </c>
-      <c r="F23" s="294"/>
-      <c r="G23" s="294"/>
-      <c r="H23" s="294"/>
-      <c r="I23" s="294"/>
-      <c r="J23" s="294"/>
-      <c r="K23" s="294"/>
-      <c r="L23" s="294"/>
-      <c r="M23" s="294"/>
-      <c r="N23" s="294"/>
-      <c r="O23" s="294"/>
-      <c r="P23" s="295"/>
-      <c r="Q23" s="291"/>
-      <c r="R23" s="292"/>
-      <c r="S23" s="283"/>
-      <c r="T23" s="284"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="253"/>
+      <c r="L23" s="253"/>
+      <c r="M23" s="253"/>
+      <c r="N23" s="253"/>
+      <c r="O23" s="253"/>
+      <c r="P23" s="254"/>
+      <c r="Q23" s="250"/>
+      <c r="R23" s="251"/>
+      <c r="S23" s="261"/>
+      <c r="T23" s="262"/>
     </row>
     <row r="24" spans="1:20" s="71" customFormat="1" ht="3" customHeight="1">
       <c r="A24" s="172"/>
@@ -51892,28 +51918,28 @@
       <c r="T25" s="172"/>
     </row>
     <row r="26" spans="1:20" s="71" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A26" t="s" s="287">
+      <c r="A26" t="s" s="243">
         <v>193</v>
       </c>
-      <c r="B26" s="287"/>
-      <c r="C26" s="287"/>
-      <c r="D26" s="287"/>
-      <c r="E26" s="287"/>
-      <c r="F26" s="287"/>
-      <c r="G26" s="287"/>
-      <c r="H26" s="287"/>
-      <c r="I26" s="287"/>
-      <c r="J26" s="287"/>
-      <c r="K26" s="287"/>
-      <c r="L26" s="287"/>
-      <c r="M26" s="287"/>
-      <c r="N26" s="287"/>
-      <c r="O26" s="287"/>
-      <c r="P26" s="287"/>
-      <c r="Q26" s="287"/>
-      <c r="R26" s="287"/>
-      <c r="S26" s="287"/>
-      <c r="T26" s="287"/>
+      <c r="B26" s="243"/>
+      <c r="C26" s="243"/>
+      <c r="D26" s="243"/>
+      <c r="E26" s="243"/>
+      <c r="F26" s="243"/>
+      <c r="G26" s="243"/>
+      <c r="H26" s="243"/>
+      <c r="I26" s="243"/>
+      <c r="J26" s="243"/>
+      <c r="K26" s="243"/>
+      <c r="L26" s="243"/>
+      <c r="M26" s="243"/>
+      <c r="N26" s="243"/>
+      <c r="O26" s="243"/>
+      <c r="P26" s="243"/>
+      <c r="Q26" s="243"/>
+      <c r="R26" s="243"/>
+      <c r="S26" s="243"/>
+      <c r="T26" s="243"/>
     </row>
     <row r="27" spans="1:20" s="71" customFormat="1" ht="3" customHeight="1">
       <c r="A27" s="172"/>
@@ -52250,148 +52276,148 @@
       <c r="T35" s="170"/>
     </row>
     <row r="36" spans="1:20" s="72" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A36" t="s" s="282">
+      <c r="A36" t="s" s="255">
         <v>309</v>
       </c>
-      <c r="B36" s="282"/>
-      <c r="C36" s="282"/>
-      <c r="D36" s="282"/>
-      <c r="E36" s="282"/>
-      <c r="F36" s="282"/>
-      <c r="G36" s="282"/>
-      <c r="H36" s="282"/>
-      <c r="I36" s="282"/>
-      <c r="J36" s="282"/>
-      <c r="K36" s="282"/>
-      <c r="L36" s="282"/>
-      <c r="M36" s="282"/>
-      <c r="N36" s="282"/>
-      <c r="O36" s="282"/>
-      <c r="P36" s="282"/>
-      <c r="Q36" s="282"/>
-      <c r="R36" s="282"/>
-      <c r="S36" s="282"/>
-      <c r="T36" s="282"/>
+      <c r="B36" s="255"/>
+      <c r="C36" s="255"/>
+      <c r="D36" s="255"/>
+      <c r="E36" s="255"/>
+      <c r="F36" s="255"/>
+      <c r="G36" s="255"/>
+      <c r="H36" s="255"/>
+      <c r="I36" s="255"/>
+      <c r="J36" s="255"/>
+      <c r="K36" s="255"/>
+      <c r="L36" s="255"/>
+      <c r="M36" s="255"/>
+      <c r="N36" s="255"/>
+      <c r="O36" s="255"/>
+      <c r="P36" s="255"/>
+      <c r="Q36" s="255"/>
+      <c r="R36" s="255"/>
+      <c r="S36" s="255"/>
+      <c r="T36" s="255"/>
     </row>
     <row r="37" spans="1:20" s="72" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A37" t="s" s="281">
+      <c r="A37" t="s" s="249">
         <v>310</v>
       </c>
-      <c r="B37" s="281"/>
-      <c r="C37" s="281"/>
-      <c r="D37" s="281"/>
-      <c r="E37" s="281"/>
-      <c r="F37" s="281"/>
-      <c r="G37" s="281"/>
-      <c r="H37" s="281"/>
-      <c r="I37" s="281"/>
-      <c r="J37" s="281"/>
-      <c r="K37" s="281"/>
-      <c r="L37" s="281"/>
-      <c r="M37" s="281"/>
-      <c r="N37" s="281"/>
-      <c r="O37" s="281"/>
-      <c r="P37" s="281"/>
-      <c r="Q37" s="281"/>
-      <c r="R37" s="281"/>
-      <c r="S37" s="281"/>
-      <c r="T37" s="281"/>
+      <c r="B37" s="249"/>
+      <c r="C37" s="249"/>
+      <c r="D37" s="249"/>
+      <c r="E37" s="249"/>
+      <c r="F37" s="249"/>
+      <c r="G37" s="249"/>
+      <c r="H37" s="249"/>
+      <c r="I37" s="249"/>
+      <c r="J37" s="249"/>
+      <c r="K37" s="249"/>
+      <c r="L37" s="249"/>
+      <c r="M37" s="249"/>
+      <c r="N37" s="249"/>
+      <c r="O37" s="249"/>
+      <c r="P37" s="249"/>
+      <c r="Q37" s="249"/>
+      <c r="R37" s="249"/>
+      <c r="S37" s="249"/>
+      <c r="T37" s="249"/>
     </row>
     <row r="38" spans="1:20" s="72" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A38" t="s" s="281">
+      <c r="A38" t="s" s="249">
         <v>91</v>
       </c>
-      <c r="B38" s="281"/>
-      <c r="C38" s="281"/>
-      <c r="D38" s="281"/>
-      <c r="E38" s="281"/>
-      <c r="F38" s="281"/>
-      <c r="G38" s="281"/>
-      <c r="H38" s="281"/>
-      <c r="I38" s="281"/>
-      <c r="J38" s="281"/>
-      <c r="K38" s="281"/>
-      <c r="L38" s="281"/>
-      <c r="M38" s="281"/>
-      <c r="N38" s="281"/>
-      <c r="O38" s="281"/>
-      <c r="P38" s="281"/>
-      <c r="Q38" s="281"/>
-      <c r="R38" s="281"/>
-      <c r="S38" s="281"/>
-      <c r="T38" s="281"/>
+      <c r="B38" s="249"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="249"/>
+      <c r="F38" s="249"/>
+      <c r="G38" s="249"/>
+      <c r="H38" s="249"/>
+      <c r="I38" s="249"/>
+      <c r="J38" s="249"/>
+      <c r="K38" s="249"/>
+      <c r="L38" s="249"/>
+      <c r="M38" s="249"/>
+      <c r="N38" s="249"/>
+      <c r="O38" s="249"/>
+      <c r="P38" s="249"/>
+      <c r="Q38" s="249"/>
+      <c r="R38" s="249"/>
+      <c r="S38" s="249"/>
+      <c r="T38" s="249"/>
     </row>
     <row r="39" spans="1:20" s="72" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A39" t="s" s="281">
+      <c r="A39" t="s" s="249">
         <v>203</v>
       </c>
-      <c r="B39" s="281"/>
-      <c r="C39" s="281"/>
-      <c r="D39" s="281"/>
-      <c r="E39" s="281"/>
-      <c r="F39" s="281"/>
-      <c r="G39" s="281"/>
-      <c r="H39" s="281"/>
-      <c r="I39" s="281"/>
-      <c r="J39" s="281"/>
-      <c r="K39" s="281"/>
-      <c r="L39" s="281"/>
-      <c r="M39" s="281"/>
-      <c r="N39" s="281"/>
-      <c r="O39" s="281"/>
-      <c r="P39" s="281"/>
-      <c r="Q39" s="281"/>
-      <c r="R39" s="281"/>
-      <c r="S39" s="281"/>
-      <c r="T39" s="281"/>
+      <c r="B39" s="249"/>
+      <c r="C39" s="249"/>
+      <c r="D39" s="249"/>
+      <c r="E39" s="249"/>
+      <c r="F39" s="249"/>
+      <c r="G39" s="249"/>
+      <c r="H39" s="249"/>
+      <c r="I39" s="249"/>
+      <c r="J39" s="249"/>
+      <c r="K39" s="249"/>
+      <c r="L39" s="249"/>
+      <c r="M39" s="249"/>
+      <c r="N39" s="249"/>
+      <c r="O39" s="249"/>
+      <c r="P39" s="249"/>
+      <c r="Q39" s="249"/>
+      <c r="R39" s="249"/>
+      <c r="S39" s="249"/>
+      <c r="T39" s="249"/>
     </row>
     <row r="40" spans="1:20" s="72" customFormat="1" ht="24" customHeight="1">
-      <c r="A40" t="s" s="281">
+      <c r="A40" t="s" s="249">
         <v>198</v>
       </c>
-      <c r="B40" s="281"/>
-      <c r="C40" s="281"/>
-      <c r="D40" s="281"/>
-      <c r="E40" s="281"/>
-      <c r="F40" s="281"/>
-      <c r="G40" s="281"/>
-      <c r="H40" s="281"/>
-      <c r="I40" s="281"/>
-      <c r="J40" s="281"/>
-      <c r="K40" s="281"/>
-      <c r="L40" s="281"/>
-      <c r="M40" s="281"/>
-      <c r="N40" s="281"/>
-      <c r="O40" s="281"/>
-      <c r="P40" s="281"/>
-      <c r="Q40" s="281"/>
-      <c r="R40" s="281"/>
-      <c r="S40" s="281"/>
-      <c r="T40" s="281"/>
+      <c r="B40" s="249"/>
+      <c r="C40" s="249"/>
+      <c r="D40" s="249"/>
+      <c r="E40" s="249"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="249"/>
+      <c r="H40" s="249"/>
+      <c r="I40" s="249"/>
+      <c r="J40" s="249"/>
+      <c r="K40" s="249"/>
+      <c r="L40" s="249"/>
+      <c r="M40" s="249"/>
+      <c r="N40" s="249"/>
+      <c r="O40" s="249"/>
+      <c r="P40" s="249"/>
+      <c r="Q40" s="249"/>
+      <c r="R40" s="249"/>
+      <c r="S40" s="249"/>
+      <c r="T40" s="249"/>
     </row>
     <row r="41" spans="1:20" s="72" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A41" t="s" s="281">
+      <c r="A41" t="s" s="249">
         <v>311</v>
       </c>
-      <c r="B41" s="281"/>
-      <c r="C41" s="281"/>
-      <c r="D41" s="281"/>
-      <c r="E41" s="281"/>
-      <c r="F41" s="281"/>
-      <c r="G41" s="281"/>
-      <c r="H41" s="281"/>
-      <c r="I41" s="281"/>
-      <c r="J41" s="281"/>
-      <c r="K41" s="281"/>
-      <c r="L41" s="281"/>
-      <c r="M41" s="281"/>
-      <c r="N41" s="281"/>
-      <c r="O41" s="281"/>
-      <c r="P41" s="281"/>
-      <c r="Q41" s="281"/>
-      <c r="R41" s="281"/>
-      <c r="S41" s="281"/>
-      <c r="T41" s="281"/>
+      <c r="B41" s="249"/>
+      <c r="C41" s="249"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
+      <c r="F41" s="249"/>
+      <c r="G41" s="249"/>
+      <c r="H41" s="249"/>
+      <c r="I41" s="249"/>
+      <c r="J41" s="249"/>
+      <c r="K41" s="249"/>
+      <c r="L41" s="249"/>
+      <c r="M41" s="249"/>
+      <c r="N41" s="249"/>
+      <c r="O41" s="249"/>
+      <c r="P41" s="249"/>
+      <c r="Q41" s="249"/>
+      <c r="R41" s="249"/>
+      <c r="S41" s="249"/>
+      <c r="T41" s="249"/>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" t="s" s="218">
@@ -52419,13 +52445,56 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A26:T26"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A39:T39"/>
-    <mergeCell ref="A40:T40"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="E23:P23"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="E20:P20"/>
+    <mergeCell ref="E21:P21"/>
+    <mergeCell ref="E22:P22"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S20:T21"/>
+    <mergeCell ref="S11:T13"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Q11:R13"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="E9:P9"/>
+    <mergeCell ref="E10:P10"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="E14:P14"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="E12:P12"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q14:R16"/>
+    <mergeCell ref="S14:T16"/>
     <mergeCell ref="A41:T41"/>
     <mergeCell ref="A36:T36"/>
     <mergeCell ref="A37:T37"/>
@@ -52442,56 +52511,13 @@
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="S23:T23"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q14:R16"/>
-    <mergeCell ref="S14:T16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E14:P14"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="E12:P12"/>
-    <mergeCell ref="E13:P13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Q11:R13"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="E5:P5"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="E9:P9"/>
-    <mergeCell ref="E10:P10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S20:T21"/>
-    <mergeCell ref="S11:T13"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="E20:P20"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="E22:P22"/>
+    <mergeCell ref="A26:T26"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A39:T39"/>
+    <mergeCell ref="A40:T40"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="E23:P23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -52601,107 +52627,107 @@
       <c r="A3" t="s" s="46">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="271">
+      <c r="B3" t="s" s="273">
         <v>10</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="276"/>
-      <c r="E3" t="s" s="271">
+      <c r="C3" s="277"/>
+      <c r="D3" s="278"/>
+      <c r="E3" t="s" s="273">
         <v>11</v>
       </c>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="272"/>
-      <c r="O3" s="272"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" t="s" s="250">
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="274"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="274"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="274"/>
+      <c r="N3" s="274"/>
+      <c r="O3" s="274"/>
+      <c r="P3" s="275"/>
+      <c r="Q3" t="s" s="281">
         <v>181</v>
       </c>
-      <c r="R3" s="257"/>
-      <c r="S3" t="s" s="250">
+      <c r="R3" s="285"/>
+      <c r="S3" t="s" s="281">
         <v>312</v>
       </c>
-      <c r="T3" s="257"/>
-      <c r="U3" t="s" s="305">
+      <c r="T3" s="285"/>
+      <c r="U3" t="s" s="302">
         <v>183</v>
       </c>
-      <c r="V3" s="305"/>
-      <c r="W3" t="s" s="305">
+      <c r="V3" s="302"/>
+      <c r="W3" t="s" s="302">
         <v>184</v>
       </c>
-      <c r="X3" s="307"/>
+      <c r="X3" s="303"/>
       <c r="Y3" s="183"/>
     </row>
     <row r="4" spans="1:28" ht="12.75" customHeight="1">
       <c r="A4" t="s" s="185">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="314">
+      <c r="B4" t="s" s="295">
         <v>51</v>
       </c>
-      <c r="C4" s="315"/>
-      <c r="D4" s="315"/>
-      <c r="E4" t="s" s="268">
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" t="s" s="270">
         <v>112</v>
       </c>
-      <c r="F4" s="269"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="269"/>
-      <c r="J4" s="269"/>
-      <c r="K4" s="269"/>
-      <c r="L4" s="269"/>
-      <c r="M4" s="269"/>
-      <c r="N4" s="269"/>
-      <c r="O4" s="269"/>
-      <c r="P4" s="270"/>
-      <c r="Q4" t="s" s="306">
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="271"/>
+      <c r="J4" s="271"/>
+      <c r="K4" s="271"/>
+      <c r="L4" s="271"/>
+      <c r="M4" s="271"/>
+      <c r="N4" s="271"/>
+      <c r="O4" s="271"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" t="s" s="297">
         <v>92</v>
       </c>
-      <c r="R4" s="306"/>
-      <c r="S4" t="s" s="306">
+      <c r="R4" s="297"/>
+      <c r="S4" t="s" s="297">
         <v>92</v>
       </c>
-      <c r="T4" s="306"/>
-      <c r="U4" t="s" s="306">
+      <c r="T4" s="297"/>
+      <c r="U4" t="s" s="297">
         <v>92</v>
       </c>
-      <c r="V4" s="306"/>
-      <c r="W4" t="s" s="306">
+      <c r="V4" s="297"/>
+      <c r="W4" t="s" s="297">
         <v>92</v>
       </c>
-      <c r="X4" s="308"/>
+      <c r="X4" s="304"/>
       <c r="Y4" s="183"/>
     </row>
     <row r="5" spans="1:28" ht="42" customHeight="1">
       <c r="A5" t="s" s="47">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="248">
+      <c r="B5" t="s" s="256">
         <v>52</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" t="s" s="245">
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" t="s" s="258">
         <v>282</v>
       </c>
-      <c r="F5" s="246"/>
-      <c r="G5" s="246"/>
-      <c r="H5" s="246"/>
-      <c r="I5" s="246"/>
-      <c r="J5" s="246"/>
-      <c r="K5" s="246"/>
-      <c r="L5" s="246"/>
-      <c r="M5" s="246"/>
-      <c r="N5" s="246"/>
-      <c r="O5" s="246"/>
-      <c r="P5" s="247"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="259"/>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="260"/>
       <c r="Q5" s="244"/>
       <c r="R5" s="244"/>
       <c r="S5" s="244"/>
@@ -52711,32 +52737,32 @@
       </c>
       <c r="V5" s="244"/>
       <c r="W5" s="244"/>
-      <c r="X5" s="252"/>
+      <c r="X5" s="245"/>
       <c r="Y5" s="183"/>
     </row>
     <row r="6" spans="1:28" ht="110.25" customHeight="1">
       <c r="A6" t="s" s="47">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="248">
+      <c r="B6" t="s" s="256">
         <v>115</v>
       </c>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
-      <c r="E6" t="s" s="274">
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
+      <c r="E6" t="s" s="276">
         <v>113</v>
       </c>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
-      <c r="H6" s="274"/>
-      <c r="I6" s="274"/>
-      <c r="J6" s="274"/>
-      <c r="K6" s="274"/>
-      <c r="L6" s="274"/>
-      <c r="M6" s="274"/>
-      <c r="N6" s="274"/>
-      <c r="O6" s="274"/>
-      <c r="P6" s="274"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="276"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="276"/>
+      <c r="K6" s="276"/>
+      <c r="L6" s="276"/>
+      <c r="M6" s="276"/>
+      <c r="N6" s="276"/>
+      <c r="O6" s="276"/>
+      <c r="P6" s="276"/>
       <c r="Q6" t="s" s="244">
         <v>114</v>
       </c>
@@ -52749,68 +52775,68 @@
         <v>114</v>
       </c>
       <c r="V6" s="244"/>
-      <c r="W6" t="s" s="301">
+      <c r="W6" t="s" s="298">
         <v>313</v>
       </c>
-      <c r="X6" s="309"/>
+      <c r="X6" s="305"/>
       <c r="Y6" s="183"/>
     </row>
     <row r="7" spans="1:28" ht="110.25" customHeight="1">
       <c r="A7" t="s" s="47">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="248">
+      <c r="B7" t="s" s="256">
         <v>116</v>
       </c>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
-      <c r="E7" t="s" s="274">
+      <c r="C7" s="257"/>
+      <c r="D7" s="257"/>
+      <c r="E7" t="s" s="276">
         <v>156</v>
       </c>
-      <c r="F7" s="274"/>
-      <c r="G7" s="274"/>
-      <c r="H7" s="274"/>
-      <c r="I7" s="274"/>
-      <c r="J7" s="274"/>
-      <c r="K7" s="274"/>
-      <c r="L7" s="274"/>
-      <c r="M7" s="274"/>
-      <c r="N7" s="274"/>
-      <c r="O7" s="274"/>
-      <c r="P7" s="274"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="276"/>
+      <c r="J7" s="276"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="276"/>
+      <c r="N7" s="276"/>
+      <c r="O7" s="276"/>
+      <c r="P7" s="276"/>
       <c r="Q7" s="244"/>
       <c r="R7" s="244"/>
       <c r="S7" s="244"/>
       <c r="T7" s="244"/>
       <c r="U7" s="244"/>
       <c r="V7" s="244"/>
-      <c r="W7" s="310"/>
-      <c r="X7" s="311"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="307"/>
       <c r="Y7" s="183"/>
     </row>
     <row r="8" spans="1:28" ht="28.5" customHeight="1">
       <c r="A8" t="s" s="47">
         <v>16</v>
       </c>
-      <c r="B8" t="s" s="248">
+      <c r="B8" t="s" s="256">
         <v>2</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" t="s" s="245">
+      <c r="C8" s="257"/>
+      <c r="D8" s="257"/>
+      <c r="E8" t="s" s="258">
         <v>57</v>
       </c>
-      <c r="F8" s="246"/>
-      <c r="G8" s="246"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="246"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="247"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="259"/>
+      <c r="H8" s="259"/>
+      <c r="I8" s="259"/>
+      <c r="J8" s="259"/>
+      <c r="K8" s="259"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="259"/>
+      <c r="N8" s="259"/>
+      <c r="O8" s="259"/>
+      <c r="P8" s="260"/>
       <c r="Q8" t="s" s="244">
         <v>92</v>
       </c>
@@ -52824,32 +52850,32 @@
       <c r="W8" t="s" s="244">
         <v>92</v>
       </c>
-      <c r="X8" s="252"/>
+      <c r="X8" s="245"/>
       <c r="Y8" s="183"/>
     </row>
     <row r="9" spans="1:28" ht="12.75" customHeight="1">
       <c r="A9" t="s" s="47">
         <v>17</v>
       </c>
-      <c r="B9" t="s" s="248">
+      <c r="B9" t="s" s="256">
         <v>1</v>
       </c>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
-      <c r="E9" t="s" s="245">
+      <c r="C9" s="257"/>
+      <c r="D9" s="257"/>
+      <c r="E9" t="s" s="258">
         <v>157</v>
       </c>
-      <c r="F9" s="246"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="246"/>
-      <c r="M9" s="246"/>
-      <c r="N9" s="246"/>
-      <c r="O9" s="246"/>
-      <c r="P9" s="247"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="259"/>
+      <c r="H9" s="259"/>
+      <c r="I9" s="259"/>
+      <c r="J9" s="259"/>
+      <c r="K9" s="259"/>
+      <c r="L9" s="259"/>
+      <c r="M9" s="259"/>
+      <c r="N9" s="259"/>
+      <c r="O9" s="259"/>
+      <c r="P9" s="260"/>
       <c r="Q9" s="244"/>
       <c r="R9" s="244"/>
       <c r="S9" t="s" s="244">
@@ -52859,32 +52885,32 @@
       <c r="U9" s="244"/>
       <c r="V9" s="244"/>
       <c r="W9" s="244"/>
-      <c r="X9" s="252"/>
+      <c r="X9" s="245"/>
       <c r="Y9" s="183"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" customHeight="1">
       <c r="A10" t="s" s="47">
         <v>18</v>
       </c>
-      <c r="B10" t="s" s="248">
+      <c r="B10" t="s" s="256">
         <v>283</v>
       </c>
-      <c r="C10" s="249"/>
-      <c r="D10" s="249"/>
-      <c r="E10" t="s" s="245">
+      <c r="C10" s="257"/>
+      <c r="D10" s="257"/>
+      <c r="E10" t="s" s="258">
         <v>58</v>
       </c>
-      <c r="F10" s="246"/>
-      <c r="G10" s="246"/>
-      <c r="H10" s="246"/>
-      <c r="I10" s="246"/>
-      <c r="J10" s="246"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="246"/>
-      <c r="M10" s="246"/>
-      <c r="N10" s="246"/>
-      <c r="O10" s="246"/>
-      <c r="P10" s="247"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="259"/>
+      <c r="J10" s="259"/>
+      <c r="K10" s="259"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="259"/>
+      <c r="N10" s="259"/>
+      <c r="O10" s="259"/>
+      <c r="P10" s="260"/>
       <c r="Q10" s="244"/>
       <c r="R10" s="244"/>
       <c r="S10" t="s" s="244">
@@ -52896,32 +52922,32 @@
       </c>
       <c r="V10" s="244"/>
       <c r="W10" s="244"/>
-      <c r="X10" s="252"/>
+      <c r="X10" s="245"/>
       <c r="Y10" s="183"/>
     </row>
     <row r="11" spans="1:28" ht="12.75" customHeight="1">
       <c r="A11" t="s" s="47">
         <v>19</v>
       </c>
-      <c r="B11" t="s" s="248">
+      <c r="B11" t="s" s="256">
         <v>66</v>
       </c>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
-      <c r="E11" t="s" s="245">
+      <c r="C11" s="257"/>
+      <c r="D11" s="257"/>
+      <c r="E11" t="s" s="258">
         <v>131</v>
       </c>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="246"/>
-      <c r="K11" s="246"/>
-      <c r="L11" s="246"/>
-      <c r="M11" s="246"/>
-      <c r="N11" s="246"/>
-      <c r="O11" s="246"/>
-      <c r="P11" s="247"/>
+      <c r="F11" s="259"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="259"/>
+      <c r="J11" s="259"/>
+      <c r="K11" s="259"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="259"/>
+      <c r="N11" s="259"/>
+      <c r="O11" s="259"/>
+      <c r="P11" s="260"/>
       <c r="Q11" s="244"/>
       <c r="R11" s="244"/>
       <c r="S11" s="244"/>
@@ -52929,32 +52955,32 @@
       <c r="U11" s="244"/>
       <c r="V11" s="244"/>
       <c r="W11" s="244"/>
-      <c r="X11" s="252"/>
+      <c r="X11" s="245"/>
       <c r="Y11" s="183"/>
     </row>
     <row r="12" spans="1:28" ht="12.75" customHeight="1">
       <c r="A12" t="s" s="47">
         <v>20</v>
       </c>
-      <c r="B12" t="s" s="248">
+      <c r="B12" t="s" s="256">
         <v>67</v>
       </c>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" t="s" s="245">
+      <c r="C12" s="257"/>
+      <c r="D12" s="257"/>
+      <c r="E12" t="s" s="258">
         <v>72</v>
       </c>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
-      <c r="J12" s="246"/>
-      <c r="K12" s="246"/>
-      <c r="L12" s="246"/>
-      <c r="M12" s="246"/>
-      <c r="N12" s="246"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="247"/>
+      <c r="F12" s="259"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="259"/>
+      <c r="I12" s="259"/>
+      <c r="J12" s="259"/>
+      <c r="K12" s="259"/>
+      <c r="L12" s="259"/>
+      <c r="M12" s="259"/>
+      <c r="N12" s="259"/>
+      <c r="O12" s="259"/>
+      <c r="P12" s="260"/>
       <c r="Q12" s="244"/>
       <c r="R12" s="244"/>
       <c r="S12" s="244"/>
@@ -52962,32 +52988,32 @@
       <c r="U12" s="244"/>
       <c r="V12" s="244"/>
       <c r="W12" s="244"/>
-      <c r="X12" s="252"/>
+      <c r="X12" s="245"/>
       <c r="Y12" s="183"/>
     </row>
     <row r="13" spans="1:28" ht="68.25" customHeight="1">
       <c r="A13" t="s" s="47">
         <v>21</v>
       </c>
-      <c r="B13" t="s" s="279">
+      <c r="B13" t="s" s="269">
         <v>285</v>
       </c>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" t="s" s="245">
+      <c r="C13" s="257"/>
+      <c r="D13" s="257"/>
+      <c r="E13" t="s" s="258">
         <v>132</v>
       </c>
-      <c r="F13" s="246"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="246"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="246"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="247"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="259"/>
+      <c r="J13" s="259"/>
+      <c r="K13" s="259"/>
+      <c r="L13" s="259"/>
+      <c r="M13" s="259"/>
+      <c r="N13" s="259"/>
+      <c r="O13" s="259"/>
+      <c r="P13" s="260"/>
       <c r="Q13" t="s" s="244">
         <v>286</v>
       </c>
@@ -53003,32 +53029,32 @@
       <c r="W13" t="s" s="244">
         <v>286</v>
       </c>
-      <c r="X13" s="252"/>
+      <c r="X13" s="245"/>
       <c r="Y13" s="183"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1">
       <c r="A14" t="s" s="47">
         <v>22</v>
       </c>
-      <c r="B14" t="s" s="248">
+      <c r="B14" t="s" s="256">
         <v>287</v>
       </c>
-      <c r="C14" s="249"/>
-      <c r="D14" s="249"/>
-      <c r="E14" t="s" s="245">
+      <c r="C14" s="257"/>
+      <c r="D14" s="257"/>
+      <c r="E14" t="s" s="258">
         <v>30</v>
       </c>
-      <c r="F14" s="246"/>
-      <c r="G14" s="246"/>
-      <c r="H14" s="246"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="246"/>
-      <c r="K14" s="246"/>
-      <c r="L14" s="246"/>
-      <c r="M14" s="246"/>
-      <c r="N14" s="246"/>
-      <c r="O14" s="246"/>
-      <c r="P14" s="247"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="259"/>
+      <c r="I14" s="259"/>
+      <c r="J14" s="259"/>
+      <c r="K14" s="259"/>
+      <c r="L14" s="259"/>
+      <c r="M14" s="259"/>
+      <c r="N14" s="259"/>
+      <c r="O14" s="259"/>
+      <c r="P14" s="260"/>
       <c r="Q14" s="244"/>
       <c r="R14" s="244"/>
       <c r="S14" s="244"/>
@@ -53036,32 +53062,32 @@
       <c r="U14" s="244"/>
       <c r="V14" s="244"/>
       <c r="W14" s="244"/>
-      <c r="X14" s="252"/>
+      <c r="X14" s="245"/>
       <c r="Y14" s="183"/>
     </row>
     <row r="15" spans="1:28" ht="12.75" customHeight="1">
       <c r="A15" t="s" s="47">
         <v>23</v>
       </c>
-      <c r="B15" t="s" s="248">
+      <c r="B15" t="s" s="256">
         <v>59</v>
       </c>
-      <c r="C15" s="249"/>
-      <c r="D15" s="249"/>
-      <c r="E15" t="s" s="245">
+      <c r="C15" s="257"/>
+      <c r="D15" s="257"/>
+      <c r="E15" t="s" s="258">
         <v>154</v>
       </c>
-      <c r="F15" s="246"/>
-      <c r="G15" s="246"/>
-      <c r="H15" s="246"/>
-      <c r="I15" s="246"/>
-      <c r="J15" s="246"/>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
-      <c r="M15" s="246"/>
-      <c r="N15" s="246"/>
-      <c r="O15" s="246"/>
-      <c r="P15" s="247"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="259"/>
+      <c r="H15" s="259"/>
+      <c r="I15" s="259"/>
+      <c r="J15" s="259"/>
+      <c r="K15" s="259"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="259"/>
+      <c r="N15" s="259"/>
+      <c r="O15" s="259"/>
+      <c r="P15" s="260"/>
       <c r="Q15" s="244"/>
       <c r="R15" s="244"/>
       <c r="S15" s="244"/>
@@ -53069,32 +53095,32 @@
       <c r="U15" s="244"/>
       <c r="V15" s="244"/>
       <c r="W15" s="244"/>
-      <c r="X15" s="252"/>
+      <c r="X15" s="245"/>
       <c r="Y15" s="183"/>
     </row>
     <row r="16" spans="1:28" ht="33.75" customHeight="1">
       <c r="A16" t="s" s="47">
         <v>25</v>
       </c>
-      <c r="B16" t="s" s="248">
+      <c r="B16" t="s" s="256">
         <v>288</v>
       </c>
-      <c r="C16" s="248"/>
-      <c r="D16" s="248"/>
-      <c r="E16" t="s" s="245">
+      <c r="C16" s="256"/>
+      <c r="D16" s="256"/>
+      <c r="E16" t="s" s="258">
         <v>202</v>
       </c>
-      <c r="F16" s="246"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="246"/>
-      <c r="I16" s="246"/>
-      <c r="J16" s="246"/>
-      <c r="K16" s="246"/>
-      <c r="L16" s="246"/>
-      <c r="M16" s="246"/>
-      <c r="N16" s="246"/>
-      <c r="O16" s="246"/>
-      <c r="P16" s="247"/>
+      <c r="F16" s="259"/>
+      <c r="G16" s="259"/>
+      <c r="H16" s="259"/>
+      <c r="I16" s="259"/>
+      <c r="J16" s="259"/>
+      <c r="K16" s="259"/>
+      <c r="L16" s="259"/>
+      <c r="M16" s="259"/>
+      <c r="N16" s="259"/>
+      <c r="O16" s="259"/>
+      <c r="P16" s="260"/>
       <c r="Q16" s="244"/>
       <c r="R16" s="244"/>
       <c r="S16" s="244"/>
@@ -53102,36 +53128,36 @@
       <c r="U16" s="244"/>
       <c r="V16" s="244"/>
       <c r="W16" s="244"/>
-      <c r="X16" s="252"/>
+      <c r="X16" s="245"/>
       <c r="Y16" s="183"/>
     </row>
     <row r="17" spans="1:28" ht="52.5" customHeight="1">
       <c r="A17" t="s" s="47">
         <v>61</v>
       </c>
-      <c r="B17" t="s" s="248">
+      <c r="B17" t="s" s="256">
         <v>291</v>
       </c>
-      <c r="C17" s="249"/>
-      <c r="D17" s="249"/>
-      <c r="E17" t="s" s="245">
+      <c r="C17" s="257"/>
+      <c r="D17" s="257"/>
+      <c r="E17" t="s" s="258">
         <v>186</v>
       </c>
-      <c r="F17" s="246"/>
-      <c r="G17" s="246"/>
-      <c r="H17" s="246"/>
-      <c r="I17" s="246"/>
-      <c r="J17" s="246"/>
-      <c r="K17" s="246"/>
-      <c r="L17" s="246"/>
-      <c r="M17" s="246"/>
-      <c r="N17" s="246"/>
-      <c r="O17" s="246"/>
-      <c r="P17" s="247"/>
-      <c r="Q17" t="s" s="301">
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="259"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="259"/>
+      <c r="M17" s="259"/>
+      <c r="N17" s="259"/>
+      <c r="O17" s="259"/>
+      <c r="P17" s="260"/>
+      <c r="Q17" t="s" s="298">
         <v>314</v>
       </c>
-      <c r="R17" s="312"/>
+      <c r="R17" s="299"/>
       <c r="S17" t="s" s="244">
         <v>292</v>
       </c>
@@ -53140,68 +53166,68 @@
         <v>292</v>
       </c>
       <c r="V17" s="244"/>
-      <c r="W17" t="s" s="301">
+      <c r="W17" t="s" s="298">
         <v>315</v>
       </c>
-      <c r="X17" s="302"/>
+      <c r="X17" s="313"/>
       <c r="Y17" s="183"/>
     </row>
     <row r="18" spans="1:28" ht="52.5" customHeight="1">
       <c r="A18" t="s" s="47">
         <v>62</v>
       </c>
-      <c r="B18" t="s" s="265">
+      <c r="B18" t="s" s="292">
         <v>158</v>
       </c>
-      <c r="C18" s="266"/>
-      <c r="D18" s="267"/>
-      <c r="E18" t="s" s="245">
+      <c r="C18" s="293"/>
+      <c r="D18" s="294"/>
+      <c r="E18" t="s" s="258">
         <v>195</v>
       </c>
-      <c r="F18" s="246"/>
-      <c r="G18" s="246"/>
-      <c r="H18" s="246"/>
-      <c r="I18" s="246"/>
-      <c r="J18" s="246"/>
-      <c r="K18" s="246"/>
-      <c r="L18" s="246"/>
-      <c r="M18" s="246"/>
-      <c r="N18" s="246"/>
-      <c r="O18" s="246"/>
-      <c r="P18" s="247"/>
-      <c r="Q18" s="303"/>
-      <c r="R18" s="313"/>
+      <c r="F18" s="259"/>
+      <c r="G18" s="259"/>
+      <c r="H18" s="259"/>
+      <c r="I18" s="259"/>
+      <c r="J18" s="259"/>
+      <c r="K18" s="259"/>
+      <c r="L18" s="259"/>
+      <c r="M18" s="259"/>
+      <c r="N18" s="259"/>
+      <c r="O18" s="259"/>
+      <c r="P18" s="260"/>
+      <c r="Q18" s="300"/>
+      <c r="R18" s="301"/>
       <c r="S18" s="244"/>
       <c r="T18" s="244"/>
       <c r="U18" s="244"/>
       <c r="V18" s="244"/>
-      <c r="W18" s="303"/>
-      <c r="X18" s="304"/>
+      <c r="W18" s="300"/>
+      <c r="X18" s="314"/>
       <c r="Y18" s="183"/>
     </row>
     <row r="19" spans="1:28" ht="14.25" customHeight="1">
       <c r="A19" t="s" s="47">
         <v>63</v>
       </c>
-      <c r="B19" t="s" s="248">
+      <c r="B19" t="s" s="256">
         <v>293</v>
       </c>
-      <c r="C19" s="249"/>
-      <c r="D19" s="249"/>
-      <c r="E19" t="s" s="245">
+      <c r="C19" s="257"/>
+      <c r="D19" s="257"/>
+      <c r="E19" t="s" s="258">
         <v>24</v>
       </c>
-      <c r="F19" s="246"/>
-      <c r="G19" s="246"/>
-      <c r="H19" s="246"/>
-      <c r="I19" s="246"/>
-      <c r="J19" s="246"/>
-      <c r="K19" s="246"/>
-      <c r="L19" s="246"/>
-      <c r="M19" s="246"/>
-      <c r="N19" s="246"/>
-      <c r="O19" s="246"/>
-      <c r="P19" s="247"/>
+      <c r="F19" s="259"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="259"/>
+      <c r="I19" s="259"/>
+      <c r="J19" s="259"/>
+      <c r="K19" s="259"/>
+      <c r="L19" s="259"/>
+      <c r="M19" s="259"/>
+      <c r="N19" s="259"/>
+      <c r="O19" s="259"/>
+      <c r="P19" s="260"/>
       <c r="Q19" s="244"/>
       <c r="R19" s="244"/>
       <c r="S19" s="244"/>
@@ -53211,32 +53237,32 @@
       </c>
       <c r="V19" s="244"/>
       <c r="W19" s="244"/>
-      <c r="X19" s="252"/>
+      <c r="X19" s="245"/>
       <c r="Y19" s="183"/>
     </row>
     <row r="20" spans="1:28" ht="12.75" customHeight="1">
       <c r="A20" t="s" s="47">
         <v>68</v>
       </c>
-      <c r="B20" t="s" s="248">
+      <c r="B20" t="s" s="256">
         <v>159</v>
       </c>
-      <c r="C20" s="249"/>
-      <c r="D20" s="249"/>
-      <c r="E20" t="s" s="245">
+      <c r="C20" s="257"/>
+      <c r="D20" s="257"/>
+      <c r="E20" t="s" s="258">
         <v>155</v>
       </c>
-      <c r="F20" s="246"/>
-      <c r="G20" s="246"/>
-      <c r="H20" s="246"/>
-      <c r="I20" s="246"/>
-      <c r="J20" s="246"/>
-      <c r="K20" s="246"/>
-      <c r="L20" s="246"/>
-      <c r="M20" s="246"/>
-      <c r="N20" s="246"/>
-      <c r="O20" s="246"/>
-      <c r="P20" s="247"/>
+      <c r="F20" s="259"/>
+      <c r="G20" s="259"/>
+      <c r="H20" s="259"/>
+      <c r="I20" s="259"/>
+      <c r="J20" s="259"/>
+      <c r="K20" s="259"/>
+      <c r="L20" s="259"/>
+      <c r="M20" s="259"/>
+      <c r="N20" s="259"/>
+      <c r="O20" s="259"/>
+      <c r="P20" s="260"/>
       <c r="Q20" s="244"/>
       <c r="R20" s="244"/>
       <c r="S20" s="244"/>
@@ -53244,32 +53270,32 @@
       <c r="U20" s="244"/>
       <c r="V20" s="244"/>
       <c r="W20" s="244"/>
-      <c r="X20" s="252"/>
+      <c r="X20" s="245"/>
       <c r="Y20" s="183"/>
     </row>
     <row r="21" spans="1:28" ht="52.5" customHeight="1">
       <c r="A21" t="s" s="48">
         <v>74</v>
       </c>
-      <c r="B21" t="s" s="288">
+      <c r="B21" t="s" s="246">
         <v>95</v>
       </c>
-      <c r="C21" s="289"/>
-      <c r="D21" s="290"/>
-      <c r="E21" t="s" s="245">
+      <c r="C21" s="247"/>
+      <c r="D21" s="248"/>
+      <c r="E21" t="s" s="258">
         <v>199</v>
       </c>
-      <c r="F21" s="246"/>
-      <c r="G21" s="246"/>
-      <c r="H21" s="246"/>
-      <c r="I21" s="246"/>
-      <c r="J21" s="246"/>
-      <c r="K21" s="246"/>
-      <c r="L21" s="246"/>
-      <c r="M21" s="246"/>
-      <c r="N21" s="246"/>
-      <c r="O21" s="246"/>
-      <c r="P21" s="247"/>
+      <c r="F21" s="259"/>
+      <c r="G21" s="259"/>
+      <c r="H21" s="259"/>
+      <c r="I21" s="259"/>
+      <c r="J21" s="259"/>
+      <c r="K21" s="259"/>
+      <c r="L21" s="259"/>
+      <c r="M21" s="259"/>
+      <c r="N21" s="259"/>
+      <c r="O21" s="259"/>
+      <c r="P21" s="260"/>
       <c r="Q21" s="244"/>
       <c r="R21" s="244"/>
       <c r="S21" s="244"/>
@@ -53277,99 +53303,99 @@
       <c r="U21" s="244"/>
       <c r="V21" s="244"/>
       <c r="W21" s="244"/>
-      <c r="X21" s="252"/>
+      <c r="X21" s="245"/>
       <c r="Y21" s="183"/>
     </row>
     <row r="22" spans="1:28" ht="41.25" customHeight="1" thickBot="1">
       <c r="A22" t="s" s="49">
         <v>96</v>
       </c>
-      <c r="B22" t="s" s="285">
+      <c r="B22" t="s" s="263">
         <v>0</v>
       </c>
-      <c r="C22" s="286"/>
-      <c r="D22" s="286"/>
-      <c r="E22" t="s" s="293">
+      <c r="C22" s="264"/>
+      <c r="D22" s="264"/>
+      <c r="E22" t="s" s="252">
         <v>294</v>
       </c>
-      <c r="F22" s="294"/>
-      <c r="G22" s="294"/>
-      <c r="H22" s="294"/>
-      <c r="I22" s="294"/>
-      <c r="J22" s="294"/>
-      <c r="K22" s="294"/>
-      <c r="L22" s="294"/>
-      <c r="M22" s="294"/>
-      <c r="N22" s="294"/>
-      <c r="O22" s="294"/>
-      <c r="P22" s="295"/>
-      <c r="Q22" s="283"/>
-      <c r="R22" s="283"/>
-      <c r="S22" s="283"/>
-      <c r="T22" s="283"/>
-      <c r="U22" s="283"/>
-      <c r="V22" s="283"/>
-      <c r="W22" s="283"/>
-      <c r="X22" s="284"/>
+      <c r="F22" s="253"/>
+      <c r="G22" s="253"/>
+      <c r="H22" s="253"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="253"/>
+      <c r="K22" s="253"/>
+      <c r="L22" s="253"/>
+      <c r="M22" s="253"/>
+      <c r="N22" s="253"/>
+      <c r="O22" s="253"/>
+      <c r="P22" s="254"/>
+      <c r="Q22" s="261"/>
+      <c r="R22" s="261"/>
+      <c r="S22" s="261"/>
+      <c r="T22" s="261"/>
+      <c r="U22" s="261"/>
+      <c r="V22" s="261"/>
+      <c r="W22" s="261"/>
+      <c r="X22" s="262"/>
       <c r="Y22" s="184"/>
       <c r="Z22" s="181"/>
       <c r="AA22" s="181"/>
       <c r="AB22" s="181"/>
     </row>
     <row r="23" spans="1:28" s="179" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" t="s" s="296">
+      <c r="A23" t="s" s="308">
         <v>311</v>
       </c>
-      <c r="B23" s="296"/>
-      <c r="C23" s="296"/>
-      <c r="D23" s="296"/>
-      <c r="E23" s="296"/>
-      <c r="F23" s="296"/>
-      <c r="G23" s="296"/>
-      <c r="H23" s="296"/>
-      <c r="I23" s="296"/>
-      <c r="J23" s="296"/>
-      <c r="K23" s="296"/>
-      <c r="L23" s="296"/>
-      <c r="M23" s="296"/>
-      <c r="N23" s="296"/>
-      <c r="O23" s="296"/>
-      <c r="P23" s="296"/>
-      <c r="Q23" s="296"/>
-      <c r="R23" s="296"/>
-      <c r="S23" s="296"/>
-      <c r="T23" s="296"/>
-      <c r="U23" s="296"/>
-      <c r="V23" s="296"/>
-      <c r="W23" s="296"/>
-      <c r="X23" s="297"/>
+      <c r="B23" s="308"/>
+      <c r="C23" s="308"/>
+      <c r="D23" s="308"/>
+      <c r="E23" s="308"/>
+      <c r="F23" s="308"/>
+      <c r="G23" s="308"/>
+      <c r="H23" s="308"/>
+      <c r="I23" s="308"/>
+      <c r="J23" s="308"/>
+      <c r="K23" s="308"/>
+      <c r="L23" s="308"/>
+      <c r="M23" s="308"/>
+      <c r="N23" s="308"/>
+      <c r="O23" s="308"/>
+      <c r="P23" s="308"/>
+      <c r="Q23" s="308"/>
+      <c r="R23" s="308"/>
+      <c r="S23" s="308"/>
+      <c r="T23" s="308"/>
+      <c r="U23" s="308"/>
+      <c r="V23" s="308"/>
+      <c r="W23" s="308"/>
+      <c r="X23" s="309"/>
     </row>
     <row r="24" spans="1:28" s="179" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:28" s="179" customFormat="1" ht="12.75">
-      <c r="A25" s="298"/>
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
-      <c r="G25" s="299"/>
-      <c r="H25" s="299"/>
-      <c r="I25" s="299"/>
-      <c r="J25" s="299"/>
-      <c r="K25" s="299"/>
-      <c r="L25" s="299"/>
-      <c r="M25" s="299"/>
-      <c r="N25" s="299"/>
-      <c r="O25" s="299"/>
-      <c r="P25" s="299"/>
-      <c r="Q25" s="299"/>
-      <c r="R25" s="299"/>
-      <c r="S25" s="299"/>
-      <c r="T25" s="299"/>
-      <c r="U25" s="299"/>
-      <c r="V25" s="299"/>
-      <c r="W25" s="299"/>
-      <c r="X25" s="300"/>
+      <c r="A25" s="310"/>
+      <c r="B25" s="311"/>
+      <c r="C25" s="311"/>
+      <c r="D25" s="311"/>
+      <c r="E25" s="311"/>
+      <c r="F25" s="311"/>
+      <c r="G25" s="311"/>
+      <c r="H25" s="311"/>
+      <c r="I25" s="311"/>
+      <c r="J25" s="311"/>
+      <c r="K25" s="311"/>
+      <c r="L25" s="311"/>
+      <c r="M25" s="311"/>
+      <c r="N25" s="311"/>
+      <c r="O25" s="311"/>
+      <c r="P25" s="311"/>
+      <c r="Q25" s="311"/>
+      <c r="R25" s="311"/>
+      <c r="S25" s="311"/>
+      <c r="T25" s="311"/>
+      <c r="U25" s="311"/>
+      <c r="V25" s="311"/>
+      <c r="W25" s="311"/>
+      <c r="X25" s="312"/>
     </row>
     <row r="26" spans="1:28" s="179" customFormat="1" ht="12.75"/>
     <row r="27" spans="1:28" s="179" customFormat="1" ht="12.75"/>
@@ -53444,84 +53470,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:P10"/>
-    <mergeCell ref="Q10:R12"/>
-    <mergeCell ref="S10:T12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:P12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:P13"/>
-    <mergeCell ref="Q13:R15"/>
-    <mergeCell ref="S13:T15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:P14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:P19"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:P20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:P18"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="W8:X8"/>
     <mergeCell ref="A23:X23"/>
     <mergeCell ref="A25:X25"/>
     <mergeCell ref="W22:X22"/>
@@ -53538,6 +53486,84 @@
     <mergeCell ref="U10:V12"/>
     <mergeCell ref="U13:V15"/>
     <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:P18"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:P19"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:P20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="Q13:R15"/>
+    <mergeCell ref="S13:T15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:P14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:P10"/>
+    <mergeCell ref="Q10:R12"/>
+    <mergeCell ref="S10:T12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:P12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0"/>
